--- a/Autodidacte/商务英语/高级英语.xlsx
+++ b/Autodidacte/商务英语/高级英语.xlsx
@@ -4,24 +4,27 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" activeTab="7"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="645" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="选词填空1" sheetId="1" r:id="rId1"/>
     <sheet name="选词填空2" sheetId="2" r:id="rId2"/>
     <sheet name="选词填空3" sheetId="3" r:id="rId3"/>
-    <sheet name="单选题1" sheetId="4" r:id="rId4"/>
-    <sheet name="单选题2" sheetId="5" r:id="rId5"/>
-    <sheet name="单选题3" sheetId="6" r:id="rId6"/>
-    <sheet name="英译汉" sheetId="9" r:id="rId7"/>
-    <sheet name="汉译英" sheetId="10" r:id="rId8"/>
+    <sheet name="选词填空4" sheetId="11" r:id="rId4"/>
+    <sheet name="单选题1" sheetId="4" r:id="rId5"/>
+    <sheet name="单选题2" sheetId="5" r:id="rId6"/>
+    <sheet name="单选题3" sheetId="6" r:id="rId7"/>
+    <sheet name="单选题4" sheetId="12" r:id="rId8"/>
+    <sheet name="单选题5" sheetId="13" r:id="rId9"/>
+    <sheet name="英译汉" sheetId="9" r:id="rId10"/>
+    <sheet name="汉译英" sheetId="10" r:id="rId11"/>
   </sheets>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="201">
   <si>
     <t>Energy is the currency of the ecological system and life becomes possible only when food is converted into energy, which in turn is used to seek more food to grow, to reproduce and to survive.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -160,6 +163,173 @@
   </si>
   <si>
     <t>你把邦尼当成足球抱着在大街上跑，到底想干什么？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Community identity was secondary, if a consideration at all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>社区身份即便在考虑之列，也是次要的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was very familiar with that anxious, apologetic smile.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他对这种担忧和表示歉意的微笑非常熟悉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Besides, the invariable squabble for money on Saturday nights had begun to weary her unspeakably.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>另外， 每周六晚上为了钱而发生的争吵已使她开始感到说不出的厌倦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The newspapers do their best to help those who help them; and to the flood of advertisement is added a flood of less directly paid-for propaganda in favor of modernity-snoobbery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一些报纸竭力为哪些帮助过报纸的人提供帮助。除了到处泛滥的广告，还有大量不那么直接花钱去做的有利于新潮势力的宣传。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you work in an international organization, you might be on call around the clock for trouble shooting or consulting.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你在一个国际机构工作，也许你要夜以继日地随叫随到进行疑难排解或提供咨询。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you hope to move up the career ladder, you may find yourself regularly working more than 40 hours a week to achieve and exceed expectations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你希望在职场上平步青云，那么为了达到和超过预期目标，你就会定期每周工作40多个小时。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you regularly work extra hours, you may be given more responsibility.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你定期加班，你可能承担更多的责任。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">For more people, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">juggling(巧妙处理) </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the demands of career and personal life is an ongoing challenge.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对于大多数人来说，巧妙处理职业和个人生活的需求是一个持续的挑战。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There's nothing as stressful and potentially dangerous as working when you're sleep-deprived.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当你被剥夺了休息的权利时，就没有什么事情像工作那样令人压力重重又潜藏着危险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Then he began to write, carefully, without hurry, a thin legible hand.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而后他开始认真地不紧不慢地写信，字迹细长而清晰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is a simple question of which side one tasks and what approach one follows.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>问题很简单：站在哪一边，采取什么样的办法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He had a degree in accounting and wanted to be a tax lawyer, which was of course a requirement with a tax firm.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他有会计专业的文凭，想成为一名税务律师，当然这也正是税务律师事务所的要求。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>至于那些常见的疾病势力者，他们因患了富人易得的病便自称与众不同，人们对他们更没有多少同情来减少对他们的恼恨了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In the case of those commoner disease-snobs, whose claim to distinction is that they suffer from one of the maladies of the rich, exasperation is not tempered by very much sympathy.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many doctors, together with their patients, are looking for alternative methods of treatment of physical problems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多医生与病人一起寻找其他方法来治疗身体疾病。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>However, this use of psychology does help more patients because their attitudes about themselves change.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然而，这种心理方法的采用的确帮助了一些病人，因为他们的自我态度改变了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Furthermore, sometimes the adult patient worries about her illness so much that the anxiety keeps her from getting well.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>而且，那位成年病人有时太担心她的病，以至于这种焦虑阻碍了她身体的好转。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The symptoms of the asthma occurred less frequently, and when they did, they were not as strong.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>哮喘症状的发作频率减少了; 而发作时，也不是那么强烈了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Many professional medical groups have accepted the medical use of psychology because they recognize its value.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由于意识到了其价值，许多职业医疗组织已经承认了心理学的医疗用途。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -168,7 +338,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -179,7 +349,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -196,7 +366,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color rgb="FFFF0000"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -207,7 +377,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="12"/>
+        <sz val="11"/>
         <color theme="1"/>
         <rFont val="宋体"/>
         <family val="3"/>
@@ -219,35 +389,587 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Community identity was secondary, if a consideration at all.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>社区身份即便在考虑之列，也是次要的。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>He was very familiar with that anxious, apologetic smile.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>他对这种担忧和表示歉意的微笑非常熟悉。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Besides, the invariable squabble for money on Saturday nights had begun to weary her unspeakably.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>另外， 每周六晚上为了钱而发生的争吵已使她开始感到说不出的厌倦。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>The newspapers do their best to help those who help them; and to the flood of advertisement is added a flood of less directly paid-for propaganda in favor of modernity-snoobbery.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>一些报纸竭力为哪些帮助过报纸的人提供帮助。除了到处泛滥的广告，还有大量不那么直接花钱去做的有利于新潮势力的宣传。</t>
+    <t>She has remained through my life the measure of what a human being can be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在我的一生中，她一直是我衡量人的标准。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But they spent all their leisure visiting neighboring farms and stealing potatoes, which they hoarded.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但她们却一有空就跑到邻近的农场偷土豆并囤积起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The three were eating breakfast on the terrace, a thousand and one felicitous birds in the garden trees.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们三人在平台上吃早餐，花园的树林里有很多快活的鸟儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>From the start of that campaign, I faced undisguised hostility because of my sex.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从竞选一开始，我就要面对他们毫不掩饰的对我所属性别的敌意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If you fit the statistical averages, by the age of 20 you will have been exposed to at least 20,000 hours of television.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果你符合平均统计数字，到二十岁时，你就至少已经看了两万个小时的电视。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But there is one appetite it does not feed and which the partisan newspapers of the nation do: the appetite for hate - hate of whatever is different.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是有一个欲望是电视无法满足而美国极具党派性的报纸却可以满足的，那就是仇恨 - 对一切不一样的事物的仇恨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What motivate them aren't material possessions but the choices that money can bring.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>激励他们的并不是物质财富，而是金钱所能带来的选择机会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>If more people are getting richer than ever, why shouldn't you be one of them?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果更多的人比以前更富有了，那么你为何不能成为他们中的一员呢？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The biggest obstacle to wealth is fear. People are afraid to think big, but if you think small, you'll only achieve small things.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>变富的最大的障碍就是恐惧。人们害怕大胆构想，但是如果你着眼于小事情，你就只能在小事情上有所成就。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I actually had to go to my bank and ask them to teach me how to read my statement.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上我不得不去银行请他们教我如何看结算单。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Within ten years, they were millionaires, and people were coming to Steve for advice.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他们在十年内变成了百万富翁，人们都来向史蒂夫讨教。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Life would be as dull as ditchwater.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>生活就像一沟死水一样乏味。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We see through that.Why should be married get off?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们算看透了。为什么结了婚的人可以逃脱？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>They crumbled, became moldy, dried out.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>它们易碎，易变得不新鲜，还易变干。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It was the start of a long, painful reeducation for white Americans.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对美国白人来说，这是漫长而痛苦的再教育的开始。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">I spoke to </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wright(姓氏：赖特)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> about it once before and he put me off, saying folks talked too much anywan, and all he asked was peace and quiet.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我以前跟赖特提过一次，他没回答，只是说不管怎么着人们说话太多了。他想要的只是安安静静不受打扰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>What can we possibly conclude from these discrepant point of view? Our popular attitudes could be summed up as a combination of wishful thinking and start terror.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从这些相互矛盾的看法中我们能够得出什么样的结论呢？我们的普遍态度可归纳为痴心妄想和赤裸裸的恐惧的结合。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Everyone else was happily moving forward in their lives, choosing topics of study and predicting futures. I still hadn't made my big breakthrough in making this all too significant decision.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In fact, I didn't even need college. I could just go out into the world, and my great skills and abilities would be immediately recognized.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I was wrong. All they could talk about was majors. They both had to share their majors with me, and both had an opinion as to what I should be.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>As college students often do, I decided that if I just slept for a while and wakened up really early, I would be able to arrive at an answer to this enormously difficult question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Involve yourself in those things that interest you and enjoy learning about the world. These is plenty of time to decide what you will do with the rest of your life.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>其他人都沿着生活的道路快乐地前行着，他们都选定了学习的主题，憧憬着未来。这个决定实在是重大至极，我在这方面仍然没有取得大的进展。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>事实上，我甚至连大学都可以不上，只要出去闯世界就行了，我出众的技艺和能力很快就会得到认同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不过我错了，他们谈的内容都跟专业有关。他俩都把自己的专业讲给我听，还对我该选什么专业发表意见。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>像其他大学生常常做的一样，我决定只管睡上一阵子，只要早点醒来，我就能找到这个极难的问题的答案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你要参加自己感兴趣的活动，乐于了解这个世界。你有充足的时间来决定将来做什么工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>看到在这里定居的人们喜欢你们，我心里真高兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他摇摇晃晃地走到她的车旁，摸索着她的车门。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>然而，如果一个病人的哲学观点拥护安乐死，那么别人凭什么出于宗教考虑而干涉他的死亡。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一方面，他们的工资很少，而且它们也知道如果一旦失去这里的工作，不用费太大的劲儿，就可以在别的公司找到工资如此低的工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果有笔、墨水和纸，没有什么能阻止我写出几本不朽之作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>只有关系到最卓越的工作时，这一衡量标准才不适用。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Nothing stands between me and half-a-dozen imperishable masterpieces but pens, ink and paper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It is only where the best work is concerned that this measure ceases to be the natural one to apply.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>That does my heart good to see settled people take to you all.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He puttered to her car and fumbled for her car door.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yet if a patient's philosophical views embrace euthanasia,it is not clear why the religious objections of others should intrude on his death.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>For one thing, their salaries are small, and they know they will not have much trouble finding jobs paying just as little in other companies if they lose their jobs here.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But the average student is probably motivated by a more tangible, immediate, and pressuring reason - the requirement to take and pass tests.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>You need to understand the important of test, the best methods of preparation, the common sense required for both physical and mental approach to them, how to read instructions and questions correctly, and how to answer the way the test or teacher expects you to answer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you, like many of your fellow students, consider the test or examination as a personal battle which the teacher wages in an attempt to defeat you, or do you see it as a contest in which one tries to outwit the other?</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Students who accept a test as a challenge to show the teacher the extent of their knowledge of the subject and to improve their grades are stimulated.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Now that you understand the reasons for tests and examinations, and how they benefit both students and teacher, you should not groan when a test is announced.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但一般的学生之所以受到激励可能是出于一种更具体、更直接、更强制的原因：必须参加并通过考试。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你需要了解测试的重要性、备考的最佳方法、全身心备考的常识、如何正确解读考试说明和试题，以及如何按照测试或老师期待的方式答题。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你是否和你的许多同学一样，认为测试是老师发动的一场想要打败你的战斗抑或是一场同学之间互争高下的竞赛？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把测试视为一种挑战以向老师展示自己的学科知识所达到的程度并提高成绩的学生，受到了激励。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>既然你已经明白了考试的原因，以及考试如何能使师生皆受益，那么当老师宣布有考试的时候你就不要在怨声连连了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are no retractions or future deliverances.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The campaign for more physical beauty seems to be both a tremendous success and a lamentable failure.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Newspapers have two great advantages over television.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He fixed the rod firmly against the bank and stood to stretch himself.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Several cars were parked in the yard of the old house as we approached, and Salina, keeping her voice low, said, "Maybe they are having a party."</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>But other desires kept them active: four in particular, which we can label acquisitiveness, rivalry, vanity and love of power.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>你不可能回去，将来也得不到解脱。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这场追求外表美的运动似乎即是巨大的成功又是可悲的失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报纸和电视相比具有两大优越性。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>他把鱼竿固定在河岸上，然后站起来伸伸懒腰。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们走近时，院子里停着好几辆车。萨丽娜放低声音说：“可能他们在开办一个聚会”</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>但是其他的欲望仍然促使他们十分活跃，尤其是四种欲望，我们称之为占有欲、竞争欲、虚荣心和权力欲。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The best way to lower your BMI(the body mass index) is to reduce the total number of calories you take in and to be more physically active.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Once your new healthy behavior becomes a habit, you can move on to another goal.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Physical activity builds muscles, so even if you don't lose pounds, you will look and feel better when you are more active.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Also, compared with calories that come from carbohydrates or proteins, calories that come from fat are more easily used by your body to make body fat.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you skip a meal, you are likely to get too hungry, and then you may eat too much at once.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>降低你身体重量指数的最佳方法是减少摄入的卡路里总数并多做运动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>如果新的健康行为成了一种习惯，你就可以开始下一个目标。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为体育运动能够锻炼肌肉，所以即使你没有变瘦，多做运动时你仍会看上去很不错而且感觉很好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>此外，来自脂肪的卡路里比来自碳水化合物以及蛋白质的卡路里更容易为人体所吸收，并转变为体内脂肪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>一顿不吃饭，你就会很饿，于是就有可能马上吃很多。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In those homely sayings was couched the collective wisdom of generations.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She was determined to be neither possessivenor lacking in devotion.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Was that wise? She tried to weigh each side of the question.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This self-elected deprivation was a way into the nastier side of the consumer society.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Our research shows that no company can succeed today by trying to be all things to all people.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She had the grace of control to appear warm in the coldest weather, and on the Arkansas summer days it seemed she had a private breeze which swirled around, cooling her.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>那些朴实的话语表达了一代又一代人的集体智慧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她决心既不带有占有欲，也不缺少关心爱护。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这样做明智吗？她试着权衡这个问题的每一个方面。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这种自我剥夺是进入这个消费社会更可憎的一面的一种途径。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我们的调查表明，如今没有一家公司能够依靠试图做到面面俱到、满足所有人的需求而取得成功。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她举止优雅，在最冷的天气也能显得温暖宜人;而在阿肯色州的盛夏，她周围好像有一股私人用的微风在打转，使她感动清凉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The People's Republic of China(China)is the world's most populous country and the second largest energy consumer.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A set of "target" municipalities was identified within China's territory, allowing for a subsequent dissemination of the UENP approach to other locations with similar energy efficiency problems.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Aim of this phase will be to assess the current energy situationin China, with a national as well as a regional perspective.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Specific strategies will be presented in the document, tailored to the particular characteristics of the municipalities being studied.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>中华人民共和国是世界上人口最多的国家和第二大能源消耗国。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>考虑到今后要在其他存在着类似能效问题的城市推广城市能源规划的方法，中国境内一些城市被定为“目标城市”。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>城市能源规划的总体目标是：鉴定并评估出减少二氧化碳排放量以及综合改善环境质量的最佳方案。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>这一阶段的目标是从全国和地区这两个角度评估中国当前的 能源形式。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>报告将针对调研城市各自的特点，提出具体的策略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">The general objective of </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the UENP(Urban Energy Planning for a Sustainable Environment)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is to identify and evaluate optimal schemes to reduce CO</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">2 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>emissions and to improve the integrated environment quality in the long run.</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The one American industry unaffected by the general depression of trade is the beauty industry.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>There are certain disfiguring and mortal diseases about which there has probably never been any snobbery.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>In fact, I am continuously astonished by people in the company who fall victim to their own propaganda.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>And sometimes a tiny stagger came suddenly rocking into the open from under the trees.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She had hard work to keep the house together and to see that the two yong children who had been left to her charge went to school regularly and got their meals regularly.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The senior partner studied the resume for the hundredth time and again found nothing he disliked about Mitchell Y.McDeere, at least not on paper.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美国唯一没有收到经济萧条影响的产业就是美容业。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>因为没有人对那么损坏人容颜的、致命的疾病怀有势力之感。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>实际上，一直令我感到震惊的是，我们公司的人竟为自己的宣传所欺骗。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有时候一个刚刚学步的小孩突然从树下摇摇晃晃地走到这片空地。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>她好不容易才能将这个家维持下来，让那两个留给她照顾的年幼的孩子能够按时上学，按时吃饭。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>资深的合伙人第一百次研究了米歇尔·麦克蒂尔的个人简历，还是没能发现任何他不喜欢的地方，至少从简历上没有发现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>题目</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>选项</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>扩展</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She stared at the mouse in (revulsion).</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A.accreditation                   B.prosecution
+C.distortion                      D.revulsion</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -255,7 +977,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -271,14 +993,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <family val="2"/>
+      <family val="3"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
@@ -286,8 +1009,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="22"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -314,7 +1056,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -322,17 +1064,100 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="13">
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -347,12 +1172,36 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color auto="1"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFA6D7E2"/>
       <color rgb="FFDAEEF3"/>
-      <color rgb="FFA6D7E2"/>
       <color rgb="FF85C7D7"/>
       <color rgb="FFADDAE5"/>
     </mruColors>
@@ -672,6 +1521,1196 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B300"/>
+  <sheetViews>
+    <sheetView topLeftCell="A88" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="82.33203125" style="2" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="5" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="7" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="13" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="15" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="60.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="2" t="s">
+        <v>151</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>154</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="2" t="s">
+        <v>155</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="2" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B22">
+    <cfRule type="expression" dxfId="11" priority="2">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A23:B300">
+    <cfRule type="expression" dxfId="10" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B342"/>
+  <sheetViews>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="46.8" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="94" style="4" customWidth="1"/>
+    <col min="3" max="3" width="16" style="4" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="3"/>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+    </row>
+    <row r="5" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3"/>
+      <c r="B6" s="3"/>
+    </row>
+    <row r="7" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="16.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3"/>
+      <c r="B8" s="3"/>
+    </row>
+    <row r="9" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="3"/>
+    </row>
+    <row r="11" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3"/>
+      <c r="B12" s="3"/>
+    </row>
+    <row r="13" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="19.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3"/>
+      <c r="B14" s="3"/>
+    </row>
+    <row r="15" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="19.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="19" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B21" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="4" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="25" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="27" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="31" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="33" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="43" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B45" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B47" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="49" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="B49" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="51" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="B51" s="4" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="B53" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="55" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="57" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" ht="50.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="61" spans="1:2" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="4" t="s">
+        <v>125</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="63" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="B63" s="4" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="B65" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="B67" s="4" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="B69" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="B71" s="4" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="73" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="B73" s="4" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="75" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="B75" s="4" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="B77" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="79" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="B79" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="81" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B81" s="4" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A83" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B83" s="4" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="85" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B85" s="4" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="87" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B87" s="4" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A89" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B89" s="4" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="91" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B91" s="4" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="93" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="4" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A95" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B95" s="4" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="97" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B97" s="4" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="99" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B99" s="4" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A101" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B101" s="4" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="103" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B103" s="4" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="204" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="208" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="210" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="214" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="220" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="222" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="226" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="238" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="240" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="250" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="252" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="268" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="276" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="280" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="282" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="292" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="294" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="298" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="304" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="306" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="310" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="312" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="316" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="318" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="322" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="324" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="328" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="330" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="334" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="342" ht="18" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:B56 A59:B342">
+    <cfRule type="expression" dxfId="9" priority="3">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A57:B58">
+    <cfRule type="expression" dxfId="8" priority="1">
+      <formula>MOD(ROW(),2)=1</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
@@ -690,7 +2729,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -705,7 +2744,469 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="J24" sqref="J24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="67.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C3">
+    <cfRule type="expression" dxfId="12" priority="5">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="expression" dxfId="7" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 A8:C8 A10:C10 A12:C12 A14:C14 A16:C16 A18:C18 A20:C20 A22:C22 A24:C24 A26:C26 A28:C28 A30:C30 A32:C32 A34:C34 A36:C36 A38:C38 A40:C40 A42:C42 A44:C44 A46:C46 A48:C48 A50:C50 A52:C52 A54:C54 A56:C56 A58:C58 A60:C60 A62:C62 A64:C64 A66:C66 A68:C68 A70:C70 A72:C72 A74:C74 A76:C76 A78:C78 A80:C80 A82:C82 A84:C84 A86:C86 A88:C88 A90:C90 A92:C92 A94:C94 A96:C96 A98:C98 A100:C100 A102:C102 A104:C104 A106:C106 A108:C108 A110:C110 A112:C112 A114:C114 A116:C116 A118:C118 A120:C120 A122:C122 A124:C124 A126:C126 A128:C128 A130:C130 A132:C132 A134:C134 A136:C136 A138:C138 A140:C140 A142:C142 A144:C144 A146:C146 A148:C148 A150:C150 A152:C152 A154:C154 A156:C156 A158:C158 A160:C160 A162:C162 A164:C164 A166:C166 A168:C168 A170:C170 A172:C172 A174:C174 A176:C176 A178:C178 A180:C180 A182:C182 A184:C184 A186:C186 A188:C188 A190:C190 A192:C192 A194:C194 A196:C196 A198:C198 A200:C200">
+    <cfRule type="expression" dxfId="6" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="67.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C3">
+    <cfRule type="expression" dxfId="5" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="expression" dxfId="4" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 A8:C8 A10:C10 A12:C12 A14:C14 A16:C16 A18:C18 A20:C20 A22:C22 A24:C24 A26:C26 A28:C28 A30:C30 A32:C32 A34:C34 A36:C36 A38:C38 A40:C40 A42:C42 A44:C44 A46:C46 A48:C48 A50:C50 A52:C52 A54:C54 A56:C56 A58:C58 A60:C60 A62:C62 A64:C64 A66:C66 A68:C68 A70:C70 A72:C72 A74:C74 A76:C76 A78:C78 A80:C80 A82:C82 A84:C84 A86:C86 A88:C88 A90:C90 A92:C92 A94:C94 A96:C96 A98:C98 A100:C100 A102:C102 A104:C104 A106:C106 A108:C108 A110:C110 A112:C112 A114:C114 A116:C116 A118:C118 A120:C120 A122:C122 A124:C124 A126:C126 A128:C128 A130:C130 A132:C132 A134:C134 A136:C136 A138:C138 A140:C140 A142:C142 A144:C144 A146:C146 A148:C148 A150:C150 A152:C152 A154:C154 A156:C156 A158:C158 A160:C160 A162:C162 A164:C164 A166:C166 A168:C168 A170:C170 A172:C172 A174:C174 A176:C176 A178:C178 A180:C180 A182:C182 A184:C184 A186:C186 A188:C188 A190:C190 A192:C192 A194:C194 A196:C196 A198:C198 A200:C200">
+    <cfRule type="expression" dxfId="3" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C200"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="3" width="67.33203125" style="2" customWidth="1"/>
+    <col min="4" max="16384" width="8.88671875" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" ht="28.2" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
+        <v>196</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>197</v>
+      </c>
+      <c r="C1" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="10" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="12" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="16" spans="1:3" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="18" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="22" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="24" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="28" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="30" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="34" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="36" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="40" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="42" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="46" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="48" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="52" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="54" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="58" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="60" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="64" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="66" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="70" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="72" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="76" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="78" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="82" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="84" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="88" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="90" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="94" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="96" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="100" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="102" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="106" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="108" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="112" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="114" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="118" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="120" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="124" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="126" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="130" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="132" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="136" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="138" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="142" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="144" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="148" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="150" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="154" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="156" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="160" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="162" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="174" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="178" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="180" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="184" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="186" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="192" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="196" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="198" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" ht="46.2" customHeight="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <conditionalFormatting sqref="A1:C3">
+    <cfRule type="expression" dxfId="2" priority="3">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A4:C4">
+    <cfRule type="expression" dxfId="1" priority="2">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="A6:C6 A8:C8 A10:C10 A12:C12 A14:C14 A16:C16 A18:C18 A20:C20 A22:C22 A24:C24 A26:C26 A28:C28 A30:C30 A32:C32 A34:C34 A36:C36 A38:C38 A40:C40 A42:C42 A44:C44 A46:C46 A48:C48 A50:C50 A52:C52 A54:C54 A56:C56 A58:C58 A60:C60 A62:C62 A64:C64 A66:C66 A68:C68 A70:C70 A72:C72 A74:C74 A76:C76 A78:C78 A80:C80 A82:C82 A84:C84 A86:C86 A88:C88 A90:C90 A92:C92 A94:C94 A96:C96 A98:C98 A100:C100 A102:C102 A104:C104 A106:C106 A108:C108 A110:C110 A112:C112 A114:C114 A116:C116 A118:C118 A120:C120 A122:C122 A124:C124 A126:C126 A128:C128 A130:C130 A132:C132 A134:C134 A136:C136 A138:C138 A140:C140 A142:C142 A144:C144 A146:C146 A148:C148 A150:C150 A152:C152 A154:C154 A156:C156 A158:C158 A160:C160 A162:C162 A164:C164 A166:C166 A168:C168 A170:C170 A172:C172 A174:C174 A176:C176 A178:C178 A180:C180 A182:C182 A184:C184 A186:C186 A188:C188 A190:C190 A192:C192 A194:C194 A196:C196 A198:C198 A200:C200">
+    <cfRule type="expression" dxfId="0" priority="1">
+      <formula>MOD(ROW(),2)=0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -715,25 +3216,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L23" sqref="L23"/>
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
@@ -741,265 +3229,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="39.6" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="82.33203125" style="2" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="39.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B300">
-    <cfRule type="expression" dxfId="1" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B23"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="46.8" customHeight="1" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="2" width="91" style="4" customWidth="1"/>
-    <col min="3" max="16384" width="8.88671875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="3"/>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="3"/>
-      <c r="B4" s="3"/>
-    </row>
-    <row r="5" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="3"/>
-      <c r="B6" s="3"/>
-    </row>
-    <row r="7" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-    </row>
-    <row r="9" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-    </row>
-    <row r="11" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-    </row>
-    <row r="13" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="3"/>
-      <c r="B14" s="3"/>
-    </row>
-    <row r="15" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" ht="46.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A1:B337">
-    <cfRule type="expression" dxfId="0" priority="1">
-      <formula>MOD(ROW(),2)=1</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Autodidacte/商务英语/高级英语.xlsx
+++ b/Autodidacte/商务英语/高级英语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="645"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="重点单词" sheetId="12" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="755">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1019">
   <si>
     <t>Energy is the currency of the ecological system and life becomes possible only when food is converted into energy, which in turn is used to seek more food to grow, to reproduce and to survive.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -11755,6 +11755,2591 @@
   <si>
     <t>V-T ( formal ) to make a feeling or situation exist 产生，引起（某种感觉或情况）
 • The issue engendered controversy. 这个问题引起了争论。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>eradicate /ɪˈrædɪˌkeɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>flee /fli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T/V-I If you flee from something or someone, or flee a person or thing, you escape from them. 逃离
+•  He slammed the bedroom door behind him and fled. 
+ 他砰地关上卧室的门就逃走了。
+•  ...refugees fleeing persecution or torture. 
+ …逃避迫害或折磨的难民们。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T To eradicate something means to get rid of it completely. 根除
+•  They are already battling to eradicate illnesses such as malaria and tetanus /ˈtɛtənəs/. 
+ 他们已经在为根除疟疾、破伤风等疾病而斗争。
+2.N-UNCOUNT 根除
+•  ...a significant contribution toward the eradication of corruption. 
+ …一个为根除腐败而做出的重要贡献。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fluctuate /ˈflʌktjʊˌeɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I If something fluctuates, it changes a lot in an irregular way. 波动
+•  Body temperature can fluctuate if you are ill. 
+ 如果你病了，体温会波动。
+2.N-VAR 波动
+•  Don't worry about tiny fluctuations in your weight. 
+ 不用担心你体重的轻微波动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>formidable /ˈfɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>mɪdəbəl/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>可怕的；令人敬畏的；难对付的
+We have a formidable task ahead of us. 
+ 我们面前有一项艰巨的任务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>falter /ˈfɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ltə/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I 衰退
+•  Normal life is at a standstill, and the economy is faltering. 
+ 正常生活陷入停滞，经济正在衰退。
+2.V-I 犹豫
+•  I have not faltered in my quest for a new future. 
+ 我对崭新未来的追求未曾犹豫过。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fidget /ˈfɪdʒɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.V-I 动来动去
+•  Brenda fidgeted in her seat. 
+ 布伦达在椅子上坐不住。
+2.PHRASAL VERB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Fidget around</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>fidget about</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> mean the same as . 动来动去 (同)(fidget)
+•  There were two new arrivals, fidgeting around, waiting to ask questions. 
+ 有两个新来的人，坐立不定，等着提问。
+3.V-I 不停摆弄
+•  He fidgeted with his tie. 
+ 他不停摆弄他的领带。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>flicker /ˈflɪkə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I If a light or flame flickers, it shines unsteadily. 闪烁不定
+•  Fluorescent lights flickered, and then the room was blindingly bright. 
+ 荧光灯闪了闪，接着房间里就亮得令人目眩了。
+2.N-COUNT Flicker is also a noun. 闪烁
+•  Looking through the window I saw the flicker of flames. 
+ 透过窗子望出去，我看到了闪烁的火光。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>gasp /ɡɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>sp/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.N-COUNT (尤指惊讶或疼痛时的) 倒吸气
+•  An audible gasp went around the court as the jury announced the verdict. 
+ 陪审团宣布判决的时候，法庭上听到倒抽了一口气的声音。
+2.V-I 倒吸气
+•  She gasped for air and drew in a lungful of water. 
+ 她倒吸气，吸了一大口水。
+3.PHRASE You describe something as </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>the last gasp</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to emphasize that it is the final part of something or happens at the last possible moment. 最后时刻
+•  ...the last gasp of a dying system of censorship. 
+ …行将结束的审查制度的最后时刻。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glamorize /ˈɡlæməˌraɪz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 美化
+•  Filmmakers have often been accused of glamorizing organized crime. 
+ 电影制片人常被指责美化有组织的犯罪。
+•  ...a glamorized view of the past. 
+ ...一种美化过去的观点。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>grievance /ˈɡri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>vəns/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>~ (against sb) something that you think is unfair and that you complain or protest about 不平的事；委屈；抱怨；牢骚
+• Parents were invited to air their grievances (= express them) at the meeting. 家长们应邀在会上诉说他们的苦衷。
+• He had been nursing a grievance against his boss for months. 他几个月来一直对老板心怀不满。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>glimmer /ˈɡlɪmə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I 闪烁微光
+•  The moon glimmered faintly through the mists. 
+ 月亮透过薄雾闪烁着微光。
+2.N-COUNT A glimmer is a faint, gentle, often unsteady light. 微光
+•  In the east there is the slightest glimmer of light. 
+ 东方有一丝闪烁的微光。
+3.N-COUNT A glimmer of something is a faint sign of it. 一丝 (迹象)
+•  Despite an occasional glimmer of hope, this campaign has not produced any results. 尽管偶尔有一线希望，这次宣传活动并没有产生任何结果。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ghastly /ˈɡɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stlɪ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 令人讨厌的
+•  ...a mother accompanied by her ghastly, unruly child. 
+ …一位母亲，陪着的是她那令人讨厌的、难管教的孩子。
+•  It was the worst week of my life. It was ghastly. 
+ 这是我一生中最糟糕的一周。令人讨厌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grudge /ɡrʌdʒ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT 积怨
+•  He appears to have a grudge against certain players. 
+ 他好像对某些选手有积怨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gregarious /ɡrɪˈɡɛərɪəs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ 爱社交的
+•  She is such a gregarious and outgoing person. 
+ 她就是这样一个爱社交而且外向的人。
+2.ADJ 群居的
+•  Snow geese are very gregarious birds. 
+ 雪雁是种群居的鸟类。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>gratify /ˈɡrætɪˌfaɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T 使高兴; 使满意
+•  Mr. Dambar was gratified by his response. 
+ 他的答复使丹巴尔先生感到满意。
+2.ADJ 令人满意的
+•  We took a chance and we've won. It's very gratifying. 
+ 我们碰了碰运气并且赢了。这真令人高兴。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>grumble /ˈɡrʌmbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T/V-I If someone grumbles, they complain about something in a bad-tempered way. 抱怨
+•  They grumble about how hard they have to work. 
+ 他们抱怨自己工作得很辛苦。
+•  Taft grumbled that the law so favoured the criminal that trials seemed like a game of chance. 
+ 塔夫脱抱怨法律如此有利于罪犯，使得审判看来像是一场运气的游戏。
+2.N-COUNT Grumble is also a noun. 抱怨
+•  My only grumble is that there isn't a non-smoking section. 
+ 我惟一的抱怨是这儿没有无烟区。
+3.V-I If something grumbles, it makes a low continuous sound. 隆隆作响
+•  It was quiet now, the thunder had grumbled away to the west. 
+ 现在安静了，雷声已经隆隆作响地传到西边了。
+4.N-SING Grumble is also a noun. 隆隆响声
+•  One could often hear, far to the east, the grumble of guns. 
+ 人们经常可以听到在远远的东边有隆隆的枪炮声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hereditary /hɪˈrɛdɪtərɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ 遗传 (性) 的
+•  Cystic fibrosis is the commonest fatal hereditary disease. 
+ 囊性纤维化是最常见的致命性遗传疾病。
+2.ADJ 世袭的
+•  The position of the head of state is hereditary. 
+ 国家元首的职位是世袭的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>hierarchy /ˈhaɪəˌrɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>kɪ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-VAR 等级制度
+•  Like most other American companies with a rigid hierarchy, workers and managers had strictly defined duties. 
+ 像大多数其他等级制度森严的美国公司一样，工人和管理人员都有严格界定的职责。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>homely /ˈhəʊmlɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ 相貌平平的
+•  The man was homely, overweight, and probably only two or three years younger than Lou. 
+ 该男子相貌平平，身材肥胖，可能只比卢年轻两三岁。
+2.ADJ 如在家一般; 舒适自在的
+•  ...a large, homely dining room. 
+ …一家宽敞而舒适的餐厅。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>humbug /ˈhʌmˌbʌɡ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT 欺骗; 空话
+•  There was all the usual humbug and obligatory compliments from ministers. 
+ 全都是些部长们常说的谎言和奉承恭维。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypocrisy /hɪˈpɒkrəsɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-VAR 虚伪
+•  He accused newspapers of hypocrisy in their treatment of the story. 
+ 他指责报纸在处理这篇报道时所表现出的虚伪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>haul /hɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>l/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.V-T If you haul something which is heavy or difficult to move, you move it using a lot of effort. (用力地) 拉
+•  A crane had to be used to haul the car out of the stream. 
+ 不得不用了一台起重机把轿车从河里拉出来。
+2.V-T If someone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is hauled before</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a court or someone in authority, they are made to appear before them because they are accused of having done something wrong. 传讯
+•  He was hauled before the managing director and fired. 
+ 他被总裁叫去问话并被解雇了。
+3.PHRASAL VERB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Haul up</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means the same as . 传讯
+•  He was hauled up before the board of trustees. 
+ 他被带到了托管委员会面前问话。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>humanistic /ˈhju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>məˌnɪstɪk/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 人文主义的
+•  Religious values can often differ greatly from humanistic morals. 
+ 宗教价值观常常和人文主义道德观相去甚远。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>humiliating /hju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈmɪlɪˌeɪtɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If something is humiliating, it embarrasses you and makes you feel ashamed and stupid. 使蒙受耻辱的
+•  The Democrats have suffered a humiliating defeat. 
+ 民主党人已经遭受了一次有失脸面的失败。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>hypothesis /haɪˈpɒθɪsɪs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-VAR 假设
+•  Work will now begin to test the hypothesis in rats. 
+ 在老鼠身上验证这一假设的工作现在要开始了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impair /ɪmˈpɛə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T 损害
+•  Consumption of alcohol impairs your ability to drive a car or operate machinery. 
+ 饮酒会削弱你驾驶汽车或操纵机器的能力。
+2.ADJ 受损的
+•  The blast left him with permanently impaired hearing. 
+ 爆炸造成了他永久性听力损伤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>implore /ɪmˈplɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 恳求
+•  We will implore both parties to stay at the negotiating table. 
+ 我们将恳求双方留在谈判桌上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inconsistency /ˌɪnkənˈsɪstənsɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-VAR 不一致
+•  We were asked to investigate the alleged inconsistencies in his evidence. 
+ 我们被要求调查他证词中所称的前后矛盾之处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>incredulous /ɪnˈkrɛdjʊləs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If someone is incredulous, they are unable to believe something because it is very surprising or shocking. 怀疑的
+•  "He made you do it?" Her voice was incredulous. 
+ “他让你做的？”她的声音是怀疑的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>indignation /ˌɪndɪɡˈneɪʃən/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT 愤怒不平
+•  She was filled with indignation at the conditions under which miners were forced to work. 
+ 她为矿工们被迫工作的条件满心愤慨。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>instinctive /ɪnˈstɪ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ŋ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ktɪv/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 本能的
+•  It's an instinctive reaction – if a child falls you pick it up. 
+ 这是一种本能的反应–如果小孩摔倒了你会扶他起来。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>integrity /ɪnˈtɛɡrɪtɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-UNCOUNT 正直; 诚实
+•  I have always regarded him as a man of integrity. 
+ 我一直把他当作一个正直诚实的人。
+2.N-UNCOUNT 完整
+•  Separatist movements are a threat to the integrity of the nation. 
+ 分裂活动是对国家领土完整的威胁。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>intrude /ɪnˈtru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.V-I If you say that someone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>is intruding into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a particular place or situation, you mean that they are not wanted or welcome there. 侵扰
+•  The press has been blamed for intruding into people's personal lives in an unacceptable way. 
+ 新闻媒体因以一种令人无法接受的方式侵入人们的私生活而受到谴责。
+2.V-I If something </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intrudes on</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> your mood or your life, it disturbs it or has an unwanted effect on it. 扰乱
+•  Do you feel anxious when unforeseen incidents intrude on your day? 
+ 当无可预料的事件侵扰到你的生活时，你会感到焦虑吗？
+3.V-I If someone </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>intrudes into</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> a place, they go there even though they are not allowed to be there. 侵入
+•  An American officer on the scene said no one had intruded into the space he was defending. 
+ 现场的一名美国军官说还没有人闯入过他所防卫的区域。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>irksome /ˈɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ksəm/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If something is irksome, it irritates or annoys you. 烦人的; 讨厌的
+•  ...the irksome regulations. 
+ ...烦人的规定。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>impoverishment /ɪmˈpɒvərɪʃmənt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT 穷困; 贫困化
+•  National isolation can only cause economic and cultural impoverishment. 
+ 国家孤立只会造成经济和文化贫困。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>incur /ɪnˈkɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you incur something unpleasant, it happens to you because of something you have done. 招致; 蒙受
+•  The government had also incurred huge debts. 
+ 政府也已承受了大笔债务。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>inducement /ɪnˈdju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>smənt/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT If someone is offered an inducement to do something, they are given or promised gifts or benefits in order to persuade them to do it. 引诱物; 诱因
+•  They offer every inducement to foreign businesses to invest in their states. 
+ 他们提供了种种优惠条件吸引外国公司在他们州投资。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>ingenious /ɪnˈdʒi</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>njəs/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Something that is ingenious is very clever and involves new ideas, methods, or equipment. 灵巧的; 新颖的
+•  ...a truly ingenious invention. 
+ …一项的确新颖的发明。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>insatiable /ɪnˈseɪʃəbəl, -ʃɪə-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If someone has an insatiable desire for something, they want as much of it as they can possibly get. 无法满足的; 贪得无厌的
+•  A section of the reading public has an insatiable appetite for dirty stories about the famous. 
+ 阅读大众中有一部分人对名人的风流韵事的欲望总是无法满足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>invariable /ɪnˈvɛərɪəbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ You use invariable to describe something that never changes. 不变的; 恒定的
+•  There are no absolute, invariable moral rules. 
+ 没有绝对的，不变的道德准则。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>judiciary /dʒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈdɪʃɪərɪ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-SING 司法部
+•  The judiciary must think very hard before jailing nonviolent offenders. 
+ 司法部在把非暴力罪犯投入监狱之前一定要慎重考虑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>jolt /dʒəʊlt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T/V-I If something jolts or if something jolts it, it moves suddenly and quite violently. 使颠簸; 颠簸
+•  The wagon jolted again. 
+ 马车又颠簸起来。
+•  The train jolted into motion. 
+ 火车颠了一下开动了。
+2.N-COUNT Jolt is also a noun. 颠簸
+•  We were worried that one tiny jolt could worsen her injuries. 
+ 我们担心一次轻微的颠簸都可能加剧她的伤情。
+3.V-T If something jolts someone, it gives them an unpleasant surprise or shock. 震惊
+•  A stinging slap across the face jolted her. 
+ 火辣辣的一记巴掌使她惊呆了。
+4.N-COUNT Jolt is also a noun. 震惊
+•  Then my husband left me. It gave me the jolt I needed. 
+ 后来我的丈夫离开了我。这给了我那个我需要的震动。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>judicious /dʒu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈdɪʃəs/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe an action or decision as judicious, you approve of it because you think that it shows good judgment and sense. 明智的
+•  The president authorizes the judicious use of military force to protect our citizens. 
+ 总统授权明智动用军队来保护我们的公民。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>justified /ˈdʒʌstɪfaɪd/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe a decision, action, or idea as justified, you think it is reasonable and acceptable. 合理的
+•  In my opinion, the decision was wholly justified. 
+ 在我看来，这个决定是完全合理的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>kaleidoscopic /kəˌlaɪdəˈskɒpɪk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe something as kaleidoscopic, you mean that it consists of a lot of very different parts, such as different colours, patterns, or shapes. 由多种不同部分组成的(如不同颜色、图案或形状)，万花筒似的
+•  ...a kaleidoscopic study of the shifting ideas and symbols of nationhood. 
+ ...一种对不断变化的民族主义思想及象征的多角度研究。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>keep a low profile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>保持低姿态，不引起别人注意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lamentable /ˈlæməntəbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 令人扼腕的; 使人惋惜的
+•  This lamentable state of affairs lasted until 1947. 
+ 这一令人遗憾的事态一直持续至1947年。
+•  His command of English was lamentable. 
+ 他的英语水平糟得很。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>legible /ˈlɛdʒəbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Legible writing is clear enough to read. (字迹)清晰可辨的
+•  My handwriting isn't very legible. 
+ 我写的字不太好认。
+•  ...a barely legible sign. 
+ ...一块字迹难辨的招牌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lavish /ˈlævɪʃ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe something as lavish, you mean that it is very elaborate and impressive and a lot of money has been spent on it. 盛大奢华的
+•  ...a lavish party to celebrate Bryan's fiftieth birthday. 
+ …庆祝布赖恩50岁生日的盛会。
+•  He staged the most lavish productions of Mozart. 
+ 他举办了最盛大的莫扎特作品演奏会。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>leapfrog /ˈli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pˌfrɒɡ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-UNCOUNT Leapfrog is a game which children play, in which a child bends over, while others jump over their back. 跳背游戏
+•  The kids were playing leapfrog and doing somersaults in the backyard. 
+ 孩子们正在后院玩跳背游戏和翻筋头。
+2.V-T/V-I If one group of people leapfrogs into a particular position or leapfrogs someone else, they use the achievements of another person or group in order to make advances of their own. (利用别人成就) 超越
+•  It is already obvious that all four American systems have leapfrogged over the European versions. 
+ 显然，美国的全部4套系统已经超越了欧洲的版本。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>lust /lʌst/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-UNCOUNT Lust is a feeling of strong sexual desire for someone. 淫欲
+•  His relationship with Angie was the first which combined lust with friendship. 
+ 他和安吉的关系是他第一次将色欲和友谊相结合。
+2.N-UNCOUNT A lust for something is a very strong and eager desire to have it. 欲望
+•  It was Fred's lust for glitz and glamour that was driving them apart. 
+ 弗雷德对浮华和美艳的欲望使他们分手。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>malice /ˈmælɪs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Malice is behaviour that is intended to harm people or their reputations, or cause them embarrassment and upset. 恶行
+•  There was a strong current of malice in many of his portraits. 
+ 他的许多肖像画中都透出强烈的恶意。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>monotony /məˈnɒtənɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT The monotony of something is the fact that it never changes and is boring. 单调乏味; 一成不变
+•  A night on the town may help to break the monotony of the week. 
+ 去城里待一晚也许有助改变一周工作生活的单调。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>mumble /ˈmʌmbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T/V-I 咕哝
+•  Her grandmother mumbled in her sleep. 
+ 她祖母睡觉时咕哝了。
+•  He mumbled a few words. 
+ 他咕哝了几句。
+2.N-COUNT Mumble is also a noun. 咕哝
+•  He could hear the low mumble of Navarro's voice. 
+ 他能听到纳瓦罗的低声咕哝。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>melancholy /ˈmɛlənkəlɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ You describe something that you see or hear as melancholy when it gives you an intense feeling of sadness. 忧郁的
+•  The only sounds were the distant, melancholy cries of the sheep. 
+ 惟一的声音是远处的羊群的哀叫。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>militancy</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n. 好战，好斗</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>motivate /ˈməʊtɪˌveɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T If you are motivated by something, especially an emotion, it causes you to behave in a particular way. 激发…的积极性
+•  They are motivated by a need to achieve. 
+ 他们被成功的需要激励着。
+2.ADJ 有积极性的
+•  ...highly motivated employees. 
+ …积极性很高的员工。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>mournful /ˈmɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>nfʊl/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ If you are mournful, you are very sad. 悲伤的
+•  He looked mournful, even near to tears. 
+ 他看上去很悲伤，几乎要掉泪了。
+2.ADV 悲伤地
+•  He stood mournfully at the gate waving bye bye. 
+ 他悲伤地站在门口，挥手说再见。
+3.ADJ A mournful sound seems very sad. (声音) 悲切的
+•  ...the mournful wail of bagpipes. 
+ …风笛的悲鸣声。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>muse /mju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>z/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T/V-I If you muse on something, you think about it, usually saying or writing what you are thinking at the same time. 揣摩
+•  Many of the papers muse on the fate of the president. 
+ 许多报纸在揣测总统的命运。
+•  "As a whole," she muses, "the `organized church' turns me off." 
+ “总的来说，”她若有所思地说，“‘组织严密的教会’让我厌烦。”
+2.N-COUNT 沉思
+•  His musings were interrupted by Montagu who came and sat down next to him. 
+ 蒙塔古来到他旁边坐下时，他的思绪被打断了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>noncommittally</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv. 无明确性质地，态度不明朗地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>novelty /ˈnɒvəltɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-UNCOUNT Novelty is the quality of being different, new, and unusual. 新奇
+•  In the contemporary western world, rapidly changing styles cater to a desire for novelty and individualism. 
+ 在当代西方世界，快速变换着的款式迎合了人们对新奇和独特性的追求。
+2.N-COUNT A novelty is something that is new and therefore interesting. 新奇的事物
+•  Stores really like orange cauliflower because it's a novelty, it's something different. 
+ 商店真地喜欢橘黄色花椰菜，因为它是一种新奇的东西，与众不同。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nag /næɡ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T/V-I 唠叨催促
+•  The more Sarah nagged her, the more stubborn Cissie became. 
+ 萨拉越是对她唠叨不休，茜茜就越是固执。
+•  My girlfriend nagged me to cut my hair. 
+ 我女朋友唠叨着催我去理发。
+2.N-COUNT A nag is someone who nags. 唠叨催促的人
+•  Aunt Molly is a nag about regular meals. 
+ 莫莉姨妈是个对一日三餐絮絮叨叨的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nook and cranny</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>到处，每个角落</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>nourish /ˈnʌrɪʃ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T 为…提供营养
+•  The food she eats nourishes both her and the baby. 
+ 她吃的食物为她和婴儿提供营养。
+2.ADJ 有营养的
+•  Most of these nourishing substances are in the yolk of the egg. 
+ 这些营养物质大部分在蛋黄里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>oath /əʊθ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-COUNT An oath is a formal promise, especially a promise to be loyal to a person or country. (尤指忠于某人或国家的) 誓言; 宣誓
+•  He took an oath of loyalty to the government. 
+ 他做了效忠于政府的宣誓。
+2.N-SING In a court of law, when someone takes the oath, they make a formal promise to tell the truth. You can say that someone is under oath when they have made this promise. (在法庭上的) 宣誓
+•  His girlfriend had gone into the witness box and taken the oath. 
+ 他的女朋友已进了证人席并宣了誓。
+•  Under oath, Andy finally admitted that he had lied. 
+ 宣誓之后，安迪终于承认他曾撒了谎。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>odds /ɒdz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.可能性</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>omission /əʊˈmɪʃən/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-COUNT 删节; 遗漏
+•  He was surprised by his wife's omission from the guest list. 
+ 他对于宾客名单上他夫人名字的遗漏感到吃惊。
+2.N-VAR 省略; 排除
+•  ...the prosecution's seemingly malicious omission of recorded evidence. 
+ …控方对在案证据似为恶意的疏略。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outfit /ˈaʊtˌfɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-COUNT An outfit is a set of clothes. 全套服装
+•  She was wearing an outfit she'd bought the previous day. 
+ 她穿着前一天买的一套服装。
+2.N-COUNT You can refer to an organization as an outfit. 机构
+•  He works for a private security outfit. 
+ 他在一家私人保安公司工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>overpower /ˌəʊvəˈpaʊə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T If you overpower someone, you manage to take hold of and keep hold of them, although they struggle a lot. 制服
+•  It took ten guardsmen to overpower him. 
+ 动用了10个守卫才将他制服。
+2.V-T If a feeling overpowers you, it suddenly affects you very strongly. 突然极为强烈地影响
+•  A sudden dizziness overpowered him. 
+ 一阵突然的晕眩令他难以忍受。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>obsolete /ˈɒbsəˌli</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>t/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Something that is obsolete is no longer needed because something better has been invented. 被淘汰的
+•  So much equipment becomes obsolete almost as soon as it's made. 
+ 很多设备几乎刚制造出来就过时了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>optimize /ˈɒptɪˌmaɪz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 使优化
+•  The new systems have been optimized for running Microsoft Windows. 
+ 新系统已经被优化，以便运行微软视窗系统。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>orator /ˈɒrətə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT 演说家
+•  He was a natural politician, a gifted orator who knew how to work a crowd. 
+ 他曾是位天生的政治家，是位有天赋且知道如何凝集民众的演说家。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>outrun /ˌaʊtˈrʌn/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T 跑得过
+•  There are not many players who can outrun me. 
+ 跑得过我的选手不太多。
+2.V-T 超过
+•  Spending could outrun the capacity of businesses to produce the goods. 
+ 支出可能超过行业生产这些货物的能力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>overdo /ˌəʊvəˈdu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T 把…做得过头
+•  The extent of the rise might indicate that it had been overdone. 
+ 上涨的程度可能显示事情做得过头了。
+2.过度地做
+•  It is important never to overdo new exercises. 
+ 重要的是，千万不要过度进行一项新的锻炼。
+•  It's important to study hard, but don't overdo it. 
+ 刻苦学习很重要，但不要超过极限。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>parasite /ˈpærəˌsaɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.寄生虫</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>pervade /pɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈveɪd/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If something pervades a place or thing, it is a noticeable feature throughout it. 弥漫; 充满
+•  The smell of sawdust and glue pervaded the factory. 
+ 锯屑和胶水的气味弥漫在工厂里。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>preoccupy /pri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈɒkjʊˌpaɪ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If something is preoccupying you, you are thinking about it a lot. 占据 (某人的思绪)
+•  Crime and the fear of crime preoccupy the community. 
+ 犯罪和对犯罪的恐惧占据了这个社区的思绪。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>profusion /prəˈfju</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ʒən/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-SING-COLL If there is a profusion of something or if it occurs in profusion, there is a very large quantity or variety of it. 大量; 丰富
+•  ...a delightful river with a profusion of wild flowers along its banks. 
+ ...一条令人愉悦的河，岸上开满了野花。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>purge /pɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>dʒ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.~ sth (of sb)~ sb (from sth) to remove people from an organization, often violently, because their opinions or activities are unacceptable to the people in power 清除，清洗（组织中的异己分子）
+•
+His first act as leader was to purge the party of extremists. 他当上领导的第一件事就是清除党内的极端分子。 
+•
+He purged extremists from the party. 他把极端分子清除出党。 
+2.~ yourself/sb/sth (of sth)~ sth (from sth) ( formal ) to make yourself/sb/sth pure, healthy or clean by getting rid of bad thoughts or feelings 净化（心灵、风气等）；涤荡（污秽）
+•
+We need to purge our sport of racism. 我们必须消除体育界的种族主义。 
+•
+Nothing could purge the guilt from her mind. 她内心的愧疚是无法消除的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pester /ˈpɛstə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you say that someone is pestering you, you mean that they keep asking you to do something, or keep talking to you, and you find this annoying. 纠缠
+•  I thought she'd stop pestering me, but it only seemed to make her worse. 
+ 我以为她会停止纠缠我，但似乎只是让她变本加厉了。
+•  I know he gets fed up with people pestering him for money. 
+ 我知道他烦透了那些缠着他要钱的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pleasantry /ˈplɛzəntrɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-COUNT Pleasantries are casual, friendly remarks that you make in order to be polite. 客气; 客套话
+•  He exchanged pleasantries about his hotel and the weather. 
+ 他就他住的宾馆和天气寒暄了几句。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>populace /ˈpɒpjʊləs/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT The populace of a country is its people. 平民
+•  ...a large proportion of the populace. 
+ …平民中的很大一部分。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>predominantly /prɪˈdɒmɪnəntlɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADV You use predominantly to indicate which feature or quality is most noticeable in a situation. 主导性地
+•  The landscape has remained predominantly rural in appearance. 
+ 该风景看上去主要保留了乡村风貌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>puzzlement /ˈpʌzəlmənt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Puzzlement is the confusion that you feel when you do not understand something. 迷茫
+•  He frowned in puzzlement. 
+ 他迷茫地皱起了眉。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>queer /kwɪə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ Something that is queer is strange. 奇怪的
+•  If you ask me, there's something kind of queer going on. 
+ 如果问起来的话，是有点奇怪。
+2.N-COUNT People sometimes call homosexual men queers. 男同性恋</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>quack /kwæk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I (鸭子)发出嘎嘎声
+•  There were ducks quacking on the lawn. 
+ 有鸭子在草坪上发出嘎嘎的叫着。
+2.N-COUNT/SOUND Quack is also a noun. 嘎嘎声
+•  Suddenly he heard a quack. 
+ 突然，他听到嘎的一声。
+3.N-COUNT 庸医; 江湖医生
+•  I went everywhere for treatment, tried all sorts of quacks. 
+ 我为求医走遍了每一寸土地，尝试了所有江湖医生的疗法。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rampant /ˈræmpənt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe something bad, such as a crime or disease, as rampant, you mean that it is very common and is increasing in an uncontrolled way. 猖獗的; 泛滥的
+•  Inflation is rampant and industry in decline. 
+ 通货膨胀肆虐，工业生产下降。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rationalize /ˈræʃənəˌlaɪz/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 使合理化; 为…做合理解释
+•  He further rationalized his activity by convincing himself that he was actually promoting peace. 
+ 他通过说服自己确实是在促进和平来进一步使自己的行为合理化。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>reconcile /ˈrɛkənˌsaɪl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 使和谐一致; 调和
+•  It's difficult to reconcile the demands of my job and the desire to be a good father. 
+ 协调我工作的要求与我当个好父亲的愿望很难。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repellent /rɪˈpɛlənt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.ADJ If you think that something is horrible and disgusting you can say that it is repellent. 令人厌恶的
+•  ...a very large, very repellent toad. 
+ …一只又大又令人厌恶的蟾蜍。
+2.N-MASS Insect repellent is a product containing chemicals that you spray into the air or on your body in order to keep insects away. 驱虫剂
+•  ...mosquito repellent. 
+ …驱蚊剂。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>reiterate /ri</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈɪtəˌreɪt/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 重申
+•  He reiterated his opposition to the creation of a central bank. 
+ 他重申了他对创办中央银行的反对。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rivet /ˈrɪvɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.盯着，注意力集中于
+I was absolutely riveted by her story. 我完全被她的故事吸引住了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>repulsive /rɪˈpʌlsɪv/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe something or someone as repulsive, you mean that they are horrible and disgusting and you want to avoid them. 令人厌恶的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scoff /skɒf/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>simulate /ˈsɪmjʊleɪt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vt.假装；冒充；装作
+SYN feign
+• I tried to simulate surprise at the news. 听到这个消息后，我竭力装出一副吃惊的样子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-I If you scoff at something, you speak about it in a way that shows you think it is ridiculous or inadequate. 嘲笑
+• At first I scoffed at the notion. 
+ 刚开始时我对那种想法嗤之以鼻。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sullen /ˈsʌlən/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Someone who is sullen is bad-tempered and does not speak much. 愤懑的，闷闷不乐的
+•  The offenders lapsed into a sullen silence. 
+ 这些罪犯陷入了愤懑的沉默。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>sum up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>总结，归纳</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>scant /skænt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ You use scant to indicate that there is very little of something or not as much of something as there should be. 少量的; 不足的
+•  She began to berate the police for paying scant attention to the theft from her car. 
+ 她开始严厉斥责警方对她车内东西失窃一案关注不足。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>self-reliance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自力更生，自食其力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>shrewd /ʃru</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>d/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ A shrewd person is able to understand and judge a situation quickly and to use this understanding to their own advantage. 精明的
+•  She's a shrewd businesswoman. 
+ 她是一个精明的商人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>snobbish /ˈsnɒbɪʃ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe someone as snobbish, you disapprove of them because they are too proud of their social status, intelligence, or taste. 势利的; 恃才傲物的
+•  They had a snobbish dislike for their intellectual and social inferiors. 
+ 他们很势利眼，不喜欢才智和社会地位不如自己的人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>squander /ˈskwɒndə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you squander money, resources, or opportunities, you waste them. 浪费 (金钱、资源或机会)
+•  Hobbs didn't squander his money on flashy cars or other vices. 
+ 霍布斯没有把钱挥霍在奢华汽车或其他恶习上。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>starvation /stɑ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈveɪʃən/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Starvation is extreme suffering or death, caused by lack of food. 饥饿; 饿死
+•  Over three hundred people have died of starvation since the beginning of the year. 
+ 自那年年初开始，已有三百多人饿死了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>superficial /ˌsu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pəˈfɪʃəl/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>superiority /su</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˌpɪərɪˈɒrɪtɪ/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT If one side in a war or conflict has superiority, it has an advantage over its enemy, for example because it has more soldiers or better equipment. 优势
+•  We have air superiority. 
+ 我们有空中优势。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>take for granted</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>认为理所当然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tangible /ˈtændʒəbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 表面的，肤浅的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 有形的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>to and fro</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>来回地，往复地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tormenting</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 折磨人的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transfigure /trænsˈfɪɡə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T To be transfigured means to be changed into something great or beautiful. 美化
+•  They are transfigured by the healing powers of art. 
+ 他们因艺术的治愈力量而变得容光焕发。
+•  The colours of the morning and evening transfigure the trees. 
+ 晨昏的各种颜色令那些树木更加美丽。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>qranquility</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>n.平静，安宁</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>transient /ˈtrænzɪənt/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.ADJ Transient is used to describe a situation that lasts only a short time or is constantly changing. </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>短暂的</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+•  ...the transient nature of high fashion. 
+ …最新时尚转瞬即逝的特点。
+2.N-COUNT Transients are people who stay in a place for only a short time and then move somewhere else. 流动人员
+•  ...a dormitory for transients. 
+ …一个流动人员的宿舍。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tumble /ˈtʌmbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-I If someone or something tumbles somewhere, they fall there with a rolling or bouncing movement. 摔倒
+•  A small boy tumbled off the porch. 
+ 一个小男孩从门廊上摔了下去。
+2.N-COUNT Tumble is also a noun. 摔
+•  He injured his ribs in a tumble from his horse. 
+ 他从马上摔下来伤了肋骨。
+3.V-I If prices or levels of something are tumbling, they are decreasing rapidly. (价格或水平) 暴跌
+•  Profit after taxes tumbled by half to $15.8 million. 
+ 税后利润猛降了一半，跌到了1580万美元。
+•  Share prices continued to tumble today on the Tokyo stock market. 
+ 东京股市今天的股票价格继续暴跌。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>tyrannical /tɪˈrænɪkəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ If you describe someone as tyrannical, you mean that they are severe or unfair toward the people that they have authority over. 专横的，暴虐的
+•  She grew up with a drunken mother and a tyrannical father. 
+ 她从小就和酗酒的母亲和专横的父亲一起生活。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>unaccountable /ˌʌnəˈkaʊntəbəl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Something that is unaccountable does not seem to have any sensible explanation. 难以解释的
+•  For some unaccountable reason, it struck me as extremely funny. 
+ 很难解释是什么原因让我觉得它极为可笑。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>undo /ʌnˈdu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T 打开; 解开; 松开
+•  I managed secretly to undo a corner of the parcel. 
+ 我设法偷偷地打开包裹的一角。
+•  I undid the bottom two buttons of my yellow and grey shirt. 
+ 我解开了我黄灰色相间衬衫最下面的两个钮扣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>unsuitable /ʌnˈsu</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>təbəl/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ 不合适的
+•  Amy's shoes were unsuitable for walking any distance. 
+ 埃米的鞋根本不适合走路。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>utter /ˈʌtə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.V-T If someone utters sounds or words, they say them. 发出 (声音); 说
+•  He uttered a snorting laugh. 
+ 他扑哧一声笑了。
+2.ADJ You use utter to emphasize that something is great in extent, degree, or amount. 完全的; 彻底的
+•  This, of course, is utter nonsense. 
+ 这当然纯属胡言乱语。
+•  ...this utter lack of responsibility. 
+ …如此彻底地缺乏责任心。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vehemently</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adv.激烈地，猛烈地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vexation /vɛkˈseɪʃən/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Vexation is a feeling of being annoyed, puzzled, and frustrated. 恼火
+•  He kicked the broken machine in vexation. 
+ 他懊恼得踢了这台坏机器一脚。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>virtuous /ˈvɜ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>tʃʊəs/</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ A virtuous person behaves in a moral and correct way. 品德高尚的
+•  Louis was shown as an intelligent, courageous and virtuous family man. 
+ 路易斯看上去是一个聪明、勇敢而且品德高尚的顾家男人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vanity /ˈvænɪtɪ/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT 虚荣
+•  Men who use steroids are motivated by sheer vanity. 
+ 服用类固醇的男人们纯粹是受了虚荣心的驱使。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vengeance /ˈvɛndʒəns/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-UNCOUNT Vengeance is the act of killing, injuring, or harming someone because they have harmed you. 复仇
+•  He swore vengeance on everyone involved in the murder. 
+ 他发誓要向每一个与此谋杀案有关联的人复仇。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wakeful /ˈweɪkfʊl/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ADJ Someone who is wakeful finds it difficult to get to sleep and wakes up very often when they should be sleeping. 失眠的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>withhold /wɪðˈhəʊld, wɪθ-/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T If you withhold something that someone wants, you do not let them have it. 拒绝给
+•  Police withheld the dead boy's name yesterday until relatives could be told. 
+ 警察昨天拒绝在通知亲属前透露死去男孩的名字。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wither /ˈwɪðə/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1.PHRASAL VERB </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wither away</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> means the same as . 变虚弱
+•  To see my body literally wither away before my eyes was exasperating. 
+ 看着我的身体在自己的眼前日渐虚弱真是让人恼火。
+2.V-I If a flower or plant withers, it dries up and dies. (花朵或植物) 枯萎
+•  The flowers in Isabel's room had withered. 
+ 伊莎贝尔房间里的花朵已经枯萎了。</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>wreck /rɛk/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>V-T To wreck something means to completely destroy or ruin it. 摧毁
+•  He wrecked the garden. 
+ 他毁掉了那个花园。
+•  His life has been wrecked by the tragedy. 
+ 他的生活被这场悲剧毁了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zest /zɛst/</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.N-UNCOUNT Zest is a feeling of pleasure and enthusiasm. 热情
+•  He has a zest for life and a quick intellect. 
+ 他有生活的热情和机敏的头脑。
+2.N-UNCOUNT Zest is a quality in an activity or situation which you find exciting. 兴奋点
+•  Live interviews add zest and a touch of the unexpected to any piece of research. 
+ 现场采访给任何一份研究增添兴奋点和些许意外。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>zillions of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无数的，大量的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>act upon/on</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对。。。起作用，对。。。有效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>This medicine acts upon the heart disease.
+这药对心脏病不好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>adjust to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>调整，适应; 还经常用作 adjust oneself to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We must adjust ourselves to the changing world.
+我们必须适应这个变化着的世界。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11932,7 +14517,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -11969,6 +14554,13 @@
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12561,16 +15153,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B160"/>
+  <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A154" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B162" sqref="B162"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A357" sqref="A357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="38.109375" style="7" customWidth="1"/>
+    <col min="1" max="1" width="41.6640625" style="7" customWidth="1"/>
     <col min="2" max="2" width="93" style="12" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="1"/>
   </cols>
@@ -13547,25 +16139,2151 @@
         <v>754</v>
       </c>
     </row>
+    <row r="161" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A161" s="7" t="s">
+        <v>755</v>
+      </c>
+      <c r="B161" s="12" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A162" s="7" t="s">
+        <v>756</v>
+      </c>
+      <c r="B162" s="12" t="s">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>759</v>
+      </c>
+      <c r="B163" s="12" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>761</v>
+      </c>
+      <c r="B164" s="12" t="s">
+        <v>762</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="166" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A166" s="7" t="s">
+        <v>763</v>
+      </c>
+      <c r="B166" s="12" t="s">
+        <v>764</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="168" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="169" spans="1:2" ht="156" x14ac:dyDescent="0.25">
+      <c r="A169" s="7" t="s">
+        <v>765</v>
+      </c>
+      <c r="B169" s="12" t="s">
+        <v>766</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="171" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="172" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A173" s="7" t="s">
+        <v>767</v>
+      </c>
+      <c r="B173" s="12" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="175" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="177" spans="1:2" ht="156" x14ac:dyDescent="0.25">
+      <c r="A177" s="7" t="s">
+        <v>769</v>
+      </c>
+      <c r="B177" s="12" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A178" s="7" t="s">
+        <v>771</v>
+      </c>
+      <c r="B178" s="12" t="s">
+        <v>772</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A179" s="7" t="s">
+        <v>773</v>
+      </c>
+      <c r="B179" s="12" t="s">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="181" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="183" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A183" s="7" t="s">
+        <v>775</v>
+      </c>
+      <c r="B183" s="12" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A184" s="7" t="s">
+        <v>777</v>
+      </c>
+      <c r="B184" s="12" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A185" s="7" t="s">
+        <v>779</v>
+      </c>
+      <c r="B185" s="12" t="s">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A186" s="7" t="s">
+        <v>781</v>
+      </c>
+      <c r="B186" s="12" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A187" s="7" t="s">
+        <v>783</v>
+      </c>
+      <c r="B187" s="12" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="189" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="190" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:2" ht="249.6" x14ac:dyDescent="0.25">
+      <c r="A191" s="7" t="s">
+        <v>785</v>
+      </c>
+      <c r="B191" s="12" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="193" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="195" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A195" s="7" t="s">
+        <v>787</v>
+      </c>
+      <c r="B195" s="12" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A196" s="7" t="s">
+        <v>789</v>
+      </c>
+      <c r="B196" s="12" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A197" s="7" t="s">
+        <v>791</v>
+      </c>
+      <c r="B197" s="12" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A198" s="7" t="s">
+        <v>793</v>
+      </c>
+      <c r="B198" s="12" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A199" s="7" t="s">
+        <v>795</v>
+      </c>
+      <c r="B199" s="12" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="201" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="202" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A203" s="7" t="s">
+        <v>797</v>
+      </c>
+      <c r="B203" s="12" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A204" s="7" t="s">
+        <v>799</v>
+      </c>
+      <c r="B204" s="12" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A205" s="7" t="s">
+        <v>801</v>
+      </c>
+      <c r="B205" s="12" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A206" s="7" t="s">
+        <v>803</v>
+      </c>
+      <c r="B206" s="12" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A207" s="7" t="s">
+        <v>805</v>
+      </c>
+      <c r="B207" s="12" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A208" s="7" t="s">
+        <v>807</v>
+      </c>
+      <c r="B208" s="12" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A209" s="7" t="s">
+        <v>809</v>
+      </c>
+      <c r="B209" s="12" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A210" s="7" t="s">
+        <v>811</v>
+      </c>
+      <c r="B210" s="12" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A211" s="7" t="s">
+        <v>813</v>
+      </c>
+      <c r="B211" s="12" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A212" s="7" t="s">
+        <v>815</v>
+      </c>
+      <c r="B212" s="12" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A213" s="7" t="s">
+        <v>817</v>
+      </c>
+      <c r="B213" s="12" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="216" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="217" spans="1:2" ht="218.4" x14ac:dyDescent="0.25">
+      <c r="A217" s="7" t="s">
+        <v>819</v>
+      </c>
+      <c r="B217" s="12" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A218" s="7" t="s">
+        <v>821</v>
+      </c>
+      <c r="B218" s="12" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A219" s="7" t="s">
+        <v>823</v>
+      </c>
+      <c r="B219" s="12" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A220" s="7" t="s">
+        <v>825</v>
+      </c>
+      <c r="B220" s="12" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A221" s="7" t="s">
+        <v>827</v>
+      </c>
+      <c r="B221" s="12" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A222" s="7" t="s">
+        <v>829</v>
+      </c>
+      <c r="B222" s="12" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A223" s="7" t="s">
+        <v>831</v>
+      </c>
+      <c r="B223" s="12" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A224" s="7" t="s">
+        <v>833</v>
+      </c>
+      <c r="B224" s="12" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A225" s="7" t="s">
+        <v>835</v>
+      </c>
+      <c r="B225" s="12" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="228" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="229" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:2" ht="249.6" x14ac:dyDescent="0.25">
+      <c r="A230" s="7" t="s">
+        <v>837</v>
+      </c>
+      <c r="B230" s="12" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="232" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="234" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A234" s="7" t="s">
+        <v>839</v>
+      </c>
+      <c r="B234" s="12" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A235" s="7" t="s">
+        <v>841</v>
+      </c>
+      <c r="B235" s="12" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A236" s="7" t="s">
+        <v>843</v>
+      </c>
+      <c r="B236" s="12" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A237" s="7" t="s">
+        <v>845</v>
+      </c>
+      <c r="B237" s="12" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A238" s="7" t="s">
+        <v>847</v>
+      </c>
+      <c r="B238" s="12" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A239" s="7" t="s">
+        <v>849</v>
+      </c>
+      <c r="B239" s="12" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A240" s="7" t="s">
+        <v>851</v>
+      </c>
+      <c r="B240" s="12" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="243" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="244" spans="1:2" ht="156" x14ac:dyDescent="0.25">
+      <c r="A244" s="7" t="s">
+        <v>853</v>
+      </c>
+      <c r="B244" s="12" t="s">
+        <v>854</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="246" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="247" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A248" s="7" t="s">
+        <v>855</v>
+      </c>
+      <c r="B248" s="12" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A249" s="7" t="s">
+        <v>857</v>
+      </c>
+      <c r="B249" s="12" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A250" s="7" t="s">
+        <v>859</v>
+      </c>
+      <c r="B250" s="12" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A251" s="7" t="s">
+        <v>861</v>
+      </c>
+      <c r="B251" s="12" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A252" s="7" t="s">
+        <v>863</v>
+      </c>
+      <c r="B252" s="12" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A253" s="7" t="s">
+        <v>865</v>
+      </c>
+      <c r="B253" s="12" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A254" s="7" t="s">
+        <v>867</v>
+      </c>
+      <c r="B254" s="12" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="256" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="258" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A258" s="7" t="s">
+        <v>869</v>
+      </c>
+      <c r="B258" s="12" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A259" s="7" t="s">
+        <v>871</v>
+      </c>
+      <c r="B259" s="12" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="7" t="s">
+        <v>873</v>
+      </c>
+      <c r="B260" s="12" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="262" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="264" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A264" s="7" t="s">
+        <v>875</v>
+      </c>
+      <c r="B264" s="12" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A265" s="7" t="s">
+        <v>877</v>
+      </c>
+      <c r="B265" s="12" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="7" t="s">
+        <v>879</v>
+      </c>
+      <c r="B266" s="12" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A267" s="7" t="s">
+        <v>881</v>
+      </c>
+      <c r="B267" s="12" t="s">
+        <v>882</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="270" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="271" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
+      <c r="A271" s="7" t="s">
+        <v>883</v>
+      </c>
+      <c r="B271" s="12" t="s">
+        <v>884</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="273" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="274" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="7" t="s">
+        <v>885</v>
+      </c>
+      <c r="B275" s="12" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A276" s="7" t="s">
+        <v>887</v>
+      </c>
+      <c r="B276" s="12" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A277" s="7" t="s">
+        <v>889</v>
+      </c>
+      <c r="B277" s="12" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A278" s="7" t="s">
+        <v>891</v>
+      </c>
+      <c r="B278" s="12" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A279" s="7" t="s">
+        <v>893</v>
+      </c>
+      <c r="B279" s="12" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A280" s="7" t="s">
+        <v>895</v>
+      </c>
+      <c r="B280" s="12" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A281" s="7" t="s">
+        <v>897</v>
+      </c>
+      <c r="B281" s="12" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A282" s="7" t="s">
+        <v>899</v>
+      </c>
+      <c r="B282" s="12" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="285" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="286" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A286" s="7" t="s">
+        <v>901</v>
+      </c>
+      <c r="B286" s="12" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="288" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="289" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="7" t="s">
+        <v>903</v>
+      </c>
+      <c r="B290" s="12" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A291" s="7" t="s">
+        <v>905</v>
+      </c>
+      <c r="B291" s="12" t="s">
+        <v>906</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A292" s="7" t="s">
+        <v>907</v>
+      </c>
+      <c r="B292" s="12" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A293" s="7" t="s">
+        <v>909</v>
+      </c>
+      <c r="B293" s="12" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="295" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="297" spans="1:2" ht="234" x14ac:dyDescent="0.25">
+      <c r="A297" s="7" t="s">
+        <v>911</v>
+      </c>
+      <c r="B297" s="12" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="300" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="301" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A301" s="7" t="s">
+        <v>913</v>
+      </c>
+      <c r="B301" s="12" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A302" s="7" t="s">
+        <v>915</v>
+      </c>
+      <c r="B302" s="12" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A303" s="7" t="s">
+        <v>917</v>
+      </c>
+      <c r="B303" s="12" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A304" s="7" t="s">
+        <v>919</v>
+      </c>
+      <c r="B304" s="12" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A305" s="7" t="s">
+        <v>921</v>
+      </c>
+      <c r="B305" s="12" t="s">
+        <v>922</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A306" s="7" t="s">
+        <v>923</v>
+      </c>
+      <c r="B306" s="12" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A307" s="7" t="s">
+        <v>925</v>
+      </c>
+      <c r="B307" s="12" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A308" s="7" t="s">
+        <v>927</v>
+      </c>
+      <c r="B308" s="12" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A309" s="7" t="s">
+        <v>929</v>
+      </c>
+      <c r="B309" s="12" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A310" s="7" t="s">
+        <v>931</v>
+      </c>
+      <c r="B310" s="12" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A311" s="7" t="s">
+        <v>933</v>
+      </c>
+      <c r="B311" s="12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A312" s="7" t="s">
+        <v>935</v>
+      </c>
+      <c r="B312" s="12" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A313" s="7" t="s">
+        <v>937</v>
+      </c>
+      <c r="B313" s="12" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A314" s="7" t="s">
+        <v>939</v>
+      </c>
+      <c r="B314" s="12" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A315" s="7" t="s">
+        <v>941</v>
+      </c>
+      <c r="B315" s="12" t="s">
+        <v>944</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A316" s="7" t="s">
+        <v>942</v>
+      </c>
+      <c r="B316" s="12" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A317" s="7" t="s">
+        <v>945</v>
+      </c>
+      <c r="B317" s="12" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A318" s="7" t="s">
+        <v>947</v>
+      </c>
+      <c r="B318" s="12" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A319" s="7" t="s">
+        <v>949</v>
+      </c>
+      <c r="B319" s="12" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="7" t="s">
+        <v>951</v>
+      </c>
+      <c r="B320" s="12" t="s">
+        <v>952</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A321" s="7" t="s">
+        <v>953</v>
+      </c>
+      <c r="B321" s="12" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A322" s="7" t="s">
+        <v>955</v>
+      </c>
+      <c r="B322" s="12" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A323" s="7" t="s">
+        <v>957</v>
+      </c>
+      <c r="B323" s="12" t="s">
+        <v>958</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A324" s="7" t="s">
+        <v>959</v>
+      </c>
+      <c r="B324" s="12" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A325" s="7" t="s">
+        <v>961</v>
+      </c>
+      <c r="B325" s="12" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A326" s="7" t="s">
+        <v>962</v>
+      </c>
+      <c r="B326" s="12" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A327" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B327" s="12" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A328" s="7" t="s">
+        <v>966</v>
+      </c>
+      <c r="B328" s="12" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="7" t="s">
+        <v>969</v>
+      </c>
+      <c r="B329" s="12" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="330" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A330" s="7" t="s">
+        <v>971</v>
+      </c>
+      <c r="B330" s="12" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="331" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A331" s="7" t="s">
+        <v>973</v>
+      </c>
+      <c r="B331" s="12" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="7" t="s">
+        <v>975</v>
+      </c>
+      <c r="B332" s="12" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="333" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
+      <c r="A333" s="7" t="s">
+        <v>977</v>
+      </c>
+      <c r="B333" s="12" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="334" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="336" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="337" spans="1:2" ht="202.8" x14ac:dyDescent="0.25">
+      <c r="A337" s="7" t="s">
+        <v>979</v>
+      </c>
+      <c r="B337" s="12" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="338" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="339" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="340" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A341" s="7" t="s">
+        <v>981</v>
+      </c>
+      <c r="B341" s="12" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="342" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A342" s="7" t="s">
+        <v>983</v>
+      </c>
+      <c r="B342" s="12" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="343" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A343" s="7" t="s">
+        <v>985</v>
+      </c>
+      <c r="B343" s="12" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="344" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A344" s="7" t="s">
+        <v>987</v>
+      </c>
+      <c r="B344" s="12" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="345" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
+      <c r="A345" s="7" t="s">
+        <v>989</v>
+      </c>
+      <c r="B345" s="12" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="346" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A346" s="7" t="s">
+        <v>991</v>
+      </c>
+      <c r="B346" s="12" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="347" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A347" s="7" t="s">
+        <v>993</v>
+      </c>
+      <c r="B347" s="12" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="348" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A348" s="7" t="s">
+        <v>995</v>
+      </c>
+      <c r="B348" s="12" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="349" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
+      <c r="A349" s="7" t="s">
+        <v>997</v>
+      </c>
+      <c r="B349" s="12" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="350" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A350" s="7" t="s">
+        <v>999</v>
+      </c>
+      <c r="B350" s="12" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="351" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A351" s="7" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B351" s="12" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="352" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
+      <c r="A352" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B352" s="12" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="353" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
+      <c r="A353" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B353" s="12" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="354" spans="1:2" ht="78" x14ac:dyDescent="0.25">
+      <c r="A354" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B354" s="12" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="355" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
+      <c r="A355" s="7" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B355" s="12" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="7" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B356" s="12" t="s">
+        <v>1012</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:B500"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="47.33203125" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="15" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="15" customWidth="1"/>
+    <col min="3" max="16384" width="8.88671875" style="13"/>
   </cols>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="15" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B2" s="14"/>
+    </row>
+    <row r="3" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="15" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B5" s="14"/>
+    </row>
+    <row r="6" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="14"/>
+      <c r="B8" s="14"/>
+    </row>
+    <row r="9" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+    </row>
+    <row r="12" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+    </row>
+    <row r="15" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+    </row>
+    <row r="18" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="14"/>
+      <c r="B20" s="14"/>
+    </row>
+    <row r="21" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="14"/>
+    </row>
+    <row r="24" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="14"/>
+    </row>
+    <row r="27" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="14"/>
+    </row>
+    <row r="30" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="14"/>
+    </row>
+    <row r="33" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="14"/>
+    </row>
+    <row r="36" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="14"/>
+      <c r="B38" s="14"/>
+    </row>
+    <row r="39" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="14"/>
+      <c r="B41" s="14"/>
+    </row>
+    <row r="42" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="14"/>
+      <c r="B44" s="14"/>
+    </row>
+    <row r="45" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="14"/>
+      <c r="B47" s="14"/>
+    </row>
+    <row r="48" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="14"/>
+      <c r="B50" s="14"/>
+    </row>
+    <row r="51" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53" s="14"/>
+      <c r="B53" s="14"/>
+    </row>
+    <row r="54" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56" s="14"/>
+      <c r="B56" s="14"/>
+    </row>
+    <row r="57" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="14"/>
+      <c r="B59" s="14"/>
+    </row>
+    <row r="60" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="14"/>
+      <c r="B62" s="14"/>
+    </row>
+    <row r="63" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="14"/>
+      <c r="B65" s="14"/>
+    </row>
+    <row r="66" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="14"/>
+      <c r="B68" s="14"/>
+    </row>
+    <row r="69" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="14"/>
+      <c r="B71" s="14"/>
+    </row>
+    <row r="72" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="14"/>
+      <c r="B74" s="14"/>
+    </row>
+    <row r="75" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="14"/>
+      <c r="B77" s="14"/>
+    </row>
+    <row r="78" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="14"/>
+      <c r="B80" s="14"/>
+    </row>
+    <row r="81" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="14"/>
+      <c r="B83" s="14"/>
+    </row>
+    <row r="84" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="14"/>
+      <c r="B86" s="14"/>
+    </row>
+    <row r="87" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="14"/>
+      <c r="B89" s="14"/>
+    </row>
+    <row r="90" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="14"/>
+      <c r="B92" s="14"/>
+    </row>
+    <row r="93" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="14"/>
+      <c r="B95" s="14"/>
+    </row>
+    <row r="96" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="14"/>
+      <c r="B98" s="14"/>
+    </row>
+    <row r="99" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="14"/>
+      <c r="B101" s="14"/>
+    </row>
+    <row r="102" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="14"/>
+      <c r="B104" s="14"/>
+    </row>
+    <row r="105" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="14"/>
+      <c r="B107" s="14"/>
+    </row>
+    <row r="108" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="14"/>
+      <c r="B110" s="14"/>
+    </row>
+    <row r="111" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113" s="14"/>
+      <c r="B113" s="14"/>
+    </row>
+    <row r="114" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="14"/>
+      <c r="B116" s="14"/>
+    </row>
+    <row r="117" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="14"/>
+      <c r="B119" s="14"/>
+    </row>
+    <row r="120" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="14"/>
+      <c r="B122" s="14"/>
+    </row>
+    <row r="123" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="14"/>
+      <c r="B125" s="14"/>
+    </row>
+    <row r="126" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="14"/>
+      <c r="B128" s="14"/>
+    </row>
+    <row r="129" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="14"/>
+      <c r="B131" s="14"/>
+    </row>
+    <row r="132" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A134" s="14"/>
+      <c r="B134" s="14"/>
+    </row>
+    <row r="135" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="14"/>
+      <c r="B137" s="14"/>
+    </row>
+    <row r="138" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="14"/>
+      <c r="B140" s="14"/>
+    </row>
+    <row r="141" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="14"/>
+      <c r="B143" s="14"/>
+    </row>
+    <row r="144" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="14"/>
+      <c r="B146" s="14"/>
+    </row>
+    <row r="147" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="14"/>
+      <c r="B149" s="14"/>
+    </row>
+    <row r="150" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="14"/>
+      <c r="B152" s="14"/>
+    </row>
+    <row r="153" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="14"/>
+      <c r="B155" s="14"/>
+    </row>
+    <row r="156" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="14"/>
+      <c r="B158" s="14"/>
+    </row>
+    <row r="159" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="14"/>
+      <c r="B161" s="14"/>
+    </row>
+    <row r="162" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A164" s="14"/>
+      <c r="B164" s="14"/>
+    </row>
+    <row r="165" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A167" s="14"/>
+      <c r="B167" s="14"/>
+    </row>
+    <row r="168" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="14"/>
+      <c r="B170" s="14"/>
+    </row>
+    <row r="171" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="14"/>
+      <c r="B173" s="14"/>
+    </row>
+    <row r="174" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A176" s="14"/>
+      <c r="B176" s="14"/>
+    </row>
+    <row r="177" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="14"/>
+      <c r="B179" s="14"/>
+    </row>
+    <row r="180" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A182" s="14"/>
+      <c r="B182" s="14"/>
+    </row>
+    <row r="183" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="14"/>
+      <c r="B185" s="14"/>
+    </row>
+    <row r="186" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="14"/>
+      <c r="B188" s="14"/>
+    </row>
+    <row r="189" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="14"/>
+      <c r="B191" s="14"/>
+    </row>
+    <row r="192" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="14"/>
+      <c r="B194" s="14"/>
+    </row>
+    <row r="195" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="14"/>
+      <c r="B197" s="14"/>
+    </row>
+    <row r="198" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="14"/>
+      <c r="B200" s="14"/>
+    </row>
+    <row r="201" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="14"/>
+      <c r="B203" s="14"/>
+    </row>
+    <row r="204" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="14"/>
+      <c r="B206" s="14"/>
+    </row>
+    <row r="207" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="14"/>
+      <c r="B209" s="14"/>
+    </row>
+    <row r="210" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A212" s="14"/>
+      <c r="B212" s="14"/>
+    </row>
+    <row r="213" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A215" s="14"/>
+      <c r="B215" s="14"/>
+    </row>
+    <row r="216" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A218" s="14"/>
+      <c r="B218" s="14"/>
+    </row>
+    <row r="219" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="14"/>
+      <c r="B221" s="14"/>
+    </row>
+    <row r="222" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A224" s="14"/>
+      <c r="B224" s="14"/>
+    </row>
+    <row r="225" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A227" s="14"/>
+      <c r="B227" s="14"/>
+    </row>
+    <row r="228" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A230" s="14"/>
+      <c r="B230" s="14"/>
+    </row>
+    <row r="231" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A233" s="14"/>
+      <c r="B233" s="14"/>
+    </row>
+    <row r="234" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A236" s="14"/>
+      <c r="B236" s="14"/>
+    </row>
+    <row r="237" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A239" s="14"/>
+      <c r="B239" s="14"/>
+    </row>
+    <row r="240" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A242" s="14"/>
+      <c r="B242" s="14"/>
+    </row>
+    <row r="243" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A245" s="14"/>
+      <c r="B245" s="14"/>
+    </row>
+    <row r="246" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A248" s="14"/>
+      <c r="B248" s="14"/>
+    </row>
+    <row r="249" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A251" s="14"/>
+      <c r="B251" s="14"/>
+    </row>
+    <row r="252" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A254" s="14"/>
+      <c r="B254" s="14"/>
+    </row>
+    <row r="255" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A257" s="14"/>
+      <c r="B257" s="14"/>
+    </row>
+    <row r="258" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A260" s="14"/>
+      <c r="B260" s="14"/>
+    </row>
+    <row r="261" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A263" s="14"/>
+      <c r="B263" s="14"/>
+    </row>
+    <row r="264" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A266" s="14"/>
+      <c r="B266" s="14"/>
+    </row>
+    <row r="267" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A269" s="14"/>
+      <c r="B269" s="14"/>
+    </row>
+    <row r="270" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A272" s="14"/>
+      <c r="B272" s="14"/>
+    </row>
+    <row r="273" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A275" s="14"/>
+      <c r="B275" s="14"/>
+    </row>
+    <row r="276" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A278" s="14"/>
+      <c r="B278" s="14"/>
+    </row>
+    <row r="279" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A281" s="14"/>
+      <c r="B281" s="14"/>
+    </row>
+    <row r="282" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A284" s="14"/>
+      <c r="B284" s="14"/>
+    </row>
+    <row r="285" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A287" s="14"/>
+      <c r="B287" s="14"/>
+    </row>
+    <row r="288" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A290" s="14"/>
+      <c r="B290" s="14"/>
+    </row>
+    <row r="291" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A293" s="14"/>
+      <c r="B293" s="14"/>
+    </row>
+    <row r="294" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A296" s="14"/>
+      <c r="B296" s="14"/>
+    </row>
+    <row r="297" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A299" s="14"/>
+      <c r="B299" s="14"/>
+    </row>
+    <row r="300" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A302" s="14"/>
+      <c r="B302" s="14"/>
+    </row>
+    <row r="303" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A305" s="14"/>
+      <c r="B305" s="14"/>
+    </row>
+    <row r="306" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A308" s="14"/>
+      <c r="B308" s="14"/>
+    </row>
+    <row r="309" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A311" s="14"/>
+      <c r="B311" s="14"/>
+    </row>
+    <row r="312" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A314" s="14"/>
+      <c r="B314" s="14"/>
+    </row>
+    <row r="315" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A317" s="14"/>
+      <c r="B317" s="14"/>
+    </row>
+    <row r="318" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A320" s="14"/>
+      <c r="B320" s="14"/>
+    </row>
+    <row r="321" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A323" s="14"/>
+      <c r="B323" s="14"/>
+    </row>
+    <row r="324" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A326" s="14"/>
+      <c r="B326" s="14"/>
+    </row>
+    <row r="327" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A329" s="14"/>
+      <c r="B329" s="14"/>
+    </row>
+    <row r="330" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A332" s="14"/>
+      <c r="B332" s="14"/>
+    </row>
+    <row r="333" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A335" s="14"/>
+      <c r="B335" s="14"/>
+    </row>
+    <row r="336" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A338" s="14"/>
+      <c r="B338" s="14"/>
+    </row>
+    <row r="339" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A341" s="14"/>
+      <c r="B341" s="14"/>
+    </row>
+    <row r="342" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A344" s="14"/>
+      <c r="B344" s="14"/>
+    </row>
+    <row r="345" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A347" s="14"/>
+      <c r="B347" s="14"/>
+    </row>
+    <row r="348" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A350" s="14"/>
+      <c r="B350" s="14"/>
+    </row>
+    <row r="351" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A353" s="14"/>
+      <c r="B353" s="14"/>
+    </row>
+    <row r="354" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A356" s="14"/>
+      <c r="B356" s="14"/>
+    </row>
+    <row r="357" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A359" s="14"/>
+      <c r="B359" s="14"/>
+    </row>
+    <row r="360" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A362" s="14"/>
+      <c r="B362" s="14"/>
+    </row>
+    <row r="363" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A365" s="14"/>
+      <c r="B365" s="14"/>
+    </row>
+    <row r="366" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A368" s="14"/>
+      <c r="B368" s="14"/>
+    </row>
+    <row r="369" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A371" s="14"/>
+      <c r="B371" s="14"/>
+    </row>
+    <row r="372" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A374" s="14"/>
+      <c r="B374" s="14"/>
+    </row>
+    <row r="375" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A377" s="14"/>
+      <c r="B377" s="14"/>
+    </row>
+    <row r="378" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A380" s="14"/>
+      <c r="B380" s="14"/>
+    </row>
+    <row r="381" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A383" s="14"/>
+      <c r="B383" s="14"/>
+    </row>
+    <row r="384" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A386" s="14"/>
+      <c r="B386" s="14"/>
+    </row>
+    <row r="387" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A389" s="14"/>
+      <c r="B389" s="14"/>
+    </row>
+    <row r="390" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A392" s="14"/>
+      <c r="B392" s="14"/>
+    </row>
+    <row r="393" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A395" s="14"/>
+      <c r="B395" s="14"/>
+    </row>
+    <row r="396" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A398" s="14"/>
+      <c r="B398" s="14"/>
+    </row>
+    <row r="399" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A401" s="14"/>
+      <c r="B401" s="14"/>
+    </row>
+    <row r="402" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A404" s="14"/>
+      <c r="B404" s="14"/>
+    </row>
+    <row r="405" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A407" s="14"/>
+      <c r="B407" s="14"/>
+    </row>
+    <row r="408" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A410" s="14"/>
+      <c r="B410" s="14"/>
+    </row>
+    <row r="411" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A413" s="14"/>
+      <c r="B413" s="14"/>
+    </row>
+    <row r="414" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A416" s="14"/>
+      <c r="B416" s="14"/>
+    </row>
+    <row r="417" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A419" s="14"/>
+      <c r="B419" s="14"/>
+    </row>
+    <row r="420" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A422" s="14"/>
+      <c r="B422" s="14"/>
+    </row>
+    <row r="423" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A425" s="14"/>
+      <c r="B425" s="14"/>
+    </row>
+    <row r="426" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A428" s="14"/>
+      <c r="B428" s="14"/>
+    </row>
+    <row r="429" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A431" s="14"/>
+      <c r="B431" s="14"/>
+    </row>
+    <row r="432" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A434" s="14"/>
+      <c r="B434" s="14"/>
+    </row>
+    <row r="435" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A437" s="14"/>
+      <c r="B437" s="14"/>
+    </row>
+    <row r="438" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A440" s="14"/>
+      <c r="B440" s="14"/>
+    </row>
+    <row r="441" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A443" s="14"/>
+      <c r="B443" s="14"/>
+    </row>
+    <row r="444" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A446" s="14"/>
+      <c r="B446" s="14"/>
+    </row>
+    <row r="447" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A449" s="14"/>
+      <c r="B449" s="14"/>
+    </row>
+    <row r="450" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A452" s="14"/>
+      <c r="B452" s="14"/>
+    </row>
+    <row r="453" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A455" s="14"/>
+      <c r="B455" s="14"/>
+    </row>
+    <row r="456" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A458" s="14"/>
+      <c r="B458" s="14"/>
+    </row>
+    <row r="459" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A461" s="14"/>
+      <c r="B461" s="14"/>
+    </row>
+    <row r="462" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A464" s="14"/>
+      <c r="B464" s="14"/>
+    </row>
+    <row r="465" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A467" s="14"/>
+      <c r="B467" s="14"/>
+    </row>
+    <row r="468" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A470" s="14"/>
+      <c r="B470" s="14"/>
+    </row>
+    <row r="471" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A473" s="14"/>
+      <c r="B473" s="14"/>
+    </row>
+    <row r="474" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A476" s="14"/>
+      <c r="B476" s="14"/>
+    </row>
+    <row r="477" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A479" s="14"/>
+      <c r="B479" s="14"/>
+    </row>
+    <row r="480" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A482" s="14"/>
+      <c r="B482" s="14"/>
+    </row>
+    <row r="483" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A485" s="14"/>
+      <c r="B485" s="14"/>
+    </row>
+    <row r="486" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A488" s="14"/>
+      <c r="B488" s="14"/>
+    </row>
+    <row r="489" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A491" s="14"/>
+      <c r="B491" s="14"/>
+    </row>
+    <row r="492" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A494" s="14"/>
+      <c r="B494" s="14"/>
+    </row>
+    <row r="495" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A497" s="14"/>
+      <c r="B497" s="14"/>
+    </row>
+    <row r="498" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A500" s="14"/>
+      <c r="B500" s="14"/>
+    </row>
+  </sheetData>
+  <mergeCells count="167">
+    <mergeCell ref="A488:B488"/>
+    <mergeCell ref="A491:B491"/>
+    <mergeCell ref="A494:B494"/>
+    <mergeCell ref="A497:B497"/>
+    <mergeCell ref="A500:B500"/>
+    <mergeCell ref="A470:B470"/>
+    <mergeCell ref="A473:B473"/>
+    <mergeCell ref="A476:B476"/>
+    <mergeCell ref="A479:B479"/>
+    <mergeCell ref="A482:B482"/>
+    <mergeCell ref="A485:B485"/>
+    <mergeCell ref="A452:B452"/>
+    <mergeCell ref="A455:B455"/>
+    <mergeCell ref="A458:B458"/>
+    <mergeCell ref="A461:B461"/>
+    <mergeCell ref="A464:B464"/>
+    <mergeCell ref="A467:B467"/>
+    <mergeCell ref="A434:B434"/>
+    <mergeCell ref="A437:B437"/>
+    <mergeCell ref="A440:B440"/>
+    <mergeCell ref="A443:B443"/>
+    <mergeCell ref="A446:B446"/>
+    <mergeCell ref="A449:B449"/>
+    <mergeCell ref="A416:B416"/>
+    <mergeCell ref="A419:B419"/>
+    <mergeCell ref="A422:B422"/>
+    <mergeCell ref="A425:B425"/>
+    <mergeCell ref="A428:B428"/>
+    <mergeCell ref="A431:B431"/>
+    <mergeCell ref="A398:B398"/>
+    <mergeCell ref="A401:B401"/>
+    <mergeCell ref="A404:B404"/>
+    <mergeCell ref="A407:B407"/>
+    <mergeCell ref="A410:B410"/>
+    <mergeCell ref="A413:B413"/>
+    <mergeCell ref="A380:B380"/>
+    <mergeCell ref="A383:B383"/>
+    <mergeCell ref="A386:B386"/>
+    <mergeCell ref="A389:B389"/>
+    <mergeCell ref="A392:B392"/>
+    <mergeCell ref="A395:B395"/>
+    <mergeCell ref="A362:B362"/>
+    <mergeCell ref="A365:B365"/>
+    <mergeCell ref="A368:B368"/>
+    <mergeCell ref="A371:B371"/>
+    <mergeCell ref="A374:B374"/>
+    <mergeCell ref="A377:B377"/>
+    <mergeCell ref="A344:B344"/>
+    <mergeCell ref="A347:B347"/>
+    <mergeCell ref="A350:B350"/>
+    <mergeCell ref="A353:B353"/>
+    <mergeCell ref="A356:B356"/>
+    <mergeCell ref="A359:B359"/>
+    <mergeCell ref="A326:B326"/>
+    <mergeCell ref="A329:B329"/>
+    <mergeCell ref="A332:B332"/>
+    <mergeCell ref="A335:B335"/>
+    <mergeCell ref="A338:B338"/>
+    <mergeCell ref="A341:B341"/>
+    <mergeCell ref="A308:B308"/>
+    <mergeCell ref="A311:B311"/>
+    <mergeCell ref="A314:B314"/>
+    <mergeCell ref="A317:B317"/>
+    <mergeCell ref="A320:B320"/>
+    <mergeCell ref="A323:B323"/>
+    <mergeCell ref="A290:B290"/>
+    <mergeCell ref="A293:B293"/>
+    <mergeCell ref="A296:B296"/>
+    <mergeCell ref="A299:B299"/>
+    <mergeCell ref="A302:B302"/>
+    <mergeCell ref="A305:B305"/>
+    <mergeCell ref="A272:B272"/>
+    <mergeCell ref="A275:B275"/>
+    <mergeCell ref="A278:B278"/>
+    <mergeCell ref="A281:B281"/>
+    <mergeCell ref="A284:B284"/>
+    <mergeCell ref="A287:B287"/>
+    <mergeCell ref="A254:B254"/>
+    <mergeCell ref="A257:B257"/>
+    <mergeCell ref="A260:B260"/>
+    <mergeCell ref="A263:B263"/>
+    <mergeCell ref="A266:B266"/>
+    <mergeCell ref="A269:B269"/>
+    <mergeCell ref="A236:B236"/>
+    <mergeCell ref="A239:B239"/>
+    <mergeCell ref="A242:B242"/>
+    <mergeCell ref="A245:B245"/>
+    <mergeCell ref="A248:B248"/>
+    <mergeCell ref="A251:B251"/>
+    <mergeCell ref="A218:B218"/>
+    <mergeCell ref="A221:B221"/>
+    <mergeCell ref="A224:B224"/>
+    <mergeCell ref="A227:B227"/>
+    <mergeCell ref="A230:B230"/>
+    <mergeCell ref="A233:B233"/>
+    <mergeCell ref="A200:B200"/>
+    <mergeCell ref="A203:B203"/>
+    <mergeCell ref="A206:B206"/>
+    <mergeCell ref="A209:B209"/>
+    <mergeCell ref="A212:B212"/>
+    <mergeCell ref="A215:B215"/>
+    <mergeCell ref="A182:B182"/>
+    <mergeCell ref="A185:B185"/>
+    <mergeCell ref="A188:B188"/>
+    <mergeCell ref="A191:B191"/>
+    <mergeCell ref="A194:B194"/>
+    <mergeCell ref="A197:B197"/>
+    <mergeCell ref="A164:B164"/>
+    <mergeCell ref="A167:B167"/>
+    <mergeCell ref="A170:B170"/>
+    <mergeCell ref="A173:B173"/>
+    <mergeCell ref="A176:B176"/>
+    <mergeCell ref="A179:B179"/>
+    <mergeCell ref="A146:B146"/>
+    <mergeCell ref="A149:B149"/>
+    <mergeCell ref="A152:B152"/>
+    <mergeCell ref="A155:B155"/>
+    <mergeCell ref="A158:B158"/>
+    <mergeCell ref="A161:B161"/>
+    <mergeCell ref="A128:B128"/>
+    <mergeCell ref="A131:B131"/>
+    <mergeCell ref="A134:B134"/>
+    <mergeCell ref="A137:B137"/>
+    <mergeCell ref="A140:B140"/>
+    <mergeCell ref="A143:B143"/>
+    <mergeCell ref="A110:B110"/>
+    <mergeCell ref="A113:B113"/>
+    <mergeCell ref="A116:B116"/>
+    <mergeCell ref="A119:B119"/>
+    <mergeCell ref="A122:B122"/>
+    <mergeCell ref="A125:B125"/>
+    <mergeCell ref="A92:B92"/>
+    <mergeCell ref="A95:B95"/>
+    <mergeCell ref="A98:B98"/>
+    <mergeCell ref="A101:B101"/>
+    <mergeCell ref="A104:B104"/>
+    <mergeCell ref="A107:B107"/>
+    <mergeCell ref="A74:B74"/>
+    <mergeCell ref="A77:B77"/>
+    <mergeCell ref="A80:B80"/>
+    <mergeCell ref="A83:B83"/>
+    <mergeCell ref="A86:B86"/>
+    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A56:B56"/>
+    <mergeCell ref="A59:B59"/>
+    <mergeCell ref="A62:B62"/>
+    <mergeCell ref="A65:B65"/>
+    <mergeCell ref="A68:B68"/>
+    <mergeCell ref="A71:B71"/>
+    <mergeCell ref="A38:B38"/>
+    <mergeCell ref="A41:B41"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="A47:B47"/>
+    <mergeCell ref="A50:B50"/>
+    <mergeCell ref="A53:B53"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="A35:B35"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A5:B5"/>
+    <mergeCell ref="A8:B8"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="A17:B17"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Autodidacte/商务英语/高级英语.xlsx
+++ b/Autodidacte/商务英语/高级英语.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1022" uniqueCount="1019">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1118" uniqueCount="1115">
   <si>
     <t>Energy is the currency of the ecological system and life becomes possible only when food is converted into energy, which in turn is used to seek more food to grow, to reproduce and to survive.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -14340,6 +14340,420 @@
   <si>
     <t>We must adjust ourselves to the changing world.
 我们必须适应这个变化着的世界。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>appeal to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>(对某人)有吸引力，(使某人)感兴趣</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The new film appealed to many people because of its moving story.
+这个影片因其感人的故事吸引了很多人。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as a whole</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为整体</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Here is my judgment on the novel as a whole.
+这是我对这部小说的总体判断。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>as such</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>作为这样一个。。。，这样，因此</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He is my teacher and as such can tell me what to do.
+他是我老师，所以能告诉我做什么。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aside/apart from…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>除了。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>aside/apart from being fun and good exercise, swimming is a very useful skill.
+除了好玩和好的运动以外，游泳还是一项很有用的技巧。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at any rate</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何，在任何情况下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was determined to buy the house at any rate.
+他决心无论如何都要买那座房子。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at first glance</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>第一次看见，乍一看，初一看</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>at first glance,the painting doesn't appear to be so much of a great work. But with careful study, you may discover its uniqueness.
+乍一看，这张油画似乎不是什么大作。但仔细研究，你会发现它的独特之处。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attach…to…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把。。。与。。。联系在一起</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We should not attach his mistakes to his social status.
+我们不应当把他的错误与他的社会地位联系在一起。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>attribut…to</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>把。。。归功于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He always attributes his great success to his great efforts.
+他总是把成功归功于自己的努力。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a matter of course</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自然的，理所当然的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Some people take my help as a matter of course.
+有些人把我对他们的帮助视为理所当然的事。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">a number of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>许多，若干(谓语动词用复数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">the number of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>。。。的数目，。。。的总数(谓语动词用单数)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a number of students were absent yesterday.
+昨天许多学生缺勤。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>the number of jobless people grows.
+失业人数在增加。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be at a loss to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>困惑，不知所措</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He was at a loss what to say.
+他不知说什么好。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be aware of</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>觉察到，意识到</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He wasn't aware of his danger.
+他没有意识到危险。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>base…on…</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>以。。。为基础，把。。。建立在。。。上</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I base my opinion on the fact.
+我的观点是以事实为基础的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>batten on/upon</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>靠。。。养肥自己</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Do you know how Marlin made his fortune? He battened on child labor.
+你知道马林是怎么发的财呢？他靠童工养肥了自己。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be fed up</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>够了，腻了，厌烦，常和with搭配</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am fed up with this wet weather.
+我很讨厌这种潮湿天气。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bear in mind</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>记住</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We must bear his words in mind.
+我们要记住他的话。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>blame sth on sb
+blame sb for sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>He blamed his failure on his secretary.
+他把自己的失败归咎于秘书。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>责怪，责备，归咎于某人</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be bored with sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对。。。感到厌烦</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>I am bored with something boring.
+我对某些无聊的事情感到厌烦。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break down</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坏了</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>We are sorry we are late, but the car broke down on the way.
+很抱歉，我们来晚了，我们的车在路上坏了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>break in</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>插嘴，打断。。。说</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The secretary broke in to say that a telegram had arrived.
+秘书插话说电报已收到。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by contrast</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>相比之下</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>When you look at their new system, ours seems very old-fasioned by contrast.
+看一看他们的新系统，就显得我们的系统陈旧过时了。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by nature</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>本性上，天生地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>She is by nature a happy person.
+她生来是个乐天派。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by no means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>决不</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by all means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当然，务必</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>by any means</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>无论如何</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be apt to do sth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>有。。。倾向的，易于</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Food is apt to deteriorate in summer. 夏季食物易于变质。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be concerned with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关心，关注</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>More and more people are concerned with air pollution recently.
+现在越来越多的人关注空气污染。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be content with</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>满足，满意</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Are you content with your present job?
+你对目前的工作满意吗？</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be free of </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>摆脱了。。。的，没。。。的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Text books for middle-school students are free of charge in England.
+在英国中学生的课本是不收费的。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be free from</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>不受。。。影响</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No country is completely free from corruption.
+没有一个国家能真正不受腐败的影响。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">be suited to </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>适合于。。。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>His characteristics are suited to this job.
+他的性格适合这个工作。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>be up to sb</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>由。。。决定</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>It's up to you to get the work done.
+应由你做完那事儿。</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -14497,12 +14911,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -14517,7 +14937,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -14556,10 +14976,16 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -17247,1018 +17673,1839 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B500"/>
+  <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+      <selection activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.77734375" style="15" customWidth="1"/>
-    <col min="2" max="2" width="56.33203125" style="15" customWidth="1"/>
+    <col min="1" max="1" width="31.77734375" style="14" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" style="14" customWidth="1"/>
     <col min="3" max="16384" width="8.88671875" style="13"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="15" t="s">
+      <c r="A1" s="14" t="s">
         <v>1013</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="14" t="s">
         <v>1014</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="17" t="s">
         <v>1015</v>
       </c>
-      <c r="B2" s="14"/>
-    </row>
-    <row r="3" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B2" s="17"/>
+    </row>
+    <row r="3" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="16"/>
+      <c r="B3" s="16"/>
+    </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="14" t="s">
         <v>1016</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>1017</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="17" t="s">
         <v>1018</v>
       </c>
-      <c r="B5" s="14"/>
-    </row>
-    <row r="6" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-    </row>
-    <row r="12" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-    </row>
-    <row r="15" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-    </row>
-    <row r="18" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20" s="14"/>
-      <c r="B20" s="14"/>
-    </row>
-    <row r="21" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="14"/>
-      <c r="B23" s="14"/>
-    </row>
-    <row r="24" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="14"/>
-      <c r="B26" s="14"/>
-    </row>
-    <row r="27" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" s="14"/>
-      <c r="B29" s="14"/>
-    </row>
-    <row r="30" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="14"/>
-      <c r="B32" s="14"/>
-    </row>
-    <row r="33" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="14"/>
-      <c r="B35" s="14"/>
-    </row>
-    <row r="36" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="14"/>
-      <c r="B38" s="14"/>
-    </row>
-    <row r="39" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="14"/>
-      <c r="B41" s="14"/>
-    </row>
-    <row r="42" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="14"/>
-      <c r="B44" s="14"/>
-    </row>
-    <row r="45" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="14"/>
-      <c r="B47" s="14"/>
-    </row>
-    <row r="48" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" s="14"/>
-      <c r="B50" s="14"/>
-    </row>
-    <row r="51" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" s="14"/>
-      <c r="B53" s="14"/>
-    </row>
-    <row r="54" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56" s="14"/>
-      <c r="B56" s="14"/>
-    </row>
-    <row r="57" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="14"/>
-      <c r="B59" s="14"/>
-    </row>
-    <row r="60" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="14"/>
-      <c r="B62" s="14"/>
-    </row>
-    <row r="63" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="14"/>
-      <c r="B65" s="14"/>
-    </row>
-    <row r="66" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68" s="14"/>
-      <c r="B68" s="14"/>
-    </row>
-    <row r="69" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71" s="14"/>
-      <c r="B71" s="14"/>
-    </row>
-    <row r="72" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74" s="14"/>
-      <c r="B74" s="14"/>
-    </row>
-    <row r="75" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="14"/>
-      <c r="B77" s="14"/>
-    </row>
-    <row r="78" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="B5" s="17"/>
+    </row>
+    <row r="6" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="16"/>
+      <c r="B6" s="16"/>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="17" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B8" s="17"/>
+    </row>
+    <row r="9" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B11" s="17"/>
+    </row>
+    <row r="12" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B13" s="14" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="17" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B14" s="17"/>
+    </row>
+    <row r="15" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B16" s="14" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="17" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B17" s="17"/>
+    </row>
+    <row r="18" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="16"/>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B19" s="14" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="17" t="s">
+        <v>1033</v>
+      </c>
+      <c r="B20" s="17"/>
+    </row>
+    <row r="21" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="16"/>
+      <c r="B21" s="16"/>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B22" s="14" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="17" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B23" s="17"/>
+    </row>
+    <row r="24" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="16"/>
+      <c r="B24" s="16"/>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="14" t="s">
+        <v>1037</v>
+      </c>
+      <c r="B25" s="14" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="17" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B26" s="17"/>
+    </row>
+    <row r="27" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="16"/>
+      <c r="B27" s="16"/>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="14" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B28" s="14" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="17" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B29" s="17"/>
+    </row>
+    <row r="30" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="16"/>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="14" t="s">
+        <v>1043</v>
+      </c>
+      <c r="B31" s="14" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="17" t="s">
+        <v>1045</v>
+      </c>
+      <c r="B32" s="17"/>
+    </row>
+    <row r="33" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="16"/>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="14" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B34" s="14" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="17" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B35" s="17"/>
+    </row>
+    <row r="36" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="16"/>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="14" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B37" s="14" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="17" t="s">
+        <v>1051</v>
+      </c>
+      <c r="B38" s="17"/>
+    </row>
+    <row r="39" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="16"/>
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="14" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B40" s="14" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="17" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B41" s="17"/>
+    </row>
+    <row r="42" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="14" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A44" s="17" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B44" s="17"/>
+    </row>
+    <row r="45" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="16"/>
+      <c r="B45" s="16"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="14" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B46" s="14" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="17" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B47" s="17"/>
+    </row>
+    <row r="48" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="16"/>
+      <c r="B48" s="16"/>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="14" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B49" s="14" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="17" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B50" s="17"/>
+    </row>
+    <row r="51" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="16"/>
+      <c r="B51" s="16"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="14" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="17" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B53" s="17"/>
+    </row>
+    <row r="54" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="16"/>
+      <c r="B54" s="16"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="14" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B55" s="14" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A56" s="17" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B56" s="17"/>
+    </row>
+    <row r="57" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A57" s="16"/>
+      <c r="B57" s="16"/>
+    </row>
+    <row r="58" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
+      <c r="A58" s="14" t="s">
+        <v>1070</v>
+      </c>
+      <c r="B58" s="14" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A59" s="17" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B59" s="17"/>
+    </row>
+    <row r="60" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A60" s="16"/>
+      <c r="B60" s="16"/>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61" s="14" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="17" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B62" s="17"/>
+    </row>
+    <row r="63" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="16"/>
+      <c r="B63" s="16"/>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64" s="14" t="s">
+        <v>1076</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A65" s="17" t="s">
+        <v>1078</v>
+      </c>
+      <c r="B65" s="17"/>
+    </row>
+    <row r="66" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A66" s="16"/>
+      <c r="B66" s="16"/>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="14" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="17" t="s">
+        <v>1081</v>
+      </c>
+      <c r="B68" s="17"/>
+    </row>
+    <row r="69" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A69" s="16"/>
+      <c r="B69" s="16"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="14" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="17" t="s">
+        <v>1084</v>
+      </c>
+      <c r="B71" s="17"/>
+    </row>
+    <row r="72" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="16"/>
+      <c r="B72" s="16"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B73" s="14" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A74" s="17" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B74" s="17"/>
+    </row>
+    <row r="75" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A75" s="16"/>
+      <c r="B75" s="16"/>
+    </row>
+    <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="14" t="s">
+        <v>1088</v>
+      </c>
+      <c r="B76" s="14" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="14" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B77" s="14" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A78" s="15" t="s">
+        <v>1090</v>
+      </c>
+      <c r="B78" s="15" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A79" s="16"/>
+      <c r="B79" s="16"/>
+    </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80" s="14"/>
-      <c r="B80" s="14"/>
-    </row>
-    <row r="81" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A80" s="15" t="s">
+        <v>1094</v>
+      </c>
+      <c r="B80" s="14" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A81" s="17" t="s">
+        <v>1096</v>
+      </c>
+      <c r="B81" s="17"/>
+    </row>
+    <row r="82" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A82" s="16"/>
+      <c r="B82" s="16"/>
+    </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="14"/>
-      <c r="B83" s="14"/>
-    </row>
-    <row r="84" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A83" s="14" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A84" s="17" t="s">
+        <v>1099</v>
+      </c>
+      <c r="B84" s="17"/>
+    </row>
+    <row r="85" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A85" s="16"/>
+      <c r="B85" s="16"/>
+    </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="14"/>
-      <c r="B86" s="14"/>
-    </row>
-    <row r="87" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A86" s="14" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B86" s="14" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A87" s="17" t="s">
+        <v>1102</v>
+      </c>
+      <c r="B87" s="17"/>
+    </row>
+    <row r="88" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A88" s="16"/>
+      <c r="B88" s="16"/>
+    </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="14"/>
-      <c r="B89" s="14"/>
-    </row>
-    <row r="90" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A89" s="14" t="s">
+        <v>1103</v>
+      </c>
+      <c r="B89" s="14" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A90" s="17" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B90" s="17"/>
+    </row>
+    <row r="91" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A91" s="16"/>
+      <c r="B91" s="16"/>
+    </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="14"/>
-      <c r="B92" s="14"/>
-    </row>
-    <row r="93" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A92" s="14" t="s">
+        <v>1106</v>
+      </c>
+      <c r="B92" s="14" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="17" t="s">
+        <v>1108</v>
+      </c>
+      <c r="B93" s="17"/>
+    </row>
+    <row r="94" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="16"/>
+      <c r="B94" s="16"/>
+    </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="14"/>
-      <c r="B95" s="14"/>
-    </row>
-    <row r="96" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
+      <c r="A95" s="14" t="s">
+        <v>1109</v>
+      </c>
+      <c r="B95" s="14" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A96" s="17" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B96" s="17"/>
+    </row>
+    <row r="97" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A97" s="16"/>
+      <c r="B97" s="16"/>
+    </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="14"/>
-      <c r="B98" s="14"/>
-    </row>
-    <row r="99" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="14"/>
-      <c r="B101" s="14"/>
-    </row>
-    <row r="102" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A104" s="14"/>
-      <c r="B104" s="14"/>
-    </row>
-    <row r="105" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="14"/>
-      <c r="B107" s="14"/>
-    </row>
-    <row r="108" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="14"/>
-      <c r="B110" s="14"/>
-    </row>
-    <row r="111" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A113" s="14"/>
-      <c r="B113" s="14"/>
-    </row>
-    <row r="114" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A116" s="14"/>
-      <c r="B116" s="14"/>
-    </row>
-    <row r="117" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="14"/>
-      <c r="B119" s="14"/>
-    </row>
-    <row r="120" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="14"/>
-      <c r="B122" s="14"/>
-    </row>
-    <row r="123" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="14"/>
-      <c r="B125" s="14"/>
-    </row>
-    <row r="126" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="14"/>
-      <c r="B128" s="14"/>
-    </row>
-    <row r="129" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="14"/>
-      <c r="B131" s="14"/>
-    </row>
-    <row r="132" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A134" s="14"/>
-      <c r="B134" s="14"/>
-    </row>
-    <row r="135" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A137" s="14"/>
-      <c r="B137" s="14"/>
-    </row>
-    <row r="138" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A140" s="14"/>
-      <c r="B140" s="14"/>
-    </row>
-    <row r="141" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A143" s="14"/>
-      <c r="B143" s="14"/>
-    </row>
-    <row r="144" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A146" s="14"/>
-      <c r="B146" s="14"/>
-    </row>
-    <row r="147" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A149" s="14"/>
-      <c r="B149" s="14"/>
-    </row>
-    <row r="150" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A152" s="14"/>
-      <c r="B152" s="14"/>
-    </row>
-    <row r="153" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A155" s="14"/>
-      <c r="B155" s="14"/>
-    </row>
-    <row r="156" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A158" s="14"/>
-      <c r="B158" s="14"/>
-    </row>
-    <row r="159" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A161" s="14"/>
-      <c r="B161" s="14"/>
-    </row>
-    <row r="162" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A164" s="14"/>
-      <c r="B164" s="14"/>
-    </row>
-    <row r="165" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A167" s="14"/>
-      <c r="B167" s="14"/>
-    </row>
-    <row r="168" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A170" s="14"/>
-      <c r="B170" s="14"/>
-    </row>
-    <row r="171" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A173" s="14"/>
-      <c r="B173" s="14"/>
-    </row>
-    <row r="174" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A176" s="14"/>
-      <c r="B176" s="14"/>
-    </row>
-    <row r="177" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A179" s="14"/>
-      <c r="B179" s="14"/>
-    </row>
-    <row r="180" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A182" s="14"/>
-      <c r="B182" s="14"/>
-    </row>
-    <row r="183" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A185" s="14"/>
-      <c r="B185" s="14"/>
-    </row>
-    <row r="186" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="14"/>
-      <c r="B188" s="14"/>
-    </row>
-    <row r="189" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="14"/>
-      <c r="B191" s="14"/>
-    </row>
-    <row r="192" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="14"/>
-      <c r="B194" s="14"/>
-    </row>
-    <row r="195" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A197" s="14"/>
-      <c r="B197" s="14"/>
-    </row>
-    <row r="198" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="14"/>
-      <c r="B200" s="14"/>
-    </row>
-    <row r="201" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="14"/>
-      <c r="B203" s="14"/>
-    </row>
-    <row r="204" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="14"/>
-      <c r="B206" s="14"/>
-    </row>
-    <row r="207" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="14"/>
-      <c r="B209" s="14"/>
-    </row>
-    <row r="210" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A212" s="14"/>
-      <c r="B212" s="14"/>
-    </row>
-    <row r="213" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A215" s="14"/>
-      <c r="B215" s="14"/>
-    </row>
-    <row r="216" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A218" s="14"/>
-      <c r="B218" s="14"/>
-    </row>
-    <row r="219" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A221" s="14"/>
-      <c r="B221" s="14"/>
-    </row>
-    <row r="222" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A224" s="14"/>
-      <c r="B224" s="14"/>
-    </row>
-    <row r="225" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="227" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A227" s="14"/>
-      <c r="B227" s="14"/>
-    </row>
-    <row r="228" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="230" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A230" s="14"/>
-      <c r="B230" s="14"/>
-    </row>
-    <row r="231" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="233" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A233" s="14"/>
-      <c r="B233" s="14"/>
-    </row>
-    <row r="234" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="236" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A236" s="14"/>
-      <c r="B236" s="14"/>
-    </row>
-    <row r="237" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="239" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A239" s="14"/>
-      <c r="B239" s="14"/>
-    </row>
-    <row r="240" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="242" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A242" s="14"/>
-      <c r="B242" s="14"/>
-    </row>
-    <row r="243" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="245" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A245" s="14"/>
-      <c r="B245" s="14"/>
-    </row>
-    <row r="246" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="248" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A248" s="14"/>
-      <c r="B248" s="14"/>
-    </row>
-    <row r="249" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="251" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A251" s="14"/>
-      <c r="B251" s="14"/>
-    </row>
-    <row r="252" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="254" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A254" s="14"/>
-      <c r="B254" s="14"/>
-    </row>
-    <row r="255" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="257" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A257" s="14"/>
-      <c r="B257" s="14"/>
-    </row>
-    <row r="258" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="260" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A260" s="14"/>
-      <c r="B260" s="14"/>
-    </row>
-    <row r="261" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="263" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A263" s="14"/>
-      <c r="B263" s="14"/>
-    </row>
-    <row r="264" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="266" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A266" s="14"/>
-      <c r="B266" s="14"/>
-    </row>
-    <row r="267" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="269" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A269" s="14"/>
-      <c r="B269" s="14"/>
-    </row>
-    <row r="270" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="272" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A272" s="14"/>
-      <c r="B272" s="14"/>
-    </row>
-    <row r="273" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="275" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A275" s="14"/>
-      <c r="B275" s="14"/>
-    </row>
-    <row r="276" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="278" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A278" s="14"/>
-      <c r="B278" s="14"/>
-    </row>
-    <row r="279" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="281" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A281" s="14"/>
-      <c r="B281" s="14"/>
-    </row>
-    <row r="282" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="284" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A284" s="14"/>
-      <c r="B284" s="14"/>
-    </row>
-    <row r="285" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="287" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A287" s="14"/>
-      <c r="B287" s="14"/>
-    </row>
-    <row r="288" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="290" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A290" s="14"/>
-      <c r="B290" s="14"/>
-    </row>
-    <row r="291" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="293" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A293" s="14"/>
-      <c r="B293" s="14"/>
-    </row>
-    <row r="294" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="296" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A296" s="14"/>
-      <c r="B296" s="14"/>
-    </row>
-    <row r="297" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="299" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A299" s="14"/>
-      <c r="B299" s="14"/>
-    </row>
-    <row r="300" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="302" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A302" s="14"/>
-      <c r="B302" s="14"/>
-    </row>
-    <row r="303" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="305" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A305" s="14"/>
-      <c r="B305" s="14"/>
-    </row>
-    <row r="306" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="308" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A308" s="14"/>
-      <c r="B308" s="14"/>
-    </row>
-    <row r="309" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="311" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A311" s="14"/>
-      <c r="B311" s="14"/>
-    </row>
-    <row r="312" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="314" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A314" s="14"/>
-      <c r="B314" s="14"/>
-    </row>
-    <row r="315" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="317" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A317" s="14"/>
-      <c r="B317" s="14"/>
-    </row>
-    <row r="318" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="320" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A320" s="14"/>
-      <c r="B320" s="14"/>
-    </row>
-    <row r="321" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="323" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A323" s="14"/>
-      <c r="B323" s="14"/>
-    </row>
-    <row r="324" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="326" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A326" s="14"/>
-      <c r="B326" s="14"/>
-    </row>
-    <row r="327" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="329" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A329" s="14"/>
-      <c r="B329" s="14"/>
-    </row>
-    <row r="330" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="332" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A332" s="14"/>
-      <c r="B332" s="14"/>
-    </row>
-    <row r="333" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="335" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A335" s="14"/>
-      <c r="B335" s="14"/>
-    </row>
-    <row r="336" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="338" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A338" s="14"/>
-      <c r="B338" s="14"/>
-    </row>
-    <row r="339" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="341" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A341" s="14"/>
-      <c r="B341" s="14"/>
-    </row>
-    <row r="342" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="344" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A344" s="14"/>
-      <c r="B344" s="14"/>
-    </row>
-    <row r="345" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="347" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A347" s="14"/>
-      <c r="B347" s="14"/>
-    </row>
-    <row r="348" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="350" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A350" s="14"/>
-      <c r="B350" s="14"/>
-    </row>
-    <row r="351" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="353" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A353" s="14"/>
-      <c r="B353" s="14"/>
-    </row>
-    <row r="354" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="356" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A356" s="14"/>
-      <c r="B356" s="14"/>
-    </row>
-    <row r="357" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="359" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A359" s="14"/>
-      <c r="B359" s="14"/>
-    </row>
-    <row r="360" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="362" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A362" s="14"/>
-      <c r="B362" s="14"/>
-    </row>
-    <row r="363" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="365" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A365" s="14"/>
-      <c r="B365" s="14"/>
-    </row>
-    <row r="366" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="368" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A368" s="14"/>
-      <c r="B368" s="14"/>
-    </row>
-    <row r="369" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="371" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A371" s="14"/>
-      <c r="B371" s="14"/>
-    </row>
-    <row r="372" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="374" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A374" s="14"/>
-      <c r="B374" s="14"/>
-    </row>
-    <row r="375" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="377" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A377" s="14"/>
-      <c r="B377" s="14"/>
-    </row>
-    <row r="378" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="380" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A380" s="14"/>
-      <c r="B380" s="14"/>
-    </row>
-    <row r="381" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="383" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A383" s="14"/>
-      <c r="B383" s="14"/>
-    </row>
-    <row r="384" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="386" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A386" s="14"/>
-      <c r="B386" s="14"/>
-    </row>
-    <row r="387" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="389" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A389" s="14"/>
-      <c r="B389" s="14"/>
-    </row>
-    <row r="390" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="392" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A392" s="14"/>
-      <c r="B392" s="14"/>
-    </row>
-    <row r="393" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="395" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A395" s="14"/>
-      <c r="B395" s="14"/>
-    </row>
-    <row r="396" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="398" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A398" s="14"/>
-      <c r="B398" s="14"/>
-    </row>
-    <row r="399" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="401" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A401" s="14"/>
-      <c r="B401" s="14"/>
-    </row>
-    <row r="402" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="404" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A404" s="14"/>
-      <c r="B404" s="14"/>
-    </row>
-    <row r="405" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="407" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A407" s="14"/>
-      <c r="B407" s="14"/>
-    </row>
-    <row r="408" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="410" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A410" s="14"/>
-      <c r="B410" s="14"/>
-    </row>
-    <row r="411" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="413" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A413" s="14"/>
-      <c r="B413" s="14"/>
-    </row>
-    <row r="414" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="416" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A416" s="14"/>
-      <c r="B416" s="14"/>
-    </row>
-    <row r="417" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="419" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A419" s="14"/>
-      <c r="B419" s="14"/>
-    </row>
-    <row r="420" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="422" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A422" s="14"/>
-      <c r="B422" s="14"/>
-    </row>
-    <row r="423" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="425" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A425" s="14"/>
-      <c r="B425" s="14"/>
-    </row>
-    <row r="426" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="428" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A428" s="14"/>
-      <c r="B428" s="14"/>
-    </row>
-    <row r="429" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="431" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A431" s="14"/>
-      <c r="B431" s="14"/>
-    </row>
-    <row r="432" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="434" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A434" s="14"/>
-      <c r="B434" s="14"/>
-    </row>
-    <row r="435" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="437" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A437" s="14"/>
-      <c r="B437" s="14"/>
-    </row>
-    <row r="438" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="440" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A440" s="14"/>
-      <c r="B440" s="14"/>
-    </row>
-    <row r="441" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="443" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A443" s="14"/>
-      <c r="B443" s="14"/>
-    </row>
-    <row r="444" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="446" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A446" s="14"/>
-      <c r="B446" s="14"/>
-    </row>
-    <row r="447" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="449" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A449" s="14"/>
-      <c r="B449" s="14"/>
-    </row>
-    <row r="450" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="452" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A452" s="14"/>
-      <c r="B452" s="14"/>
-    </row>
-    <row r="453" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="455" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A455" s="14"/>
-      <c r="B455" s="14"/>
-    </row>
-    <row r="456" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="458" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A458" s="14"/>
-      <c r="B458" s="14"/>
-    </row>
-    <row r="459" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="461" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A461" s="14"/>
-      <c r="B461" s="14"/>
-    </row>
-    <row r="462" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="464" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A464" s="14"/>
-      <c r="B464" s="14"/>
-    </row>
-    <row r="465" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="467" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A467" s="14"/>
-      <c r="B467" s="14"/>
-    </row>
-    <row r="468" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="470" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A470" s="14"/>
-      <c r="B470" s="14"/>
-    </row>
-    <row r="471" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="473" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A473" s="14"/>
-      <c r="B473" s="14"/>
-    </row>
-    <row r="474" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="476" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A476" s="14"/>
-      <c r="B476" s="14"/>
-    </row>
-    <row r="477" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="479" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A479" s="14"/>
-      <c r="B479" s="14"/>
-    </row>
-    <row r="480" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="482" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A482" s="14"/>
-      <c r="B482" s="14"/>
-    </row>
-    <row r="483" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="485" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A485" s="14"/>
-      <c r="B485" s="14"/>
-    </row>
-    <row r="486" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="488" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A488" s="14"/>
-      <c r="B488" s="14"/>
-    </row>
-    <row r="489" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="491" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A491" s="14"/>
-      <c r="B491" s="14"/>
-    </row>
-    <row r="492" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="494" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A494" s="14"/>
-      <c r="B494" s="14"/>
-    </row>
-    <row r="495" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="497" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A497" s="14"/>
-      <c r="B497" s="14"/>
-    </row>
-    <row r="498" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="500" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A500" s="14"/>
-      <c r="B500" s="14"/>
+      <c r="A98" s="14" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B98" s="14" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A99" s="17" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B99" s="17"/>
+    </row>
+    <row r="100" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A100" s="16"/>
+      <c r="B100" s="16"/>
+    </row>
+    <row r="102" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A102" s="17"/>
+      <c r="B102" s="17"/>
+    </row>
+    <row r="103" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A103" s="16"/>
+      <c r="B103" s="16"/>
+    </row>
+    <row r="105" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A105" s="17"/>
+      <c r="B105" s="17"/>
+    </row>
+    <row r="106" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A106" s="16"/>
+      <c r="B106" s="16"/>
+    </row>
+    <row r="108" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A108" s="17"/>
+      <c r="B108" s="17"/>
+    </row>
+    <row r="109" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="16"/>
+      <c r="B109" s="16"/>
+    </row>
+    <row r="111" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="17"/>
+      <c r="B111" s="17"/>
+    </row>
+    <row r="112" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="16"/>
+      <c r="B112" s="16"/>
+    </row>
+    <row r="114" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A114" s="17"/>
+      <c r="B114" s="17"/>
+    </row>
+    <row r="115" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="16"/>
+      <c r="B115" s="16"/>
+    </row>
+    <row r="117" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="17"/>
+      <c r="B117" s="17"/>
+    </row>
+    <row r="118" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="16"/>
+      <c r="B118" s="16"/>
+    </row>
+    <row r="120" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A120" s="17"/>
+      <c r="B120" s="17"/>
+    </row>
+    <row r="121" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="16"/>
+      <c r="B121" s="16"/>
+    </row>
+    <row r="123" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="17"/>
+      <c r="B123" s="17"/>
+    </row>
+    <row r="124" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="16"/>
+      <c r="B124" s="16"/>
+    </row>
+    <row r="126" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="17"/>
+      <c r="B126" s="17"/>
+    </row>
+    <row r="127" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="16"/>
+      <c r="B127" s="16"/>
+    </row>
+    <row r="129" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A129" s="17"/>
+      <c r="B129" s="17"/>
+    </row>
+    <row r="130" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A130" s="16"/>
+      <c r="B130" s="16"/>
+    </row>
+    <row r="132" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A132" s="17"/>
+      <c r="B132" s="17"/>
+    </row>
+    <row r="133" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A133" s="16"/>
+      <c r="B133" s="16"/>
+    </row>
+    <row r="135" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A135" s="17"/>
+      <c r="B135" s="17"/>
+    </row>
+    <row r="136" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A136" s="16"/>
+      <c r="B136" s="16"/>
+    </row>
+    <row r="138" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A138" s="17"/>
+      <c r="B138" s="17"/>
+    </row>
+    <row r="139" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A139" s="16"/>
+      <c r="B139" s="16"/>
+    </row>
+    <row r="141" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A141" s="17"/>
+      <c r="B141" s="17"/>
+    </row>
+    <row r="142" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A142" s="16"/>
+      <c r="B142" s="16"/>
+    </row>
+    <row r="144" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="17"/>
+      <c r="B144" s="17"/>
+    </row>
+    <row r="145" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="16"/>
+      <c r="B145" s="16"/>
+    </row>
+    <row r="147" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="17"/>
+      <c r="B147" s="17"/>
+    </row>
+    <row r="148" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="16"/>
+      <c r="B148" s="16"/>
+    </row>
+    <row r="150" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A150" s="17"/>
+      <c r="B150" s="17"/>
+    </row>
+    <row r="151" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A151" s="16"/>
+      <c r="B151" s="16"/>
+    </row>
+    <row r="153" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A153" s="17"/>
+      <c r="B153" s="17"/>
+    </row>
+    <row r="154" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A154" s="16"/>
+      <c r="B154" s="16"/>
+    </row>
+    <row r="156" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A156" s="17"/>
+      <c r="B156" s="17"/>
+    </row>
+    <row r="157" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A157" s="16"/>
+      <c r="B157" s="16"/>
+    </row>
+    <row r="159" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A159" s="17"/>
+      <c r="B159" s="17"/>
+    </row>
+    <row r="160" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A160" s="16"/>
+      <c r="B160" s="16"/>
+    </row>
+    <row r="162" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A162" s="17"/>
+      <c r="B162" s="17"/>
+    </row>
+    <row r="163" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A163" s="16"/>
+      <c r="B163" s="16"/>
+    </row>
+    <row r="165" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A165" s="17"/>
+      <c r="B165" s="17"/>
+    </row>
+    <row r="166" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A166" s="16"/>
+      <c r="B166" s="16"/>
+    </row>
+    <row r="168" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A168" s="17"/>
+      <c r="B168" s="17"/>
+    </row>
+    <row r="169" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A169" s="16"/>
+      <c r="B169" s="16"/>
+    </row>
+    <row r="171" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A171" s="17"/>
+      <c r="B171" s="17"/>
+    </row>
+    <row r="172" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A172" s="16"/>
+      <c r="B172" s="16"/>
+    </row>
+    <row r="174" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A174" s="17"/>
+      <c r="B174" s="17"/>
+    </row>
+    <row r="175" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A175" s="16"/>
+      <c r="B175" s="16"/>
+    </row>
+    <row r="177" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A177" s="17"/>
+      <c r="B177" s="17"/>
+    </row>
+    <row r="178" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A178" s="16"/>
+      <c r="B178" s="16"/>
+    </row>
+    <row r="180" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A180" s="17"/>
+      <c r="B180" s="17"/>
+    </row>
+    <row r="181" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A181" s="16"/>
+      <c r="B181" s="16"/>
+    </row>
+    <row r="183" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A183" s="17"/>
+      <c r="B183" s="17"/>
+    </row>
+    <row r="184" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A184" s="16"/>
+      <c r="B184" s="16"/>
+    </row>
+    <row r="186" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A186" s="17"/>
+      <c r="B186" s="17"/>
+    </row>
+    <row r="187" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A187" s="16"/>
+      <c r="B187" s="16"/>
+    </row>
+    <row r="189" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A189" s="17"/>
+      <c r="B189" s="17"/>
+    </row>
+    <row r="190" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A190" s="16"/>
+      <c r="B190" s="16"/>
+    </row>
+    <row r="192" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A192" s="17"/>
+      <c r="B192" s="17"/>
+    </row>
+    <row r="193" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A193" s="16"/>
+      <c r="B193" s="16"/>
+    </row>
+    <row r="195" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A195" s="17"/>
+      <c r="B195" s="17"/>
+    </row>
+    <row r="196" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A196" s="16"/>
+      <c r="B196" s="16"/>
+    </row>
+    <row r="198" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A198" s="17"/>
+      <c r="B198" s="17"/>
+    </row>
+    <row r="199" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A199" s="16"/>
+      <c r="B199" s="16"/>
+    </row>
+    <row r="201" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A201" s="17"/>
+      <c r="B201" s="17"/>
+    </row>
+    <row r="202" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A202" s="16"/>
+      <c r="B202" s="16"/>
+    </row>
+    <row r="204" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A204" s="17"/>
+      <c r="B204" s="17"/>
+    </row>
+    <row r="205" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A205" s="16"/>
+      <c r="B205" s="16"/>
+    </row>
+    <row r="207" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A207" s="17"/>
+      <c r="B207" s="17"/>
+    </row>
+    <row r="208" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A208" s="16"/>
+      <c r="B208" s="16"/>
+    </row>
+    <row r="210" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A210" s="17"/>
+      <c r="B210" s="17"/>
+    </row>
+    <row r="211" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A211" s="16"/>
+      <c r="B211" s="16"/>
+    </row>
+    <row r="213" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A213" s="17"/>
+      <c r="B213" s="17"/>
+    </row>
+    <row r="214" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A214" s="16"/>
+      <c r="B214" s="16"/>
+    </row>
+    <row r="216" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A216" s="17"/>
+      <c r="B216" s="17"/>
+    </row>
+    <row r="217" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A217" s="16"/>
+      <c r="B217" s="16"/>
+    </row>
+    <row r="219" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A219" s="17"/>
+      <c r="B219" s="17"/>
+    </row>
+    <row r="220" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A220" s="16"/>
+      <c r="B220" s="16"/>
+    </row>
+    <row r="222" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A222" s="17"/>
+      <c r="B222" s="17"/>
+    </row>
+    <row r="223" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A223" s="16"/>
+      <c r="B223" s="16"/>
+    </row>
+    <row r="225" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A225" s="17"/>
+      <c r="B225" s="17"/>
+    </row>
+    <row r="226" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A226" s="16"/>
+      <c r="B226" s="16"/>
+    </row>
+    <row r="228" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A228" s="17"/>
+      <c r="B228" s="17"/>
+    </row>
+    <row r="229" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A229" s="16"/>
+      <c r="B229" s="16"/>
+    </row>
+    <row r="231" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A231" s="17"/>
+      <c r="B231" s="17"/>
+    </row>
+    <row r="232" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A232" s="16"/>
+      <c r="B232" s="16"/>
+    </row>
+    <row r="234" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A234" s="17"/>
+      <c r="B234" s="17"/>
+    </row>
+    <row r="235" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A235" s="16"/>
+      <c r="B235" s="16"/>
+    </row>
+    <row r="237" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A237" s="17"/>
+      <c r="B237" s="17"/>
+    </row>
+    <row r="238" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A238" s="16"/>
+      <c r="B238" s="16"/>
+    </row>
+    <row r="240" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A240" s="17"/>
+      <c r="B240" s="17"/>
+    </row>
+    <row r="241" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A241" s="16"/>
+      <c r="B241" s="16"/>
+    </row>
+    <row r="243" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A243" s="17"/>
+      <c r="B243" s="17"/>
+    </row>
+    <row r="244" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A244" s="16"/>
+      <c r="B244" s="16"/>
+    </row>
+    <row r="246" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A246" s="17"/>
+      <c r="B246" s="17"/>
+    </row>
+    <row r="247" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A247" s="16"/>
+      <c r="B247" s="16"/>
+    </row>
+    <row r="249" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A249" s="17"/>
+      <c r="B249" s="17"/>
+    </row>
+    <row r="250" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A250" s="16"/>
+      <c r="B250" s="16"/>
+    </row>
+    <row r="252" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A252" s="17"/>
+      <c r="B252" s="17"/>
+    </row>
+    <row r="253" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A253" s="16"/>
+      <c r="B253" s="16"/>
+    </row>
+    <row r="255" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A255" s="17"/>
+      <c r="B255" s="17"/>
+    </row>
+    <row r="256" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A256" s="16"/>
+      <c r="B256" s="16"/>
+    </row>
+    <row r="258" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A258" s="17"/>
+      <c r="B258" s="17"/>
+    </row>
+    <row r="259" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A259" s="16"/>
+      <c r="B259" s="16"/>
+    </row>
+    <row r="261" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A261" s="17"/>
+      <c r="B261" s="17"/>
+    </row>
+    <row r="262" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A262" s="16"/>
+      <c r="B262" s="16"/>
+    </row>
+    <row r="264" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A264" s="17"/>
+      <c r="B264" s="17"/>
+    </row>
+    <row r="265" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A265" s="16"/>
+      <c r="B265" s="16"/>
+    </row>
+    <row r="267" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A267" s="17"/>
+      <c r="B267" s="17"/>
+    </row>
+    <row r="268" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A268" s="16"/>
+      <c r="B268" s="16"/>
+    </row>
+    <row r="270" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A270" s="17"/>
+      <c r="B270" s="17"/>
+    </row>
+    <row r="271" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A271" s="16"/>
+      <c r="B271" s="16"/>
+    </row>
+    <row r="273" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A273" s="17"/>
+      <c r="B273" s="17"/>
+    </row>
+    <row r="274" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A274" s="16"/>
+      <c r="B274" s="16"/>
+    </row>
+    <row r="276" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A276" s="17"/>
+      <c r="B276" s="17"/>
+    </row>
+    <row r="277" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A277" s="16"/>
+      <c r="B277" s="16"/>
+    </row>
+    <row r="279" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A279" s="17"/>
+      <c r="B279" s="17"/>
+    </row>
+    <row r="280" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A280" s="16"/>
+      <c r="B280" s="16"/>
+    </row>
+    <row r="282" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A282" s="17"/>
+      <c r="B282" s="17"/>
+    </row>
+    <row r="283" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A283" s="16"/>
+      <c r="B283" s="16"/>
+    </row>
+    <row r="285" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A285" s="17"/>
+      <c r="B285" s="17"/>
+    </row>
+    <row r="286" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A286" s="16"/>
+      <c r="B286" s="16"/>
+    </row>
+    <row r="288" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A288" s="17"/>
+      <c r="B288" s="17"/>
+    </row>
+    <row r="289" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A289" s="16"/>
+      <c r="B289" s="16"/>
+    </row>
+    <row r="291" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A291" s="17"/>
+      <c r="B291" s="17"/>
+    </row>
+    <row r="292" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A292" s="16"/>
+      <c r="B292" s="16"/>
+    </row>
+    <row r="294" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A294" s="17"/>
+      <c r="B294" s="17"/>
+    </row>
+    <row r="295" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A295" s="16"/>
+      <c r="B295" s="16"/>
+    </row>
+    <row r="297" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A297" s="17"/>
+      <c r="B297" s="17"/>
+    </row>
+    <row r="298" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A298" s="16"/>
+      <c r="B298" s="16"/>
+    </row>
+    <row r="300" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A300" s="17"/>
+      <c r="B300" s="17"/>
+    </row>
+    <row r="301" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A301" s="16"/>
+      <c r="B301" s="16"/>
+    </row>
+    <row r="303" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A303" s="17"/>
+      <c r="B303" s="17"/>
+    </row>
+    <row r="304" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A304" s="16"/>
+      <c r="B304" s="16"/>
+    </row>
+    <row r="306" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A306" s="17"/>
+      <c r="B306" s="17"/>
+    </row>
+    <row r="307" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A307" s="16"/>
+      <c r="B307" s="16"/>
+    </row>
+    <row r="309" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A309" s="17"/>
+      <c r="B309" s="17"/>
+    </row>
+    <row r="310" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A310" s="16"/>
+      <c r="B310" s="16"/>
+    </row>
+    <row r="312" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A312" s="17"/>
+      <c r="B312" s="17"/>
+    </row>
+    <row r="313" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A313" s="16"/>
+      <c r="B313" s="16"/>
+    </row>
+    <row r="315" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A315" s="17"/>
+      <c r="B315" s="17"/>
+    </row>
+    <row r="316" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A316" s="16"/>
+      <c r="B316" s="16"/>
+    </row>
+    <row r="318" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A318" s="17"/>
+      <c r="B318" s="17"/>
+    </row>
+    <row r="319" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A319" s="16"/>
+      <c r="B319" s="16"/>
+    </row>
+    <row r="321" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A321" s="17"/>
+      <c r="B321" s="17"/>
+    </row>
+    <row r="322" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A322" s="16"/>
+      <c r="B322" s="16"/>
+    </row>
+    <row r="324" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A324" s="17"/>
+      <c r="B324" s="17"/>
+    </row>
+    <row r="325" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A325" s="16"/>
+      <c r="B325" s="16"/>
+    </row>
+    <row r="327" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A327" s="17"/>
+      <c r="B327" s="17"/>
+    </row>
+    <row r="328" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A328" s="16"/>
+      <c r="B328" s="16"/>
+    </row>
+    <row r="330" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A330" s="17"/>
+      <c r="B330" s="17"/>
+    </row>
+    <row r="331" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A331" s="16"/>
+      <c r="B331" s="16"/>
+    </row>
+    <row r="333" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A333" s="17"/>
+      <c r="B333" s="17"/>
+    </row>
+    <row r="334" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A334" s="16"/>
+      <c r="B334" s="16"/>
+    </row>
+    <row r="336" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A336" s="17"/>
+      <c r="B336" s="17"/>
+    </row>
+    <row r="337" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A337" s="16"/>
+      <c r="B337" s="16"/>
+    </row>
+    <row r="339" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A339" s="17"/>
+      <c r="B339" s="17"/>
+    </row>
+    <row r="340" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A340" s="16"/>
+      <c r="B340" s="16"/>
+    </row>
+    <row r="342" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A342" s="17"/>
+      <c r="B342" s="17"/>
+    </row>
+    <row r="343" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A343" s="16"/>
+      <c r="B343" s="16"/>
+    </row>
+    <row r="345" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A345" s="17"/>
+      <c r="B345" s="17"/>
+    </row>
+    <row r="346" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A346" s="16"/>
+      <c r="B346" s="16"/>
+    </row>
+    <row r="348" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A348" s="17"/>
+      <c r="B348" s="17"/>
+    </row>
+    <row r="349" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A349" s="16"/>
+      <c r="B349" s="16"/>
+    </row>
+    <row r="351" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A351" s="17"/>
+      <c r="B351" s="17"/>
+    </row>
+    <row r="352" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A352" s="16"/>
+      <c r="B352" s="16"/>
+    </row>
+    <row r="354" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A354" s="17"/>
+      <c r="B354" s="17"/>
+    </row>
+    <row r="355" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A355" s="16"/>
+      <c r="B355" s="16"/>
+    </row>
+    <row r="357" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A357" s="17"/>
+      <c r="B357" s="17"/>
+    </row>
+    <row r="358" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A358" s="16"/>
+      <c r="B358" s="16"/>
+    </row>
+    <row r="360" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A360" s="17"/>
+      <c r="B360" s="17"/>
+    </row>
+    <row r="361" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A361" s="16"/>
+      <c r="B361" s="16"/>
+    </row>
+    <row r="363" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A363" s="17"/>
+      <c r="B363" s="17"/>
+    </row>
+    <row r="364" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A364" s="16"/>
+      <c r="B364" s="16"/>
+    </row>
+    <row r="366" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A366" s="17"/>
+      <c r="B366" s="17"/>
+    </row>
+    <row r="367" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A367" s="16"/>
+      <c r="B367" s="16"/>
+    </row>
+    <row r="369" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A369" s="17"/>
+      <c r="B369" s="17"/>
+    </row>
+    <row r="370" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A370" s="16"/>
+      <c r="B370" s="16"/>
+    </row>
+    <row r="372" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A372" s="17"/>
+      <c r="B372" s="17"/>
+    </row>
+    <row r="373" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A373" s="16"/>
+      <c r="B373" s="16"/>
+    </row>
+    <row r="375" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A375" s="17"/>
+      <c r="B375" s="17"/>
+    </row>
+    <row r="376" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A376" s="16"/>
+      <c r="B376" s="16"/>
+    </row>
+    <row r="378" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A378" s="17"/>
+      <c r="B378" s="17"/>
+    </row>
+    <row r="379" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A379" s="16"/>
+      <c r="B379" s="16"/>
+    </row>
+    <row r="381" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A381" s="17"/>
+      <c r="B381" s="17"/>
+    </row>
+    <row r="382" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A382" s="16"/>
+      <c r="B382" s="16"/>
+    </row>
+    <row r="384" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A384" s="17"/>
+      <c r="B384" s="17"/>
+    </row>
+    <row r="385" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A385" s="16"/>
+      <c r="B385" s="16"/>
+    </row>
+    <row r="387" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A387" s="17"/>
+      <c r="B387" s="17"/>
+    </row>
+    <row r="388" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A388" s="16"/>
+      <c r="B388" s="16"/>
+    </row>
+    <row r="390" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A390" s="17"/>
+      <c r="B390" s="17"/>
+    </row>
+    <row r="391" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A391" s="16"/>
+      <c r="B391" s="16"/>
+    </row>
+    <row r="393" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A393" s="17"/>
+      <c r="B393" s="17"/>
+    </row>
+    <row r="394" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A394" s="16"/>
+      <c r="B394" s="16"/>
+    </row>
+    <row r="396" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A396" s="17"/>
+      <c r="B396" s="17"/>
+    </row>
+    <row r="397" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A397" s="16"/>
+      <c r="B397" s="16"/>
+    </row>
+    <row r="399" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A399" s="17"/>
+      <c r="B399" s="17"/>
+    </row>
+    <row r="400" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A400" s="16"/>
+      <c r="B400" s="16"/>
+    </row>
+    <row r="402" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A402" s="17"/>
+      <c r="B402" s="17"/>
+    </row>
+    <row r="403" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A403" s="16"/>
+      <c r="B403" s="16"/>
+    </row>
+    <row r="405" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A405" s="17"/>
+      <c r="B405" s="17"/>
+    </row>
+    <row r="406" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A406" s="16"/>
+      <c r="B406" s="16"/>
+    </row>
+    <row r="408" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A408" s="17"/>
+      <c r="B408" s="17"/>
+    </row>
+    <row r="409" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A409" s="16"/>
+      <c r="B409" s="16"/>
+    </row>
+    <row r="411" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A411" s="17"/>
+      <c r="B411" s="17"/>
+    </row>
+    <row r="412" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A412" s="16"/>
+      <c r="B412" s="16"/>
+    </row>
+    <row r="414" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A414" s="17"/>
+      <c r="B414" s="17"/>
+    </row>
+    <row r="415" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A415" s="16"/>
+      <c r="B415" s="16"/>
+    </row>
+    <row r="417" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A417" s="17"/>
+      <c r="B417" s="17"/>
+    </row>
+    <row r="418" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A418" s="16"/>
+      <c r="B418" s="16"/>
+    </row>
+    <row r="420" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A420" s="17"/>
+      <c r="B420" s="17"/>
+    </row>
+    <row r="421" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A421" s="16"/>
+      <c r="B421" s="16"/>
+    </row>
+    <row r="423" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A423" s="17"/>
+      <c r="B423" s="17"/>
+    </row>
+    <row r="424" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A424" s="16"/>
+      <c r="B424" s="16"/>
+    </row>
+    <row r="426" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A426" s="17"/>
+      <c r="B426" s="17"/>
+    </row>
+    <row r="427" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A427" s="16"/>
+      <c r="B427" s="16"/>
+    </row>
+    <row r="429" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A429" s="17"/>
+      <c r="B429" s="17"/>
+    </row>
+    <row r="430" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A430" s="16"/>
+      <c r="B430" s="16"/>
+    </row>
+    <row r="432" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A432" s="17"/>
+      <c r="B432" s="17"/>
+    </row>
+    <row r="433" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A433" s="16"/>
+      <c r="B433" s="16"/>
+    </row>
+    <row r="435" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A435" s="17"/>
+      <c r="B435" s="17"/>
+    </row>
+    <row r="436" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A436" s="16"/>
+      <c r="B436" s="16"/>
+    </row>
+    <row r="438" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A438" s="17"/>
+      <c r="B438" s="17"/>
+    </row>
+    <row r="439" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A439" s="16"/>
+      <c r="B439" s="16"/>
+    </row>
+    <row r="441" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A441" s="17"/>
+      <c r="B441" s="17"/>
+    </row>
+    <row r="442" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A442" s="16"/>
+      <c r="B442" s="16"/>
+    </row>
+    <row r="444" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A444" s="17"/>
+      <c r="B444" s="17"/>
+    </row>
+    <row r="445" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A445" s="16"/>
+      <c r="B445" s="16"/>
+    </row>
+    <row r="447" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A447" s="17"/>
+      <c r="B447" s="17"/>
+    </row>
+    <row r="448" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A448" s="16"/>
+      <c r="B448" s="16"/>
+    </row>
+    <row r="450" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A450" s="17"/>
+      <c r="B450" s="17"/>
+    </row>
+    <row r="451" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A451" s="16"/>
+      <c r="B451" s="16"/>
+    </row>
+    <row r="453" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A453" s="17"/>
+      <c r="B453" s="17"/>
+    </row>
+    <row r="454" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A454" s="16"/>
+      <c r="B454" s="16"/>
+    </row>
+    <row r="456" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A456" s="17"/>
+      <c r="B456" s="17"/>
+    </row>
+    <row r="457" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A457" s="16"/>
+      <c r="B457" s="16"/>
+    </row>
+    <row r="459" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A459" s="17"/>
+      <c r="B459" s="17"/>
+    </row>
+    <row r="460" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A460" s="16"/>
+      <c r="B460" s="16"/>
+    </row>
+    <row r="462" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A462" s="17"/>
+      <c r="B462" s="17"/>
+    </row>
+    <row r="463" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A463" s="16"/>
+      <c r="B463" s="16"/>
+    </row>
+    <row r="465" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A465" s="17"/>
+      <c r="B465" s="17"/>
+    </row>
+    <row r="466" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A466" s="16"/>
+      <c r="B466" s="16"/>
+    </row>
+    <row r="468" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A468" s="17"/>
+      <c r="B468" s="17"/>
+    </row>
+    <row r="469" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A469" s="16"/>
+      <c r="B469" s="16"/>
+    </row>
+    <row r="471" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A471" s="17"/>
+      <c r="B471" s="17"/>
+    </row>
+    <row r="472" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A472" s="16"/>
+      <c r="B472" s="16"/>
+    </row>
+    <row r="474" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A474" s="17"/>
+      <c r="B474" s="17"/>
+    </row>
+    <row r="475" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A475" s="16"/>
+      <c r="B475" s="16"/>
+    </row>
+    <row r="477" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A477" s="17"/>
+      <c r="B477" s="17"/>
+    </row>
+    <row r="478" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A478" s="16"/>
+      <c r="B478" s="16"/>
+    </row>
+    <row r="480" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A480" s="17"/>
+      <c r="B480" s="17"/>
+    </row>
+    <row r="481" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A481" s="16"/>
+      <c r="B481" s="16"/>
+    </row>
+    <row r="483" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A483" s="17"/>
+      <c r="B483" s="17"/>
+    </row>
+    <row r="484" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A484" s="16"/>
+      <c r="B484" s="16"/>
+    </row>
+    <row r="486" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A486" s="17"/>
+      <c r="B486" s="17"/>
+    </row>
+    <row r="487" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A487" s="16"/>
+      <c r="B487" s="16"/>
+    </row>
+    <row r="489" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A489" s="17"/>
+      <c r="B489" s="17"/>
+    </row>
+    <row r="490" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A490" s="16"/>
+      <c r="B490" s="16"/>
+    </row>
+    <row r="492" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A492" s="17"/>
+      <c r="B492" s="17"/>
+    </row>
+    <row r="493" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A493" s="16"/>
+      <c r="B493" s="16"/>
+    </row>
+    <row r="495" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A495" s="17"/>
+      <c r="B495" s="17"/>
+    </row>
+    <row r="496" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A496" s="16"/>
+      <c r="B496" s="16"/>
+    </row>
+    <row r="498" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A498" s="17"/>
+      <c r="B498" s="17"/>
+    </row>
+    <row r="499" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A499" s="16"/>
+      <c r="B499" s="16"/>
+    </row>
+    <row r="501" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A501" s="17"/>
+      <c r="B501" s="17"/>
+    </row>
+    <row r="502" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A502" s="16"/>
+      <c r="B502" s="16"/>
     </row>
   </sheetData>
-  <mergeCells count="167">
-    <mergeCell ref="A488:B488"/>
-    <mergeCell ref="A491:B491"/>
-    <mergeCell ref="A494:B494"/>
-    <mergeCell ref="A497:B497"/>
-    <mergeCell ref="A500:B500"/>
-    <mergeCell ref="A470:B470"/>
-    <mergeCell ref="A473:B473"/>
-    <mergeCell ref="A476:B476"/>
-    <mergeCell ref="A479:B479"/>
-    <mergeCell ref="A482:B482"/>
-    <mergeCell ref="A485:B485"/>
-    <mergeCell ref="A452:B452"/>
-    <mergeCell ref="A455:B455"/>
-    <mergeCell ref="A458:B458"/>
-    <mergeCell ref="A461:B461"/>
-    <mergeCell ref="A464:B464"/>
-    <mergeCell ref="A467:B467"/>
-    <mergeCell ref="A434:B434"/>
-    <mergeCell ref="A437:B437"/>
-    <mergeCell ref="A440:B440"/>
-    <mergeCell ref="A443:B443"/>
-    <mergeCell ref="A446:B446"/>
-    <mergeCell ref="A449:B449"/>
-    <mergeCell ref="A416:B416"/>
-    <mergeCell ref="A419:B419"/>
-    <mergeCell ref="A422:B422"/>
-    <mergeCell ref="A425:B425"/>
-    <mergeCell ref="A428:B428"/>
-    <mergeCell ref="A431:B431"/>
-    <mergeCell ref="A398:B398"/>
-    <mergeCell ref="A401:B401"/>
-    <mergeCell ref="A404:B404"/>
-    <mergeCell ref="A407:B407"/>
-    <mergeCell ref="A410:B410"/>
-    <mergeCell ref="A413:B413"/>
-    <mergeCell ref="A380:B380"/>
-    <mergeCell ref="A383:B383"/>
-    <mergeCell ref="A386:B386"/>
-    <mergeCell ref="A389:B389"/>
-    <mergeCell ref="A392:B392"/>
-    <mergeCell ref="A395:B395"/>
-    <mergeCell ref="A362:B362"/>
-    <mergeCell ref="A365:B365"/>
-    <mergeCell ref="A368:B368"/>
-    <mergeCell ref="A371:B371"/>
-    <mergeCell ref="A374:B374"/>
-    <mergeCell ref="A377:B377"/>
-    <mergeCell ref="A344:B344"/>
-    <mergeCell ref="A347:B347"/>
-    <mergeCell ref="A350:B350"/>
-    <mergeCell ref="A353:B353"/>
-    <mergeCell ref="A356:B356"/>
-    <mergeCell ref="A359:B359"/>
-    <mergeCell ref="A326:B326"/>
-    <mergeCell ref="A329:B329"/>
-    <mergeCell ref="A332:B332"/>
-    <mergeCell ref="A335:B335"/>
-    <mergeCell ref="A338:B338"/>
-    <mergeCell ref="A341:B341"/>
-    <mergeCell ref="A308:B308"/>
-    <mergeCell ref="A311:B311"/>
-    <mergeCell ref="A314:B314"/>
-    <mergeCell ref="A317:B317"/>
-    <mergeCell ref="A320:B320"/>
-    <mergeCell ref="A323:B323"/>
-    <mergeCell ref="A290:B290"/>
-    <mergeCell ref="A293:B293"/>
-    <mergeCell ref="A296:B296"/>
-    <mergeCell ref="A299:B299"/>
-    <mergeCell ref="A302:B302"/>
-    <mergeCell ref="A305:B305"/>
-    <mergeCell ref="A272:B272"/>
-    <mergeCell ref="A275:B275"/>
-    <mergeCell ref="A278:B278"/>
-    <mergeCell ref="A281:B281"/>
-    <mergeCell ref="A284:B284"/>
-    <mergeCell ref="A287:B287"/>
-    <mergeCell ref="A254:B254"/>
-    <mergeCell ref="A257:B257"/>
-    <mergeCell ref="A260:B260"/>
-    <mergeCell ref="A263:B263"/>
-    <mergeCell ref="A266:B266"/>
-    <mergeCell ref="A269:B269"/>
-    <mergeCell ref="A236:B236"/>
-    <mergeCell ref="A239:B239"/>
-    <mergeCell ref="A242:B242"/>
-    <mergeCell ref="A245:B245"/>
-    <mergeCell ref="A248:B248"/>
-    <mergeCell ref="A251:B251"/>
-    <mergeCell ref="A218:B218"/>
-    <mergeCell ref="A221:B221"/>
-    <mergeCell ref="A224:B224"/>
-    <mergeCell ref="A227:B227"/>
-    <mergeCell ref="A230:B230"/>
-    <mergeCell ref="A233:B233"/>
-    <mergeCell ref="A200:B200"/>
-    <mergeCell ref="A203:B203"/>
-    <mergeCell ref="A206:B206"/>
-    <mergeCell ref="A209:B209"/>
-    <mergeCell ref="A212:B212"/>
-    <mergeCell ref="A215:B215"/>
-    <mergeCell ref="A182:B182"/>
-    <mergeCell ref="A185:B185"/>
-    <mergeCell ref="A188:B188"/>
-    <mergeCell ref="A191:B191"/>
-    <mergeCell ref="A194:B194"/>
-    <mergeCell ref="A197:B197"/>
-    <mergeCell ref="A164:B164"/>
-    <mergeCell ref="A167:B167"/>
-    <mergeCell ref="A170:B170"/>
-    <mergeCell ref="A173:B173"/>
-    <mergeCell ref="A176:B176"/>
-    <mergeCell ref="A179:B179"/>
-    <mergeCell ref="A146:B146"/>
-    <mergeCell ref="A149:B149"/>
-    <mergeCell ref="A152:B152"/>
-    <mergeCell ref="A155:B155"/>
-    <mergeCell ref="A158:B158"/>
-    <mergeCell ref="A161:B161"/>
-    <mergeCell ref="A128:B128"/>
-    <mergeCell ref="A131:B131"/>
-    <mergeCell ref="A134:B134"/>
-    <mergeCell ref="A137:B137"/>
-    <mergeCell ref="A140:B140"/>
-    <mergeCell ref="A143:B143"/>
-    <mergeCell ref="A110:B110"/>
-    <mergeCell ref="A113:B113"/>
-    <mergeCell ref="A116:B116"/>
-    <mergeCell ref="A119:B119"/>
-    <mergeCell ref="A122:B122"/>
-    <mergeCell ref="A125:B125"/>
-    <mergeCell ref="A92:B92"/>
-    <mergeCell ref="A95:B95"/>
-    <mergeCell ref="A98:B98"/>
-    <mergeCell ref="A101:B101"/>
-    <mergeCell ref="A104:B104"/>
-    <mergeCell ref="A107:B107"/>
+  <mergeCells count="166">
+    <mergeCell ref="A489:B489"/>
+    <mergeCell ref="A492:B492"/>
+    <mergeCell ref="A495:B495"/>
+    <mergeCell ref="A498:B498"/>
+    <mergeCell ref="A501:B501"/>
+    <mergeCell ref="A471:B471"/>
+    <mergeCell ref="A474:B474"/>
+    <mergeCell ref="A477:B477"/>
+    <mergeCell ref="A480:B480"/>
+    <mergeCell ref="A483:B483"/>
+    <mergeCell ref="A486:B486"/>
+    <mergeCell ref="A453:B453"/>
+    <mergeCell ref="A456:B456"/>
+    <mergeCell ref="A459:B459"/>
+    <mergeCell ref="A462:B462"/>
+    <mergeCell ref="A465:B465"/>
+    <mergeCell ref="A468:B468"/>
+    <mergeCell ref="A435:B435"/>
+    <mergeCell ref="A438:B438"/>
+    <mergeCell ref="A441:B441"/>
+    <mergeCell ref="A444:B444"/>
+    <mergeCell ref="A447:B447"/>
+    <mergeCell ref="A450:B450"/>
+    <mergeCell ref="A417:B417"/>
+    <mergeCell ref="A420:B420"/>
+    <mergeCell ref="A423:B423"/>
+    <mergeCell ref="A426:B426"/>
+    <mergeCell ref="A429:B429"/>
+    <mergeCell ref="A432:B432"/>
+    <mergeCell ref="A399:B399"/>
+    <mergeCell ref="A402:B402"/>
+    <mergeCell ref="A405:B405"/>
+    <mergeCell ref="A408:B408"/>
+    <mergeCell ref="A411:B411"/>
+    <mergeCell ref="A414:B414"/>
+    <mergeCell ref="A381:B381"/>
+    <mergeCell ref="A384:B384"/>
+    <mergeCell ref="A387:B387"/>
+    <mergeCell ref="A390:B390"/>
+    <mergeCell ref="A393:B393"/>
+    <mergeCell ref="A396:B396"/>
+    <mergeCell ref="A363:B363"/>
+    <mergeCell ref="A366:B366"/>
+    <mergeCell ref="A369:B369"/>
+    <mergeCell ref="A372:B372"/>
+    <mergeCell ref="A375:B375"/>
+    <mergeCell ref="A378:B378"/>
+    <mergeCell ref="A345:B345"/>
+    <mergeCell ref="A348:B348"/>
+    <mergeCell ref="A351:B351"/>
+    <mergeCell ref="A354:B354"/>
+    <mergeCell ref="A357:B357"/>
+    <mergeCell ref="A360:B360"/>
+    <mergeCell ref="A327:B327"/>
+    <mergeCell ref="A330:B330"/>
+    <mergeCell ref="A333:B333"/>
+    <mergeCell ref="A336:B336"/>
+    <mergeCell ref="A339:B339"/>
+    <mergeCell ref="A342:B342"/>
+    <mergeCell ref="A309:B309"/>
+    <mergeCell ref="A312:B312"/>
+    <mergeCell ref="A315:B315"/>
+    <mergeCell ref="A318:B318"/>
+    <mergeCell ref="A321:B321"/>
+    <mergeCell ref="A324:B324"/>
+    <mergeCell ref="A291:B291"/>
+    <mergeCell ref="A294:B294"/>
+    <mergeCell ref="A297:B297"/>
+    <mergeCell ref="A300:B300"/>
+    <mergeCell ref="A303:B303"/>
+    <mergeCell ref="A306:B306"/>
+    <mergeCell ref="A273:B273"/>
+    <mergeCell ref="A276:B276"/>
+    <mergeCell ref="A279:B279"/>
+    <mergeCell ref="A282:B282"/>
+    <mergeCell ref="A285:B285"/>
+    <mergeCell ref="A288:B288"/>
+    <mergeCell ref="A255:B255"/>
+    <mergeCell ref="A258:B258"/>
+    <mergeCell ref="A261:B261"/>
+    <mergeCell ref="A264:B264"/>
+    <mergeCell ref="A267:B267"/>
+    <mergeCell ref="A270:B270"/>
+    <mergeCell ref="A237:B237"/>
+    <mergeCell ref="A240:B240"/>
+    <mergeCell ref="A243:B243"/>
+    <mergeCell ref="A246:B246"/>
+    <mergeCell ref="A249:B249"/>
+    <mergeCell ref="A252:B252"/>
+    <mergeCell ref="A219:B219"/>
+    <mergeCell ref="A222:B222"/>
+    <mergeCell ref="A225:B225"/>
+    <mergeCell ref="A228:B228"/>
+    <mergeCell ref="A231:B231"/>
+    <mergeCell ref="A234:B234"/>
+    <mergeCell ref="A201:B201"/>
+    <mergeCell ref="A204:B204"/>
+    <mergeCell ref="A207:B207"/>
+    <mergeCell ref="A210:B210"/>
+    <mergeCell ref="A213:B213"/>
+    <mergeCell ref="A216:B216"/>
+    <mergeCell ref="A183:B183"/>
+    <mergeCell ref="A186:B186"/>
+    <mergeCell ref="A189:B189"/>
+    <mergeCell ref="A192:B192"/>
+    <mergeCell ref="A195:B195"/>
+    <mergeCell ref="A198:B198"/>
+    <mergeCell ref="A165:B165"/>
+    <mergeCell ref="A168:B168"/>
+    <mergeCell ref="A171:B171"/>
+    <mergeCell ref="A174:B174"/>
+    <mergeCell ref="A177:B177"/>
+    <mergeCell ref="A180:B180"/>
+    <mergeCell ref="A147:B147"/>
+    <mergeCell ref="A150:B150"/>
+    <mergeCell ref="A153:B153"/>
+    <mergeCell ref="A156:B156"/>
+    <mergeCell ref="A159:B159"/>
+    <mergeCell ref="A162:B162"/>
+    <mergeCell ref="A129:B129"/>
+    <mergeCell ref="A132:B132"/>
+    <mergeCell ref="A135:B135"/>
+    <mergeCell ref="A138:B138"/>
+    <mergeCell ref="A141:B141"/>
+    <mergeCell ref="A144:B144"/>
+    <mergeCell ref="A111:B111"/>
+    <mergeCell ref="A114:B114"/>
+    <mergeCell ref="A117:B117"/>
+    <mergeCell ref="A120:B120"/>
+    <mergeCell ref="A123:B123"/>
+    <mergeCell ref="A126:B126"/>
+    <mergeCell ref="A93:B93"/>
+    <mergeCell ref="A96:B96"/>
+    <mergeCell ref="A99:B99"/>
+    <mergeCell ref="A102:B102"/>
+    <mergeCell ref="A105:B105"/>
+    <mergeCell ref="A108:B108"/>
     <mergeCell ref="A74:B74"/>
-    <mergeCell ref="A77:B77"/>
-    <mergeCell ref="A80:B80"/>
-    <mergeCell ref="A83:B83"/>
-    <mergeCell ref="A86:B86"/>
-    <mergeCell ref="A89:B89"/>
+    <mergeCell ref="A81:B81"/>
+    <mergeCell ref="A84:B84"/>
+    <mergeCell ref="A87:B87"/>
+    <mergeCell ref="A90:B90"/>
     <mergeCell ref="A56:B56"/>
     <mergeCell ref="A59:B59"/>
     <mergeCell ref="A62:B62"/>

--- a/Autodidacte/商务英语/高级英语.xlsx
+++ b/Autodidacte/商务英语/高级英语.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="645" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="645"/>
   </bookViews>
   <sheets>
     <sheet name="重点单词" sheetId="12" r:id="rId1"/>
@@ -9777,15 +9777,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>vi. If someone whimpers, they make quiet unhappy or frightened sounds, as if they are about to start crying. 抽泣; 呜咽
-•  She lay at the bottom of the stairs, whimpering in pain. 
- 她躺在楼梯的下面，痛苦地抽泣。
-noun Whimper is also a noun. 抽泣; 呜咽
-•  David's crying subsided to a whimper. 
- 戴维的大声哭叫减弱为抽泣。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>I dropped below zero last night.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -10768,34 +10759,6 @@
     <t>[ UC ] worry or fear that sth unpleasant may happen SYN anxiety 忧虑；担心；疑惧；恐惧
 • There is growing apprehension that fighting will begin again. 人们愈来愈担心会重开战火。
 • He watched the election results with some apprehension . 他不无忧虑地观察选举结果。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>august /ɔ</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="2"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ː</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>ˈɡʌst/</t>
-    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -14754,6 +14717,43 @@
   <si>
     <t>It's up to you to get the work done.
 应由你做完那事儿。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>vi. If someone whimpers, they make quiet unhappy or frightened sounds, as if they are about to start crying. 抽泣; 呜咽[wū yè] 
+•  She lay at the bottom of the stairs, whimpering in pain. 
+ 她躺在楼梯的下面，痛苦地抽泣。
+noun Whimper is also a noun. 抽泣; 呜咽
+•  David's crying subsided to a whimper. 
+ 戴维的大声哭叫减弱为抽泣。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>august /ɔ</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="2"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ː</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="14"/>
+        <color theme="1"/>
+        <rFont val="宋体"/>
+        <family val="3"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>ˈɡʌst/</t>
+    </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -15581,9 +15581,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B356"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A204" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A357" sqref="A357"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A126" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B134" sqref="B134"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.25"/>
@@ -15643,10 +15643,10 @@
     </row>
     <row r="7" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
+        <v>586</v>
+      </c>
+      <c r="B7" s="12" t="s">
         <v>587</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>588</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -15659,7 +15659,7 @@
     </row>
     <row r="9" spans="1:2" ht="64.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B9" s="12" t="s">
         <v>537</v>
@@ -15694,591 +15694,591 @@
         <v>544</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>545</v>
+        <v>1113</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="40.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
+        <v>545</v>
+      </c>
+      <c r="B14" s="12" t="s">
         <v>546</v>
-      </c>
-      <c r="B14" s="12" t="s">
-        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
+        <v>548</v>
+      </c>
+      <c r="B15" s="12" t="s">
         <v>549</v>
-      </c>
-      <c r="B15" s="12" t="s">
-        <v>550</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="7" t="s">
+        <v>550</v>
+      </c>
+      <c r="B16" s="12" t="s">
         <v>551</v>
-      </c>
-      <c r="B16" s="12" t="s">
-        <v>552</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
+        <v>552</v>
+      </c>
+      <c r="B17" s="12" t="s">
         <v>553</v>
-      </c>
-      <c r="B17" s="12" t="s">
-        <v>554</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
+        <v>554</v>
+      </c>
+      <c r="B18" s="12" t="s">
         <v>555</v>
-      </c>
-      <c r="B18" s="12" t="s">
-        <v>556</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
+        <v>556</v>
+      </c>
+      <c r="B19" s="12" t="s">
         <v>557</v>
-      </c>
-      <c r="B19" s="12" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
+        <v>558</v>
+      </c>
+      <c r="B20" s="12" t="s">
         <v>559</v>
-      </c>
-      <c r="B20" s="12" t="s">
-        <v>560</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
+        <v>560</v>
+      </c>
+      <c r="B21" s="12" t="s">
         <v>561</v>
-      </c>
-      <c r="B21" s="12" t="s">
-        <v>562</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
+        <v>562</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>563</v>
-      </c>
-      <c r="B22" s="12" t="s">
-        <v>564</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="67.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
+        <v>564</v>
+      </c>
+      <c r="B23" s="12" t="s">
         <v>565</v>
-      </c>
-      <c r="B23" s="12" t="s">
-        <v>566</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="150" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
+        <v>566</v>
+      </c>
+      <c r="B24" s="12" t="s">
         <v>567</v>
-      </c>
-      <c r="B24" s="12" t="s">
-        <v>568</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="161.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
+        <v>568</v>
+      </c>
+      <c r="B25" s="12" t="s">
         <v>569</v>
-      </c>
-      <c r="B25" s="12" t="s">
-        <v>570</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="42.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
+        <v>656</v>
+      </c>
+      <c r="B26" s="12" t="s">
         <v>657</v>
-      </c>
-      <c r="B26" s="12" t="s">
-        <v>658</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
+        <v>570</v>
+      </c>
+      <c r="B27" s="12" t="s">
         <v>571</v>
-      </c>
-      <c r="B27" s="12" t="s">
-        <v>572</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="52.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
+        <v>572</v>
+      </c>
+      <c r="B28" s="12" t="s">
         <v>573</v>
-      </c>
-      <c r="B28" s="12" t="s">
-        <v>574</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="49.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
+        <v>574</v>
+      </c>
+      <c r="B29" s="12" t="s">
         <v>575</v>
-      </c>
-      <c r="B29" s="12" t="s">
-        <v>576</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="61.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
+        <v>576</v>
+      </c>
+      <c r="B30" s="12" t="s">
         <v>577</v>
-      </c>
-      <c r="B30" s="12" t="s">
-        <v>578</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="33.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="7" t="s">
+        <v>578</v>
+      </c>
+      <c r="B31" s="12" t="s">
         <v>579</v>
-      </c>
-      <c r="B31" s="12" t="s">
-        <v>580</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="7" t="s">
+        <v>580</v>
+      </c>
+      <c r="B32" s="12" t="s">
         <v>581</v>
-      </c>
-      <c r="B32" s="12" t="s">
-        <v>582</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="55.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="7" t="s">
+        <v>582</v>
+      </c>
+      <c r="B33" s="12" t="s">
         <v>583</v>
-      </c>
-      <c r="B33" s="12" t="s">
-        <v>584</v>
       </c>
     </row>
     <row r="34" spans="1:2" ht="67.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="7" t="s">
+        <v>584</v>
+      </c>
+      <c r="B34" s="12" t="s">
         <v>585</v>
-      </c>
-      <c r="B34" s="12" t="s">
-        <v>586</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="7" t="s">
+        <v>588</v>
+      </c>
+      <c r="B35" s="12" t="s">
         <v>589</v>
-      </c>
-      <c r="B35" s="12" t="s">
-        <v>590</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="151.19999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="7" t="s">
+        <v>590</v>
+      </c>
+      <c r="B36" s="12" t="s">
         <v>591</v>
-      </c>
-      <c r="B36" s="12" t="s">
-        <v>592</v>
       </c>
     </row>
     <row r="37" spans="1:2" ht="181.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="7" t="s">
+        <v>592</v>
+      </c>
+      <c r="B37" s="12" t="s">
         <v>593</v>
-      </c>
-      <c r="B37" s="12" t="s">
-        <v>594</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="54.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="7" t="s">
+        <v>594</v>
+      </c>
+      <c r="B38" s="12" t="s">
         <v>595</v>
-      </c>
-      <c r="B38" s="12" t="s">
-        <v>596</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="110.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="7" t="s">
+        <v>596</v>
+      </c>
+      <c r="B39" s="12" t="s">
         <v>597</v>
-      </c>
-      <c r="B39" s="12" t="s">
-        <v>598</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="36.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="7" t="s">
+        <v>598</v>
+      </c>
+      <c r="B40" s="12" t="s">
         <v>599</v>
-      </c>
-      <c r="B40" s="12" t="s">
-        <v>600</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="24.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="7" t="s">
+        <v>600</v>
+      </c>
+      <c r="B41" s="12" t="s">
         <v>601</v>
-      </c>
-      <c r="B41" s="12" t="s">
-        <v>602</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="92.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="7" t="s">
+        <v>602</v>
+      </c>
+      <c r="B42" s="12" t="s">
         <v>603</v>
-      </c>
-      <c r="B42" s="12" t="s">
-        <v>604</v>
       </c>
     </row>
     <row r="43" spans="1:2" ht="101.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="7" t="s">
+        <v>604</v>
+      </c>
+      <c r="B43" s="12" t="s">
         <v>605</v>
-      </c>
-      <c r="B43" s="12" t="s">
-        <v>606</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="53.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="7" t="s">
+        <v>606</v>
+      </c>
+      <c r="B44" s="12" t="s">
         <v>607</v>
-      </c>
-      <c r="B44" s="12" t="s">
-        <v>608</v>
       </c>
     </row>
     <row r="45" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A45" s="7" t="s">
+        <v>608</v>
+      </c>
+      <c r="B45" s="12" t="s">
         <v>609</v>
-      </c>
-      <c r="B45" s="12" t="s">
-        <v>610</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="7" t="s">
+        <v>610</v>
+      </c>
+      <c r="B46" s="12" t="s">
         <v>611</v>
-      </c>
-      <c r="B46" s="12" t="s">
-        <v>612</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A47" s="7" t="s">
+        <v>612</v>
+      </c>
+      <c r="B47" s="12" t="s">
         <v>613</v>
-      </c>
-      <c r="B47" s="12" t="s">
-        <v>614</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="7" t="s">
+        <v>614</v>
+      </c>
+      <c r="B48" s="12" t="s">
         <v>615</v>
-      </c>
-      <c r="B48" s="12" t="s">
-        <v>616</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="7" t="s">
+        <v>616</v>
+      </c>
+      <c r="B49" s="12" t="s">
         <v>617</v>
-      </c>
-      <c r="B49" s="12" t="s">
-        <v>618</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A50" s="7" t="s">
+        <v>618</v>
+      </c>
+      <c r="B50" s="12" t="s">
         <v>619</v>
-      </c>
-      <c r="B50" s="12" t="s">
-        <v>620</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="7" t="s">
+        <v>620</v>
+      </c>
+      <c r="B51" s="12" t="s">
         <v>621</v>
-      </c>
-      <c r="B51" s="12" t="s">
-        <v>622</v>
       </c>
     </row>
     <row r="52" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A52" s="7" t="s">
+        <v>622</v>
+      </c>
+      <c r="B52" s="12" t="s">
         <v>623</v>
-      </c>
-      <c r="B52" s="12" t="s">
-        <v>624</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A53" s="7" t="s">
+        <v>624</v>
+      </c>
+      <c r="B53" s="12" t="s">
         <v>625</v>
-      </c>
-      <c r="B53" s="12" t="s">
-        <v>626</v>
       </c>
     </row>
     <row r="54" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A54" s="7" t="s">
+        <v>626</v>
+      </c>
+      <c r="B54" s="12" t="s">
         <v>627</v>
-      </c>
-      <c r="B54" s="12" t="s">
-        <v>628</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A55" s="7" t="s">
+        <v>628</v>
+      </c>
+      <c r="B55" s="12" t="s">
         <v>629</v>
-      </c>
-      <c r="B55" s="12" t="s">
-        <v>630</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A56" s="7" t="s">
+        <v>630</v>
+      </c>
+      <c r="B56" s="12" t="s">
         <v>631</v>
-      </c>
-      <c r="B56" s="12" t="s">
-        <v>632</v>
       </c>
     </row>
     <row r="57" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A57" s="7" t="s">
+        <v>632</v>
+      </c>
+      <c r="B57" s="12" t="s">
         <v>633</v>
-      </c>
-      <c r="B57" s="12" t="s">
-        <v>634</v>
       </c>
     </row>
     <row r="58" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A58" s="7" t="s">
+        <v>634</v>
+      </c>
+      <c r="B58" s="12" t="s">
         <v>635</v>
-      </c>
-      <c r="B58" s="12" t="s">
-        <v>636</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A59" s="7" t="s">
+        <v>636</v>
+      </c>
+      <c r="B59" s="12" t="s">
         <v>637</v>
-      </c>
-      <c r="B59" s="12" t="s">
-        <v>638</v>
       </c>
     </row>
     <row r="60" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A60" s="7" t="s">
+        <v>638</v>
+      </c>
+      <c r="B60" s="12" t="s">
         <v>639</v>
-      </c>
-      <c r="B60" s="12" t="s">
-        <v>640</v>
       </c>
     </row>
     <row r="61" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A61" s="7" t="s">
+        <v>640</v>
+      </c>
+      <c r="B61" s="12" t="s">
         <v>641</v>
-      </c>
-      <c r="B61" s="12" t="s">
-        <v>642</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A62" s="7" t="s">
+        <v>642</v>
+      </c>
+      <c r="B62" s="12" t="s">
         <v>643</v>
-      </c>
-      <c r="B62" s="12" t="s">
-        <v>644</v>
       </c>
     </row>
     <row r="63" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A63" s="7" t="s">
+        <v>644</v>
+      </c>
+      <c r="B63" s="12" t="s">
         <v>645</v>
-      </c>
-      <c r="B63" s="12" t="s">
-        <v>646</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="7" t="s">
+        <v>646</v>
+      </c>
+      <c r="B64" s="12" t="s">
         <v>647</v>
-      </c>
-      <c r="B64" s="12" t="s">
-        <v>648</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A65" s="7" t="s">
+        <v>648</v>
+      </c>
+      <c r="B65" s="12" t="s">
         <v>649</v>
-      </c>
-      <c r="B65" s="12" t="s">
-        <v>650</v>
       </c>
     </row>
     <row r="66" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A66" s="7" t="s">
+        <v>650</v>
+      </c>
+      <c r="B66" s="12" t="s">
         <v>651</v>
-      </c>
-      <c r="B66" s="12" t="s">
-        <v>652</v>
       </c>
     </row>
     <row r="67" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A67" s="7" t="s">
+        <v>652</v>
+      </c>
+      <c r="B67" s="12" t="s">
         <v>653</v>
-      </c>
-      <c r="B67" s="12" t="s">
-        <v>654</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A68" s="7" t="s">
+        <v>654</v>
+      </c>
+      <c r="B68" s="12" t="s">
         <v>655</v>
-      </c>
-      <c r="B68" s="12" t="s">
-        <v>656</v>
       </c>
     </row>
     <row r="69" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A69" s="7" t="s">
+        <v>658</v>
+      </c>
+      <c r="B69" s="12" t="s">
         <v>659</v>
-      </c>
-      <c r="B69" s="12" t="s">
-        <v>660</v>
       </c>
     </row>
     <row r="70" spans="1:2" ht="34.799999999999997" x14ac:dyDescent="0.25">
       <c r="A70" s="7" t="s">
+        <v>660</v>
+      </c>
+      <c r="B70" s="12" t="s">
         <v>661</v>
-      </c>
-      <c r="B70" s="12" t="s">
-        <v>662</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A71" s="7" t="s">
+        <v>662</v>
+      </c>
+      <c r="B71" s="12" t="s">
         <v>663</v>
-      </c>
-      <c r="B71" s="12" t="s">
-        <v>664</v>
       </c>
     </row>
     <row r="72" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A72" s="7" t="s">
+        <v>664</v>
+      </c>
+      <c r="B72" s="12" t="s">
         <v>665</v>
-      </c>
-      <c r="B72" s="12" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="73" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A73" s="7" t="s">
+        <v>666</v>
+      </c>
+      <c r="B73" s="12" t="s">
         <v>667</v>
-      </c>
-      <c r="B73" s="12" t="s">
-        <v>668</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A74" s="7" t="s">
+        <v>668</v>
+      </c>
+      <c r="B74" s="12" t="s">
         <v>669</v>
-      </c>
-      <c r="B74" s="12" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="75" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A75" s="7" t="s">
-        <v>671</v>
+        <v>1114</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
     </row>
     <row r="76" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A76" s="7" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A77" s="7" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A78" s="7" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A79" s="7" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
     </row>
     <row r="80" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A80" s="7" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="156" x14ac:dyDescent="0.25">
       <c r="A81" s="7" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
     </row>
     <row r="82" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A82" s="7" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
     </row>
     <row r="83" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A83" s="7" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="7" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
     </row>
     <row r="85" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A85" s="7" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A86" s="7" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16287,10 +16287,10 @@
     <row r="90" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="91" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A91" s="7" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
     </row>
     <row r="92" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16298,18 +16298,18 @@
     <row r="94" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="95" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A95" s="7" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A96" s="7" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
     </row>
     <row r="97" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16319,10 +16319,10 @@
     <row r="101" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="102" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A102" s="7" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
     </row>
     <row r="103" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16332,10 +16332,10 @@
     <row r="107" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="108" spans="1:2" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A108" s="7" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
     </row>
     <row r="109" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16346,10 +16346,10 @@
     <row r="114" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="115" spans="1:2" ht="265.2" x14ac:dyDescent="0.25">
       <c r="A115" s="7" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
     </row>
     <row r="116" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16365,18 +16365,18 @@
     <row r="126" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="127" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A127" s="7" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
     </row>
     <row r="128" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A128" s="7" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
     </row>
     <row r="129" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16386,82 +16386,82 @@
     <row r="133" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="134" spans="1:2" ht="187.2" x14ac:dyDescent="0.25">
       <c r="A134" s="7" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
     </row>
     <row r="135" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A135" s="7" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="7" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
     </row>
     <row r="137" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A137" s="7" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
     </row>
     <row r="138" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A138" s="7" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
     </row>
     <row r="139" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A139" s="7" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
     </row>
     <row r="140" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A140" s="7" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
     </row>
     <row r="141" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A141" s="7" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A142" s="7" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
     </row>
     <row r="143" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A143" s="7" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
     </row>
     <row r="144" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16471,149 +16471,149 @@
     <row r="148" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="149" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A149" s="7" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
     </row>
     <row r="150" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A150" s="7" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
     </row>
     <row r="151" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A151" s="7" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
     </row>
     <row r="152" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A152" s="7" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
     </row>
     <row r="153" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A153" s="7" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
     </row>
     <row r="154" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A154" s="7" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
     </row>
     <row r="155" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A155" s="7" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A156" s="7" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="157" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A157" s="7" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="7" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
     </row>
     <row r="159" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A159" s="7" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
     </row>
     <row r="160" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A160" s="7" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
     </row>
     <row r="161" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A161" s="7" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
     </row>
     <row r="162" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A162" s="7" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
     </row>
     <row r="163" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A163" s="7" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A164" s="7" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
     </row>
     <row r="165" spans="1:2" ht="7.2" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="166" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A166" s="7" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="168" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="169" spans="1:2" ht="156" x14ac:dyDescent="0.25">
       <c r="A169" s="7" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
     </row>
     <row r="170" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16621,10 +16621,10 @@
     <row r="172" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="173" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A173" s="7" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
     </row>
     <row r="174" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16632,26 +16632,26 @@
     <row r="176" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="177" spans="1:2" ht="156" x14ac:dyDescent="0.25">
       <c r="A177" s="7" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
     </row>
     <row r="178" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A178" s="7" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
     </row>
     <row r="179" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A179" s="7" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
     </row>
     <row r="180" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16659,42 +16659,42 @@
     <row r="182" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="183" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A183" s="7" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
     </row>
     <row r="184" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A184" s="7" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
     </row>
     <row r="185" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A185" s="7" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
     </row>
     <row r="186" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A186" s="7" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
     </row>
     <row r="187" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A187" s="7" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
     </row>
     <row r="188" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16702,10 +16702,10 @@
     <row r="190" spans="1:2" ht="5.4" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="191" spans="1:2" ht="249.6" x14ac:dyDescent="0.25">
       <c r="A191" s="7" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16713,42 +16713,42 @@
     <row r="194" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="195" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A195" s="7" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="B195" s="12" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A196" s="7" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="B196" s="12" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
     </row>
     <row r="197" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A197" s="7" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="B197" s="12" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
     </row>
     <row r="198" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A198" s="7" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="B198" s="12" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
     </row>
     <row r="199" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A199" s="7" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="B199" s="12" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
     </row>
     <row r="200" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16756,90 +16756,90 @@
     <row r="202" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="203" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A203" s="7" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="B203" s="12" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
     </row>
     <row r="204" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A204" s="7" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="B204" s="12" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A205" s="7" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="B205" s="12" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A206" s="7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
       <c r="B206" s="12" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A207" s="7" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
       <c r="B207" s="12" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="208" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A208" s="7" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
       <c r="B208" s="12" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="209" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A209" s="7" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
       <c r="B209" s="12" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="210" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A210" s="7" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
       <c r="B210" s="12" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="211" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A211" s="7" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
       <c r="B211" s="12" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="212" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A212" s="7" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="B212" s="12" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="213" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A213" s="7" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="B213" s="12" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="214" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16847,74 +16847,74 @@
     <row r="216" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="217" spans="1:2" ht="218.4" x14ac:dyDescent="0.25">
       <c r="A217" s="7" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
       <c r="B217" s="12" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="218" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A218" s="7" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
       <c r="B218" s="12" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="219" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A219" s="7" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
       <c r="B219" s="12" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="220" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A220" s="7" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
       <c r="B220" s="12" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="221" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A221" s="7" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
       <c r="B221" s="12" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="222" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A222" s="7" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
       <c r="B222" s="12" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="223" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A223" s="7" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="B223" s="12" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A224" s="7" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="B224" s="12" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
     </row>
     <row r="225" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A225" s="7" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="B225" s="12" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
     </row>
     <row r="226" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16923,10 +16923,10 @@
     <row r="229" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="230" spans="1:2" ht="249.6" x14ac:dyDescent="0.25">
       <c r="A230" s="7" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="B230" s="12" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
     </row>
     <row r="231" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16934,58 +16934,58 @@
     <row r="233" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="234" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A234" s="7" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="B234" s="12" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
     </row>
     <row r="235" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A235" s="7" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="B235" s="12" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
     </row>
     <row r="236" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A236" s="7" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="B236" s="12" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A237" s="7" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="B237" s="12" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
     </row>
     <row r="238" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A238" s="7" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="B238" s="12" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
     </row>
     <row r="239" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A239" s="7" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="B239" s="12" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
     </row>
     <row r="240" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A240" s="7" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="B240" s="12" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
     </row>
     <row r="241" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -16993,10 +16993,10 @@
     <row r="243" spans="1:2" ht="9.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="244" spans="1:2" ht="156" x14ac:dyDescent="0.25">
       <c r="A244" s="7" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="B244" s="12" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
     </row>
     <row r="245" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17004,58 +17004,58 @@
     <row r="247" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="248" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A248" s="7" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="B248" s="12" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
     </row>
     <row r="249" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A249" s="7" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="B249" s="12" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
     </row>
     <row r="250" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A250" s="7" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="B250" s="12" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
     </row>
     <row r="251" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A251" s="7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="B251" s="12" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
     </row>
     <row r="252" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A252" s="7" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="B252" s="12" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A253" s="7" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="B253" s="12" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
     </row>
     <row r="254" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A254" s="7" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="B254" s="12" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
     </row>
     <row r="255" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17063,26 +17063,26 @@
     <row r="257" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="258" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A258" s="7" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="B258" s="12" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
     </row>
     <row r="259" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A259" s="7" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="B259" s="12" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A260" s="7" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="B260" s="12" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
     </row>
     <row r="261" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17090,34 +17090,34 @@
     <row r="263" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="264" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A264" s="7" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="B264" s="12" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
     </row>
     <row r="265" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A265" s="7" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="B265" s="12" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A266" s="7" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="B266" s="12" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
     </row>
     <row r="267" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A267" s="7" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="B267" s="12" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
     </row>
     <row r="268" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17125,10 +17125,10 @@
     <row r="270" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="271" spans="1:2" ht="171.6" x14ac:dyDescent="0.25">
       <c r="A271" s="7" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="B271" s="12" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
     </row>
     <row r="272" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17136,66 +17136,66 @@
     <row r="274" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="275" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A275" s="7" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="B275" s="12" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
     </row>
     <row r="276" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A276" s="7" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="B276" s="12" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
     </row>
     <row r="277" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A277" s="7" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="B277" s="12" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
     </row>
     <row r="278" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A278" s="7" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="B278" s="12" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
     </row>
     <row r="279" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A279" s="7" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="B279" s="12" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
     </row>
     <row r="280" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A280" s="7" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="B280" s="12" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
     </row>
     <row r="281" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A281" s="7" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="B281" s="12" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
     </row>
     <row r="282" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A282" s="7" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="B282" s="12" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
     </row>
     <row r="283" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17203,10 +17203,10 @@
     <row r="285" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="286" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A286" s="7" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="B286" s="12" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
     </row>
     <row r="287" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17214,34 +17214,34 @@
     <row r="289" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="290" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A290" s="7" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="B290" s="12" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
     </row>
     <row r="291" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A291" s="7" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="B291" s="12" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
     </row>
     <row r="292" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A292" s="7" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="B292" s="12" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
     </row>
     <row r="293" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A293" s="7" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="B293" s="12" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
     </row>
     <row r="294" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17249,10 +17249,10 @@
     <row r="296" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="297" spans="1:2" ht="234" x14ac:dyDescent="0.25">
       <c r="A297" s="7" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="B297" s="12" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
     </row>
     <row r="298" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17260,266 +17260,266 @@
     <row r="300" spans="1:2" ht="7.8" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="301" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A301" s="7" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="B301" s="12" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
     </row>
     <row r="302" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A302" s="7" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="B302" s="12" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
     </row>
     <row r="303" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A303" s="7" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="B303" s="12" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
     </row>
     <row r="304" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A304" s="7" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="B304" s="12" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
     </row>
     <row r="305" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A305" s="7" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="B305" s="12" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
     </row>
     <row r="306" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A306" s="7" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="B306" s="12" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
     </row>
     <row r="307" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A307" s="7" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="B307" s="12" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
     </row>
     <row r="308" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A308" s="7" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="B308" s="12" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
     </row>
     <row r="309" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A309" s="7" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="B309" s="12" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
     </row>
     <row r="310" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A310" s="7" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="B310" s="12" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
     </row>
     <row r="311" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A311" s="7" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="B311" s="12" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
     </row>
     <row r="312" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A312" s="7" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="B312" s="12" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
     </row>
     <row r="313" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A313" s="7" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="B313" s="12" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
     </row>
     <row r="314" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A314" s="7" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="B314" s="12" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
     </row>
     <row r="315" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A315" s="7" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="B315" s="12" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
     </row>
     <row r="316" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A316" s="7" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="B316" s="12" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
     </row>
     <row r="317" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A317" s="7" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="B317" s="12" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A318" s="7" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="B318" s="12" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
     </row>
     <row r="319" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A319" s="7" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="B319" s="12" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A320" s="7" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="B320" s="12" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
     </row>
     <row r="321" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A321" s="7" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="B321" s="12" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
     </row>
     <row r="322" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A322" s="7" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="B322" s="12" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
     </row>
     <row r="323" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A323" s="7" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="B323" s="12" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
     </row>
     <row r="324" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A324" s="7" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="B324" s="12" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A325" s="7" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="B325" s="12" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
     </row>
     <row r="326" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A326" s="7" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="B326" s="12" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A327" s="7" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="B327" s="12" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A328" s="7" t="s">
+        <v>964</v>
+      </c>
+      <c r="B328" s="12" t="s">
         <v>966</v>
-      </c>
-      <c r="B328" s="12" t="s">
-        <v>968</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A329" s="7" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="B329" s="12" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A330" s="7" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="B330" s="12" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
     </row>
     <row r="331" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A331" s="7" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="B331" s="12" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A332" s="7" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="B332" s="12" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
     </row>
     <row r="333" spans="1:2" ht="124.8" x14ac:dyDescent="0.25">
       <c r="A333" s="7" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="B333" s="12" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
     </row>
     <row r="334" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17527,10 +17527,10 @@
     <row r="336" spans="1:2" ht="6.6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="337" spans="1:2" ht="202.8" x14ac:dyDescent="0.25">
       <c r="A337" s="7" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="B337" s="12" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
     </row>
     <row r="338" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -17538,130 +17538,130 @@
     <row r="340" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="341" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A341" s="7" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="B341" s="12" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
     </row>
     <row r="342" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A342" s="7" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="B342" s="12" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
     </row>
     <row r="343" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A343" s="7" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="B343" s="12" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
     </row>
     <row r="344" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A344" s="7" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="B344" s="12" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
     </row>
     <row r="345" spans="1:2" ht="140.4" x14ac:dyDescent="0.25">
       <c r="A345" s="7" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="B345" s="12" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A346" s="7" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="B346" s="12" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
     </row>
     <row r="347" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A347" s="7" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="B347" s="12" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
     </row>
     <row r="348" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A348" s="7" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="B348" s="12" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
     </row>
     <row r="349" spans="1:2" ht="46.8" x14ac:dyDescent="0.25">
       <c r="A349" s="7" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="B349" s="12" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
     </row>
     <row r="350" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A350" s="7" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="B350" s="12" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
     </row>
     <row r="351" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A351" s="7" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="B351" s="12" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="352" spans="1:2" ht="62.4" x14ac:dyDescent="0.25">
       <c r="A352" s="7" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="B352" s="12" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="353" spans="1:2" ht="93.6" x14ac:dyDescent="0.25">
       <c r="A353" s="7" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="B353" s="12" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="354" spans="1:2" ht="78" x14ac:dyDescent="0.25">
       <c r="A354" s="7" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="B354" s="12" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="355" spans="1:2" ht="109.2" x14ac:dyDescent="0.25">
       <c r="A355" s="7" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="B355" s="12" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A356" s="7" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="B356" s="12" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
     </row>
   </sheetData>
@@ -17675,7 +17675,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B502"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A93" workbookViewId="0">
+    <sheetView topLeftCell="A93" workbookViewId="0">
       <selection activeCell="A102" sqref="A102:B102"/>
     </sheetView>
   </sheetViews>
@@ -17688,15 +17688,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="B1" s="14" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="34.200000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="17" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="B2" s="17"/>
     </row>
@@ -17706,15 +17706,15 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="B5" s="17"/>
     </row>
@@ -17724,15 +17724,15 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="31.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="17" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="B8" s="17"/>
     </row>
@@ -17742,15 +17742,15 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="17" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="B11" s="17"/>
     </row>
@@ -17760,15 +17760,15 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="17" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="B14" s="17"/>
     </row>
@@ -17778,15 +17778,15 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="17" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="B17" s="17"/>
     </row>
@@ -17796,15 +17796,15 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="17" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="B20" s="17"/>
     </row>
@@ -17814,15 +17814,15 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="47.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="17" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="B23" s="17"/>
     </row>
@@ -17832,15 +17832,15 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="17" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="B26" s="17"/>
     </row>
@@ -17850,15 +17850,15 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="17" t="s">
-        <v>1042</v>
+        <v>1040</v>
       </c>
       <c r="B29" s="17"/>
     </row>
@@ -17868,15 +17868,15 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>1043</v>
+        <v>1041</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>1044</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="17" t="s">
-        <v>1045</v>
+        <v>1043</v>
       </c>
       <c r="B32" s="17"/>
     </row>
@@ -17886,15 +17886,15 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="17" t="s">
-        <v>1050</v>
+        <v>1048</v>
       </c>
       <c r="B35" s="17"/>
     </row>
@@ -17904,15 +17904,15 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="38" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="B38" s="17"/>
     </row>
@@ -17922,15 +17922,15 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>1052</v>
+        <v>1050</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="17" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="B41" s="17"/>
     </row>
@@ -17940,15 +17940,15 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="44" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="17" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="B44" s="17"/>
     </row>
@@ -17958,15 +17958,15 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="14" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="47" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="17" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="B47" s="17"/>
     </row>
@@ -17976,15 +17976,15 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="50" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="17" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="B50" s="17"/>
     </row>
@@ -17994,15 +17994,15 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="14" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
     </row>
     <row r="53" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="17" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="B53" s="17"/>
     </row>
@@ -18012,15 +18012,15 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A55" s="14" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="17" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="B56" s="17"/>
     </row>
@@ -18030,15 +18030,15 @@
     </row>
     <row r="58" spans="1:2" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A58" s="14" t="s">
+        <v>1068</v>
+      </c>
+      <c r="B58" s="14" t="s">
         <v>1070</v>
-      </c>
-      <c r="B58" s="14" t="s">
-        <v>1072</v>
       </c>
     </row>
     <row r="59" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="17" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="B59" s="17"/>
     </row>
@@ -18048,15 +18048,15 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="14" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="B61" s="14" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="17" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="B62" s="17"/>
     </row>
@@ -18066,15 +18066,15 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="14" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
     </row>
     <row r="65" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="17" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="B65" s="17"/>
     </row>
@@ -18084,15 +18084,15 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67" s="14" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="B67" s="14" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
     </row>
     <row r="68" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="17" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="B68" s="17"/>
     </row>
@@ -18102,15 +18102,15 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="14" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
     </row>
     <row r="71" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="17" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="B71" s="17"/>
     </row>
@@ -18120,15 +18120,15 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A73" s="14" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
     </row>
     <row r="74" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="17" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="B74" s="17"/>
     </row>
@@ -18138,26 +18138,26 @@
     </row>
     <row r="76" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="14" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
     </row>
     <row r="77" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="14" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
     </row>
     <row r="78" spans="1:2" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="15" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="B78" s="15" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
     </row>
     <row r="79" spans="1:2" ht="6" customHeight="1" x14ac:dyDescent="0.25">
@@ -18166,15 +18166,15 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A80" s="15" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="B80" s="14" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="81" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="17" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="B81" s="17"/>
     </row>
@@ -18184,15 +18184,15 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="14" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
     </row>
     <row r="84" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="17" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="B84" s="17"/>
     </row>
@@ -18202,15 +18202,15 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="14" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="87" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="17" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="B87" s="17"/>
     </row>
@@ -18220,15 +18220,15 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="14" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="B89" s="14" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
     </row>
     <row r="90" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="17" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="B90" s="17"/>
     </row>
@@ -18238,15 +18238,15 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="14" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="B92" s="14" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
     </row>
     <row r="93" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="17" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="B93" s="17"/>
     </row>
@@ -18256,15 +18256,15 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="14" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="B95" s="14" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
     </row>
     <row r="96" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="17" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="B96" s="17"/>
     </row>
@@ -18274,15 +18274,15 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="14" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="B98" s="14" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
     </row>
     <row r="99" spans="1:2" ht="31.8" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="17" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="B99" s="17"/>
     </row>
